--- a/TNR_JDD/JDD.ST.MAG.xlsx
+++ b/TNR_JDD/JDD.ST.MAG.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjYQvF/c0ZXPmZTUIz0WpH4fsu5/Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7min2WFFyMBL3CCx4AaeNrh3eBAd1Q=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -38,7 +38,7 @@
     <t>JM Lafarge</t>
   </si>
   <si>
-    <t>DRAFT</t>
+    <t>Création de l'onglet 001 pour la table MAG</t>
   </si>
   <si>
     <t>Version de Mainta pour laquelle le JDD de référence est validé</t>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>TABLE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
   </si>
   <si>
     <t>Num écran</t>
@@ -65,6 +68,9 @@
     <t>Libellé des champs (colonnes)</t>
   </si>
   <si>
+    <t>PK en rouge</t>
+  </si>
+  <si>
     <t>La rubrique n'est pas présente dans l'IHM</t>
   </si>
   <si>
@@ -78,6 +84,9 @@
   </si>
   <si>
     <t>Code du site</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
   </si>
   <si>
     <t>OK</t>
@@ -98,10 +107,16 @@
     <t>Désignation</t>
   </si>
   <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
     <t>ST_VIR</t>
   </si>
   <si>
     <t>Magasin virtuel</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
   <si>
     <t>ST_TYPMAG</t>
@@ -110,10 +125,16 @@
     <t>Type de magasin</t>
   </si>
   <si>
+    <t>varchar(1)</t>
+  </si>
+  <si>
     <t>ID_CODUTI</t>
   </si>
   <si>
     <t>Utilisateur</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
   </si>
   <si>
     <t>Calculé</t>
@@ -129,6 +150,9 @@
   </si>
   <si>
     <t>Date de dernier classement des articles</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
   </si>
   <si>
     <t>PREREQUIS</t>
@@ -150,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -169,8 +193,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -194,6 +227,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -209,17 +248,13 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="9.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -311,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -324,17 +359,23 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -343,55 +384,70 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf quotePrefix="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -617,7 +673,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="10.63"/>
-    <col customWidth="1" min="3" max="3" width="29.88"/>
+    <col customWidth="1" min="3" max="3" width="32.5"/>
     <col customWidth="1" min="4" max="4" width="10.63"/>
     <col customWidth="1" min="5" max="5" width="12.13"/>
     <col customWidth="1" min="6" max="26" width="10.63"/>
@@ -647,12 +703,12 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1763,176 +1819,207 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="13.5"/>
     <col customWidth="1" min="2" max="2" width="61.5"/>
-    <col customWidth="1" min="3" max="3" width="24.38"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="12.13"/>
-    <col customWidth="1" min="6" max="26" width="10.63"/>
+    <col customWidth="1" min="3" max="4" width="24.38"/>
+    <col customWidth="1" min="5" max="5" width="10.63"/>
+    <col customWidth="1" min="6" max="6" width="12.13"/>
+    <col customWidth="1" min="7" max="27" width="10.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="6">
         <v>1030.0</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="C4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="E4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="F4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="14" t="s">
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="B6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>20</v>
+      <c r="E6" s="21" t="s">
+        <v>23</v>
       </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>20</v>
+      <c r="E7" s="21" t="s">
+        <v>23</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="14" t="s">
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="C8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="E8" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="B9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>20</v>
+      <c r="E10" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1"/>
@@ -2857,5055 +2944,5055 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>17</v>
+      <c r="A1" s="27" t="s">
+        <v>19</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>18</v>
+      <c r="B1" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>22</v>
+      <c r="C1" s="28" t="s">
+        <v>25</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>24</v>
+      <c r="D1" s="29" t="s">
+        <v>27</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="23" t="s">
+      <c r="E1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="F1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>35</v>
+      <c r="G1" s="30" t="s">
+        <v>36</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="H1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="I1" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="A6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="A7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="A8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="A9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="A10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="A11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="A12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="A13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="A14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="A15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="A16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="A17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="A18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="A19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="A20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="I20" s="36"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="A21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="A22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="A23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="A24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="I24" s="36"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="I25" s="29"/>
+      <c r="A25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="A26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="I26" s="36"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="I27" s="29"/>
+      <c r="A27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="I27" s="36"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="A28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="A29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="I29" s="36"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="I30" s="29"/>
+      <c r="A30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="I31" s="29"/>
+      <c r="A31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="I32" s="29"/>
+      <c r="A32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="I33" s="29"/>
+      <c r="A33" s="35"/>
+      <c r="G33" s="36"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="A34" s="35"/>
+      <c r="G34" s="36"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="G35" s="29"/>
-      <c r="I35" s="29"/>
+      <c r="A35" s="35"/>
+      <c r="G35" s="36"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="28"/>
-      <c r="G36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="A36" s="35"/>
+      <c r="G36" s="36"/>
+      <c r="I36" s="36"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="28"/>
-      <c r="G37" s="29"/>
-      <c r="I37" s="29"/>
+      <c r="A37" s="35"/>
+      <c r="G37" s="36"/>
+      <c r="I37" s="36"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="28"/>
-      <c r="G38" s="29"/>
-      <c r="I38" s="29"/>
+      <c r="A38" s="35"/>
+      <c r="G38" s="36"/>
+      <c r="I38" s="36"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="28"/>
-      <c r="G39" s="29"/>
-      <c r="I39" s="29"/>
+      <c r="A39" s="35"/>
+      <c r="G39" s="36"/>
+      <c r="I39" s="36"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="G40" s="29"/>
-      <c r="I40" s="29"/>
+      <c r="A40" s="35"/>
+      <c r="G40" s="36"/>
+      <c r="I40" s="36"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="28"/>
-      <c r="G41" s="29"/>
-      <c r="I41" s="29"/>
+      <c r="A41" s="35"/>
+      <c r="G41" s="36"/>
+      <c r="I41" s="36"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="28"/>
-      <c r="G42" s="29"/>
-      <c r="I42" s="29"/>
+      <c r="A42" s="35"/>
+      <c r="G42" s="36"/>
+      <c r="I42" s="36"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="28"/>
-      <c r="G43" s="29"/>
-      <c r="I43" s="29"/>
+      <c r="A43" s="35"/>
+      <c r="G43" s="36"/>
+      <c r="I43" s="36"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="28"/>
-      <c r="G44" s="29"/>
-      <c r="I44" s="29"/>
+      <c r="A44" s="35"/>
+      <c r="G44" s="36"/>
+      <c r="I44" s="36"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="28"/>
-      <c r="G45" s="29"/>
-      <c r="I45" s="29"/>
+      <c r="A45" s="35"/>
+      <c r="G45" s="36"/>
+      <c r="I45" s="36"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="28"/>
-      <c r="G46" s="29"/>
-      <c r="I46" s="29"/>
+      <c r="A46" s="35"/>
+      <c r="G46" s="36"/>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="28"/>
-      <c r="G47" s="29"/>
-      <c r="I47" s="29"/>
+      <c r="A47" s="35"/>
+      <c r="G47" s="36"/>
+      <c r="I47" s="36"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="28"/>
-      <c r="G48" s="29"/>
-      <c r="I48" s="29"/>
+      <c r="A48" s="35"/>
+      <c r="G48" s="36"/>
+      <c r="I48" s="36"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="28"/>
-      <c r="G49" s="29"/>
-      <c r="I49" s="29"/>
+      <c r="A49" s="35"/>
+      <c r="G49" s="36"/>
+      <c r="I49" s="36"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="28"/>
-      <c r="G50" s="29"/>
-      <c r="I50" s="29"/>
+      <c r="A50" s="35"/>
+      <c r="G50" s="36"/>
+      <c r="I50" s="36"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="28"/>
-      <c r="G51" s="29"/>
-      <c r="I51" s="29"/>
+      <c r="A51" s="35"/>
+      <c r="G51" s="36"/>
+      <c r="I51" s="36"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="28"/>
-      <c r="G52" s="29"/>
-      <c r="I52" s="29"/>
+      <c r="A52" s="35"/>
+      <c r="G52" s="36"/>
+      <c r="I52" s="36"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="28"/>
-      <c r="G53" s="29"/>
-      <c r="I53" s="29"/>
+      <c r="A53" s="35"/>
+      <c r="G53" s="36"/>
+      <c r="I53" s="36"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="28"/>
-      <c r="G54" s="29"/>
-      <c r="I54" s="29"/>
+      <c r="A54" s="35"/>
+      <c r="G54" s="36"/>
+      <c r="I54" s="36"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="28"/>
-      <c r="G55" s="29"/>
-      <c r="I55" s="29"/>
+      <c r="A55" s="35"/>
+      <c r="G55" s="36"/>
+      <c r="I55" s="36"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="28"/>
-      <c r="G56" s="29"/>
-      <c r="I56" s="29"/>
+      <c r="A56" s="35"/>
+      <c r="G56" s="36"/>
+      <c r="I56" s="36"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="28"/>
-      <c r="G57" s="29"/>
-      <c r="I57" s="29"/>
+      <c r="A57" s="35"/>
+      <c r="G57" s="36"/>
+      <c r="I57" s="36"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="28"/>
-      <c r="G58" s="29"/>
-      <c r="I58" s="29"/>
+      <c r="A58" s="35"/>
+      <c r="G58" s="36"/>
+      <c r="I58" s="36"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="28"/>
-      <c r="G59" s="29"/>
-      <c r="I59" s="29"/>
+      <c r="A59" s="35"/>
+      <c r="G59" s="36"/>
+      <c r="I59" s="36"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="28"/>
-      <c r="G60" s="29"/>
-      <c r="I60" s="29"/>
+      <c r="A60" s="35"/>
+      <c r="G60" s="36"/>
+      <c r="I60" s="36"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="28"/>
-      <c r="G61" s="29"/>
-      <c r="I61" s="29"/>
+      <c r="A61" s="35"/>
+      <c r="G61" s="36"/>
+      <c r="I61" s="36"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="28"/>
-      <c r="G62" s="29"/>
-      <c r="I62" s="29"/>
+      <c r="A62" s="35"/>
+      <c r="G62" s="36"/>
+      <c r="I62" s="36"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="28"/>
-      <c r="G63" s="29"/>
-      <c r="I63" s="29"/>
+      <c r="A63" s="35"/>
+      <c r="G63" s="36"/>
+      <c r="I63" s="36"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="28"/>
-      <c r="G64" s="29"/>
-      <c r="I64" s="29"/>
+      <c r="A64" s="35"/>
+      <c r="G64" s="36"/>
+      <c r="I64" s="36"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="28"/>
-      <c r="G65" s="29"/>
-      <c r="I65" s="29"/>
+      <c r="A65" s="35"/>
+      <c r="G65" s="36"/>
+      <c r="I65" s="36"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="28"/>
-      <c r="G66" s="29"/>
-      <c r="I66" s="29"/>
+      <c r="A66" s="35"/>
+      <c r="G66" s="36"/>
+      <c r="I66" s="36"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="28"/>
-      <c r="G67" s="29"/>
-      <c r="I67" s="29"/>
+      <c r="A67" s="35"/>
+      <c r="G67" s="36"/>
+      <c r="I67" s="36"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="28"/>
-      <c r="G68" s="29"/>
-      <c r="I68" s="29"/>
+      <c r="A68" s="35"/>
+      <c r="G68" s="36"/>
+      <c r="I68" s="36"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="28"/>
-      <c r="G69" s="29"/>
-      <c r="I69" s="29"/>
+      <c r="A69" s="35"/>
+      <c r="G69" s="36"/>
+      <c r="I69" s="36"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="28"/>
-      <c r="G70" s="29"/>
-      <c r="I70" s="29"/>
+      <c r="A70" s="35"/>
+      <c r="G70" s="36"/>
+      <c r="I70" s="36"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="28"/>
-      <c r="G71" s="29"/>
-      <c r="I71" s="29"/>
+      <c r="A71" s="35"/>
+      <c r="G71" s="36"/>
+      <c r="I71" s="36"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="28"/>
-      <c r="G72" s="29"/>
-      <c r="I72" s="29"/>
+      <c r="A72" s="35"/>
+      <c r="G72" s="36"/>
+      <c r="I72" s="36"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="28"/>
-      <c r="G73" s="29"/>
-      <c r="I73" s="29"/>
+      <c r="A73" s="35"/>
+      <c r="G73" s="36"/>
+      <c r="I73" s="36"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="28"/>
-      <c r="G74" s="29"/>
-      <c r="I74" s="29"/>
+      <c r="A74" s="35"/>
+      <c r="G74" s="36"/>
+      <c r="I74" s="36"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="28"/>
-      <c r="G75" s="29"/>
-      <c r="I75" s="29"/>
+      <c r="A75" s="35"/>
+      <c r="G75" s="36"/>
+      <c r="I75" s="36"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="28"/>
-      <c r="G76" s="29"/>
-      <c r="I76" s="29"/>
+      <c r="A76" s="35"/>
+      <c r="G76" s="36"/>
+      <c r="I76" s="36"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="28"/>
-      <c r="G77" s="29"/>
-      <c r="I77" s="29"/>
+      <c r="A77" s="35"/>
+      <c r="G77" s="36"/>
+      <c r="I77" s="36"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="28"/>
-      <c r="G78" s="29"/>
-      <c r="I78" s="29"/>
+      <c r="A78" s="35"/>
+      <c r="G78" s="36"/>
+      <c r="I78" s="36"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="28"/>
-      <c r="G79" s="29"/>
-      <c r="I79" s="29"/>
+      <c r="A79" s="35"/>
+      <c r="G79" s="36"/>
+      <c r="I79" s="36"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="28"/>
-      <c r="G80" s="29"/>
-      <c r="I80" s="29"/>
+      <c r="A80" s="35"/>
+      <c r="G80" s="36"/>
+      <c r="I80" s="36"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="28"/>
-      <c r="G81" s="29"/>
-      <c r="I81" s="29"/>
+      <c r="A81" s="35"/>
+      <c r="G81" s="36"/>
+      <c r="I81" s="36"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="28"/>
-      <c r="G82" s="29"/>
-      <c r="I82" s="29"/>
+      <c r="A82" s="35"/>
+      <c r="G82" s="36"/>
+      <c r="I82" s="36"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="28"/>
-      <c r="G83" s="29"/>
-      <c r="I83" s="29"/>
+      <c r="A83" s="35"/>
+      <c r="G83" s="36"/>
+      <c r="I83" s="36"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="28"/>
-      <c r="G84" s="29"/>
-      <c r="I84" s="29"/>
+      <c r="A84" s="35"/>
+      <c r="G84" s="36"/>
+      <c r="I84" s="36"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="28"/>
-      <c r="G85" s="29"/>
-      <c r="I85" s="29"/>
+      <c r="A85" s="35"/>
+      <c r="G85" s="36"/>
+      <c r="I85" s="36"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="28"/>
-      <c r="G86" s="29"/>
-      <c r="I86" s="29"/>
+      <c r="A86" s="35"/>
+      <c r="G86" s="36"/>
+      <c r="I86" s="36"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="28"/>
-      <c r="G87" s="29"/>
-      <c r="I87" s="29"/>
+      <c r="A87" s="35"/>
+      <c r="G87" s="36"/>
+      <c r="I87" s="36"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="28"/>
-      <c r="G88" s="29"/>
-      <c r="I88" s="29"/>
+      <c r="A88" s="35"/>
+      <c r="G88" s="36"/>
+      <c r="I88" s="36"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="28"/>
-      <c r="G89" s="29"/>
-      <c r="I89" s="29"/>
+      <c r="A89" s="35"/>
+      <c r="G89" s="36"/>
+      <c r="I89" s="36"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="28"/>
-      <c r="G90" s="29"/>
-      <c r="I90" s="29"/>
+      <c r="A90" s="35"/>
+      <c r="G90" s="36"/>
+      <c r="I90" s="36"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="28"/>
-      <c r="G91" s="29"/>
-      <c r="I91" s="29"/>
+      <c r="A91" s="35"/>
+      <c r="G91" s="36"/>
+      <c r="I91" s="36"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="28"/>
-      <c r="G92" s="29"/>
-      <c r="I92" s="29"/>
+      <c r="A92" s="35"/>
+      <c r="G92" s="36"/>
+      <c r="I92" s="36"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="28"/>
-      <c r="G93" s="29"/>
-      <c r="I93" s="29"/>
+      <c r="A93" s="35"/>
+      <c r="G93" s="36"/>
+      <c r="I93" s="36"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="28"/>
-      <c r="G94" s="29"/>
-      <c r="I94" s="29"/>
+      <c r="A94" s="35"/>
+      <c r="G94" s="36"/>
+      <c r="I94" s="36"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="28"/>
-      <c r="G95" s="29"/>
-      <c r="I95" s="29"/>
+      <c r="A95" s="35"/>
+      <c r="G95" s="36"/>
+      <c r="I95" s="36"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="28"/>
-      <c r="G96" s="29"/>
-      <c r="I96" s="29"/>
+      <c r="A96" s="35"/>
+      <c r="G96" s="36"/>
+      <c r="I96" s="36"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="28"/>
-      <c r="G97" s="29"/>
-      <c r="I97" s="29"/>
+      <c r="A97" s="35"/>
+      <c r="G97" s="36"/>
+      <c r="I97" s="36"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="28"/>
-      <c r="G98" s="29"/>
-      <c r="I98" s="29"/>
+      <c r="A98" s="35"/>
+      <c r="G98" s="36"/>
+      <c r="I98" s="36"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="28"/>
-      <c r="G99" s="29"/>
-      <c r="I99" s="29"/>
+      <c r="A99" s="35"/>
+      <c r="G99" s="36"/>
+      <c r="I99" s="36"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="28"/>
-      <c r="G100" s="29"/>
-      <c r="I100" s="29"/>
+      <c r="A100" s="35"/>
+      <c r="G100" s="36"/>
+      <c r="I100" s="36"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="28"/>
-      <c r="G101" s="29"/>
-      <c r="I101" s="29"/>
+      <c r="A101" s="35"/>
+      <c r="G101" s="36"/>
+      <c r="I101" s="36"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="28"/>
-      <c r="G102" s="29"/>
-      <c r="I102" s="29"/>
+      <c r="A102" s="35"/>
+      <c r="G102" s="36"/>
+      <c r="I102" s="36"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="28"/>
-      <c r="G103" s="29"/>
-      <c r="I103" s="29"/>
+      <c r="A103" s="35"/>
+      <c r="G103" s="36"/>
+      <c r="I103" s="36"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="28"/>
-      <c r="G104" s="29"/>
-      <c r="I104" s="29"/>
+      <c r="A104" s="35"/>
+      <c r="G104" s="36"/>
+      <c r="I104" s="36"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="28"/>
-      <c r="G105" s="29"/>
-      <c r="I105" s="29"/>
+      <c r="A105" s="35"/>
+      <c r="G105" s="36"/>
+      <c r="I105" s="36"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="28"/>
-      <c r="G106" s="29"/>
-      <c r="I106" s="29"/>
+      <c r="A106" s="35"/>
+      <c r="G106" s="36"/>
+      <c r="I106" s="36"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="28"/>
-      <c r="G107" s="29"/>
-      <c r="I107" s="29"/>
+      <c r="A107" s="35"/>
+      <c r="G107" s="36"/>
+      <c r="I107" s="36"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="28"/>
-      <c r="G108" s="29"/>
-      <c r="I108" s="29"/>
+      <c r="A108" s="35"/>
+      <c r="G108" s="36"/>
+      <c r="I108" s="36"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="28"/>
-      <c r="G109" s="29"/>
-      <c r="I109" s="29"/>
+      <c r="A109" s="35"/>
+      <c r="G109" s="36"/>
+      <c r="I109" s="36"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="28"/>
-      <c r="G110" s="29"/>
-      <c r="I110" s="29"/>
+      <c r="A110" s="35"/>
+      <c r="G110" s="36"/>
+      <c r="I110" s="36"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="28"/>
-      <c r="G111" s="29"/>
-      <c r="I111" s="29"/>
+      <c r="A111" s="35"/>
+      <c r="G111" s="36"/>
+      <c r="I111" s="36"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="28"/>
-      <c r="G112" s="29"/>
-      <c r="I112" s="29"/>
+      <c r="A112" s="35"/>
+      <c r="G112" s="36"/>
+      <c r="I112" s="36"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="28"/>
-      <c r="G113" s="29"/>
-      <c r="I113" s="29"/>
+      <c r="A113" s="35"/>
+      <c r="G113" s="36"/>
+      <c r="I113" s="36"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="28"/>
-      <c r="G114" s="29"/>
-      <c r="I114" s="29"/>
+      <c r="A114" s="35"/>
+      <c r="G114" s="36"/>
+      <c r="I114" s="36"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="28"/>
-      <c r="G115" s="29"/>
-      <c r="I115" s="29"/>
+      <c r="A115" s="35"/>
+      <c r="G115" s="36"/>
+      <c r="I115" s="36"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="28"/>
-      <c r="G116" s="29"/>
-      <c r="I116" s="29"/>
+      <c r="A116" s="35"/>
+      <c r="G116" s="36"/>
+      <c r="I116" s="36"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="28"/>
-      <c r="G117" s="29"/>
-      <c r="I117" s="29"/>
+      <c r="A117" s="35"/>
+      <c r="G117" s="36"/>
+      <c r="I117" s="36"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="28"/>
-      <c r="G118" s="29"/>
-      <c r="I118" s="29"/>
+      <c r="A118" s="35"/>
+      <c r="G118" s="36"/>
+      <c r="I118" s="36"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="28"/>
-      <c r="G119" s="29"/>
-      <c r="I119" s="29"/>
+      <c r="A119" s="35"/>
+      <c r="G119" s="36"/>
+      <c r="I119" s="36"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="28"/>
-      <c r="G120" s="29"/>
-      <c r="I120" s="29"/>
+      <c r="A120" s="35"/>
+      <c r="G120" s="36"/>
+      <c r="I120" s="36"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="28"/>
-      <c r="G121" s="29"/>
-      <c r="I121" s="29"/>
+      <c r="A121" s="35"/>
+      <c r="G121" s="36"/>
+      <c r="I121" s="36"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="28"/>
-      <c r="G122" s="29"/>
-      <c r="I122" s="29"/>
+      <c r="A122" s="35"/>
+      <c r="G122" s="36"/>
+      <c r="I122" s="36"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="28"/>
-      <c r="G123" s="29"/>
-      <c r="I123" s="29"/>
+      <c r="A123" s="35"/>
+      <c r="G123" s="36"/>
+      <c r="I123" s="36"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="28"/>
-      <c r="G124" s="29"/>
-      <c r="I124" s="29"/>
+      <c r="A124" s="35"/>
+      <c r="G124" s="36"/>
+      <c r="I124" s="36"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="28"/>
-      <c r="G125" s="29"/>
-      <c r="I125" s="29"/>
+      <c r="A125" s="35"/>
+      <c r="G125" s="36"/>
+      <c r="I125" s="36"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="28"/>
-      <c r="G126" s="29"/>
-      <c r="I126" s="29"/>
+      <c r="A126" s="35"/>
+      <c r="G126" s="36"/>
+      <c r="I126" s="36"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="28"/>
-      <c r="G127" s="29"/>
-      <c r="I127" s="29"/>
+      <c r="A127" s="35"/>
+      <c r="G127" s="36"/>
+      <c r="I127" s="36"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="28"/>
-      <c r="G128" s="29"/>
-      <c r="I128" s="29"/>
+      <c r="A128" s="35"/>
+      <c r="G128" s="36"/>
+      <c r="I128" s="36"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="28"/>
-      <c r="G129" s="29"/>
-      <c r="I129" s="29"/>
+      <c r="A129" s="35"/>
+      <c r="G129" s="36"/>
+      <c r="I129" s="36"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="28"/>
-      <c r="G130" s="29"/>
-      <c r="I130" s="29"/>
+      <c r="A130" s="35"/>
+      <c r="G130" s="36"/>
+      <c r="I130" s="36"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="28"/>
-      <c r="G131" s="29"/>
-      <c r="I131" s="29"/>
+      <c r="A131" s="35"/>
+      <c r="G131" s="36"/>
+      <c r="I131" s="36"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="28"/>
-      <c r="G132" s="29"/>
-      <c r="I132" s="29"/>
+      <c r="A132" s="35"/>
+      <c r="G132" s="36"/>
+      <c r="I132" s="36"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="28"/>
-      <c r="G133" s="29"/>
-      <c r="I133" s="29"/>
+      <c r="A133" s="35"/>
+      <c r="G133" s="36"/>
+      <c r="I133" s="36"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="28"/>
-      <c r="G134" s="29"/>
-      <c r="I134" s="29"/>
+      <c r="A134" s="35"/>
+      <c r="G134" s="36"/>
+      <c r="I134" s="36"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="28"/>
-      <c r="G135" s="29"/>
-      <c r="I135" s="29"/>
+      <c r="A135" s="35"/>
+      <c r="G135" s="36"/>
+      <c r="I135" s="36"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="28"/>
-      <c r="G136" s="29"/>
-      <c r="I136" s="29"/>
+      <c r="A136" s="35"/>
+      <c r="G136" s="36"/>
+      <c r="I136" s="36"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="28"/>
-      <c r="G137" s="29"/>
-      <c r="I137" s="29"/>
+      <c r="A137" s="35"/>
+      <c r="G137" s="36"/>
+      <c r="I137" s="36"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="28"/>
-      <c r="G138" s="29"/>
-      <c r="I138" s="29"/>
+      <c r="A138" s="35"/>
+      <c r="G138" s="36"/>
+      <c r="I138" s="36"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="28"/>
-      <c r="G139" s="29"/>
-      <c r="I139" s="29"/>
+      <c r="A139" s="35"/>
+      <c r="G139" s="36"/>
+      <c r="I139" s="36"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="28"/>
-      <c r="G140" s="29"/>
-      <c r="I140" s="29"/>
+      <c r="A140" s="35"/>
+      <c r="G140" s="36"/>
+      <c r="I140" s="36"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="28"/>
-      <c r="G141" s="29"/>
-      <c r="I141" s="29"/>
+      <c r="A141" s="35"/>
+      <c r="G141" s="36"/>
+      <c r="I141" s="36"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="28"/>
-      <c r="G142" s="29"/>
-      <c r="I142" s="29"/>
+      <c r="A142" s="35"/>
+      <c r="G142" s="36"/>
+      <c r="I142" s="36"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="28"/>
-      <c r="G143" s="29"/>
-      <c r="I143" s="29"/>
+      <c r="A143" s="35"/>
+      <c r="G143" s="36"/>
+      <c r="I143" s="36"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="28"/>
-      <c r="G144" s="29"/>
-      <c r="I144" s="29"/>
+      <c r="A144" s="35"/>
+      <c r="G144" s="36"/>
+      <c r="I144" s="36"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="28"/>
-      <c r="G145" s="29"/>
-      <c r="I145" s="29"/>
+      <c r="A145" s="35"/>
+      <c r="G145" s="36"/>
+      <c r="I145" s="36"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="28"/>
-      <c r="G146" s="29"/>
-      <c r="I146" s="29"/>
+      <c r="A146" s="35"/>
+      <c r="G146" s="36"/>
+      <c r="I146" s="36"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="28"/>
-      <c r="G147" s="29"/>
-      <c r="I147" s="29"/>
+      <c r="A147" s="35"/>
+      <c r="G147" s="36"/>
+      <c r="I147" s="36"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="28"/>
-      <c r="G148" s="29"/>
-      <c r="I148" s="29"/>
+      <c r="A148" s="35"/>
+      <c r="G148" s="36"/>
+      <c r="I148" s="36"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="28"/>
-      <c r="G149" s="29"/>
-      <c r="I149" s="29"/>
+      <c r="A149" s="35"/>
+      <c r="G149" s="36"/>
+      <c r="I149" s="36"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="28"/>
-      <c r="G150" s="29"/>
-      <c r="I150" s="29"/>
+      <c r="A150" s="35"/>
+      <c r="G150" s="36"/>
+      <c r="I150" s="36"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="28"/>
-      <c r="G151" s="29"/>
-      <c r="I151" s="29"/>
+      <c r="A151" s="35"/>
+      <c r="G151" s="36"/>
+      <c r="I151" s="36"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="28"/>
-      <c r="G152" s="29"/>
-      <c r="I152" s="29"/>
+      <c r="A152" s="35"/>
+      <c r="G152" s="36"/>
+      <c r="I152" s="36"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="28"/>
-      <c r="G153" s="29"/>
-      <c r="I153" s="29"/>
+      <c r="A153" s="35"/>
+      <c r="G153" s="36"/>
+      <c r="I153" s="36"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="28"/>
-      <c r="G154" s="29"/>
-      <c r="I154" s="29"/>
+      <c r="A154" s="35"/>
+      <c r="G154" s="36"/>
+      <c r="I154" s="36"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="28"/>
-      <c r="G155" s="29"/>
-      <c r="I155" s="29"/>
+      <c r="A155" s="35"/>
+      <c r="G155" s="36"/>
+      <c r="I155" s="36"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="28"/>
-      <c r="G156" s="29"/>
-      <c r="I156" s="29"/>
+      <c r="A156" s="35"/>
+      <c r="G156" s="36"/>
+      <c r="I156" s="36"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="28"/>
-      <c r="G157" s="29"/>
-      <c r="I157" s="29"/>
+      <c r="A157" s="35"/>
+      <c r="G157" s="36"/>
+      <c r="I157" s="36"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="28"/>
-      <c r="G158" s="29"/>
-      <c r="I158" s="29"/>
+      <c r="A158" s="35"/>
+      <c r="G158" s="36"/>
+      <c r="I158" s="36"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="28"/>
-      <c r="G159" s="29"/>
-      <c r="I159" s="29"/>
+      <c r="A159" s="35"/>
+      <c r="G159" s="36"/>
+      <c r="I159" s="36"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="28"/>
-      <c r="G160" s="29"/>
-      <c r="I160" s="29"/>
+      <c r="A160" s="35"/>
+      <c r="G160" s="36"/>
+      <c r="I160" s="36"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="28"/>
-      <c r="G161" s="29"/>
-      <c r="I161" s="29"/>
+      <c r="A161" s="35"/>
+      <c r="G161" s="36"/>
+      <c r="I161" s="36"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="28"/>
-      <c r="G162" s="29"/>
-      <c r="I162" s="29"/>
+      <c r="A162" s="35"/>
+      <c r="G162" s="36"/>
+      <c r="I162" s="36"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="28"/>
-      <c r="G163" s="29"/>
-      <c r="I163" s="29"/>
+      <c r="A163" s="35"/>
+      <c r="G163" s="36"/>
+      <c r="I163" s="36"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="28"/>
-      <c r="G164" s="29"/>
-      <c r="I164" s="29"/>
+      <c r="A164" s="35"/>
+      <c r="G164" s="36"/>
+      <c r="I164" s="36"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="28"/>
-      <c r="G165" s="29"/>
-      <c r="I165" s="29"/>
+      <c r="A165" s="35"/>
+      <c r="G165" s="36"/>
+      <c r="I165" s="36"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="28"/>
-      <c r="G166" s="29"/>
-      <c r="I166" s="29"/>
+      <c r="A166" s="35"/>
+      <c r="G166" s="36"/>
+      <c r="I166" s="36"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="28"/>
-      <c r="G167" s="29"/>
-      <c r="I167" s="29"/>
+      <c r="A167" s="35"/>
+      <c r="G167" s="36"/>
+      <c r="I167" s="36"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="28"/>
-      <c r="G168" s="29"/>
-      <c r="I168" s="29"/>
+      <c r="A168" s="35"/>
+      <c r="G168" s="36"/>
+      <c r="I168" s="36"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="28"/>
-      <c r="G169" s="29"/>
-      <c r="I169" s="29"/>
+      <c r="A169" s="35"/>
+      <c r="G169" s="36"/>
+      <c r="I169" s="36"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="28"/>
-      <c r="G170" s="29"/>
-      <c r="I170" s="29"/>
+      <c r="A170" s="35"/>
+      <c r="G170" s="36"/>
+      <c r="I170" s="36"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="28"/>
-      <c r="G171" s="29"/>
-      <c r="I171" s="29"/>
+      <c r="A171" s="35"/>
+      <c r="G171" s="36"/>
+      <c r="I171" s="36"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="28"/>
-      <c r="G172" s="29"/>
-      <c r="I172" s="29"/>
+      <c r="A172" s="35"/>
+      <c r="G172" s="36"/>
+      <c r="I172" s="36"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="28"/>
-      <c r="G173" s="29"/>
-      <c r="I173" s="29"/>
+      <c r="A173" s="35"/>
+      <c r="G173" s="36"/>
+      <c r="I173" s="36"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="28"/>
-      <c r="G174" s="29"/>
-      <c r="I174" s="29"/>
+      <c r="A174" s="35"/>
+      <c r="G174" s="36"/>
+      <c r="I174" s="36"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="28"/>
-      <c r="G175" s="29"/>
-      <c r="I175" s="29"/>
+      <c r="A175" s="35"/>
+      <c r="G175" s="36"/>
+      <c r="I175" s="36"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="28"/>
-      <c r="G176" s="29"/>
-      <c r="I176" s="29"/>
+      <c r="A176" s="35"/>
+      <c r="G176" s="36"/>
+      <c r="I176" s="36"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="28"/>
-      <c r="G177" s="29"/>
-      <c r="I177" s="29"/>
+      <c r="A177" s="35"/>
+      <c r="G177" s="36"/>
+      <c r="I177" s="36"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="28"/>
-      <c r="G178" s="29"/>
-      <c r="I178" s="29"/>
+      <c r="A178" s="35"/>
+      <c r="G178" s="36"/>
+      <c r="I178" s="36"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="28"/>
-      <c r="G179" s="29"/>
-      <c r="I179" s="29"/>
+      <c r="A179" s="35"/>
+      <c r="G179" s="36"/>
+      <c r="I179" s="36"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="28"/>
-      <c r="G180" s="29"/>
-      <c r="I180" s="29"/>
+      <c r="A180" s="35"/>
+      <c r="G180" s="36"/>
+      <c r="I180" s="36"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="28"/>
-      <c r="G181" s="29"/>
-      <c r="I181" s="29"/>
+      <c r="A181" s="35"/>
+      <c r="G181" s="36"/>
+      <c r="I181" s="36"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="28"/>
-      <c r="G182" s="29"/>
-      <c r="I182" s="29"/>
+      <c r="A182" s="35"/>
+      <c r="G182" s="36"/>
+      <c r="I182" s="36"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="28"/>
-      <c r="G183" s="29"/>
-      <c r="I183" s="29"/>
+      <c r="A183" s="35"/>
+      <c r="G183" s="36"/>
+      <c r="I183" s="36"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="28"/>
-      <c r="G184" s="29"/>
-      <c r="I184" s="29"/>
+      <c r="A184" s="35"/>
+      <c r="G184" s="36"/>
+      <c r="I184" s="36"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="28"/>
-      <c r="G185" s="29"/>
-      <c r="I185" s="29"/>
+      <c r="A185" s="35"/>
+      <c r="G185" s="36"/>
+      <c r="I185" s="36"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="28"/>
-      <c r="G186" s="29"/>
-      <c r="I186" s="29"/>
+      <c r="A186" s="35"/>
+      <c r="G186" s="36"/>
+      <c r="I186" s="36"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="28"/>
-      <c r="G187" s="29"/>
-      <c r="I187" s="29"/>
+      <c r="A187" s="35"/>
+      <c r="G187" s="36"/>
+      <c r="I187" s="36"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="28"/>
-      <c r="G188" s="29"/>
-      <c r="I188" s="29"/>
+      <c r="A188" s="35"/>
+      <c r="G188" s="36"/>
+      <c r="I188" s="36"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="28"/>
-      <c r="G189" s="29"/>
-      <c r="I189" s="29"/>
+      <c r="A189" s="35"/>
+      <c r="G189" s="36"/>
+      <c r="I189" s="36"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="28"/>
-      <c r="G190" s="29"/>
-      <c r="I190" s="29"/>
+      <c r="A190" s="35"/>
+      <c r="G190" s="36"/>
+      <c r="I190" s="36"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="28"/>
-      <c r="G191" s="29"/>
-      <c r="I191" s="29"/>
+      <c r="A191" s="35"/>
+      <c r="G191" s="36"/>
+      <c r="I191" s="36"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="28"/>
-      <c r="G192" s="29"/>
-      <c r="I192" s="29"/>
+      <c r="A192" s="35"/>
+      <c r="G192" s="36"/>
+      <c r="I192" s="36"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="28"/>
-      <c r="G193" s="29"/>
-      <c r="I193" s="29"/>
+      <c r="A193" s="35"/>
+      <c r="G193" s="36"/>
+      <c r="I193" s="36"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="28"/>
-      <c r="G194" s="29"/>
-      <c r="I194" s="29"/>
+      <c r="A194" s="35"/>
+      <c r="G194" s="36"/>
+      <c r="I194" s="36"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="28"/>
-      <c r="G195" s="29"/>
-      <c r="I195" s="29"/>
+      <c r="A195" s="35"/>
+      <c r="G195" s="36"/>
+      <c r="I195" s="36"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="28"/>
-      <c r="G196" s="29"/>
-      <c r="I196" s="29"/>
+      <c r="A196" s="35"/>
+      <c r="G196" s="36"/>
+      <c r="I196" s="36"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="28"/>
-      <c r="G197" s="29"/>
-      <c r="I197" s="29"/>
+      <c r="A197" s="35"/>
+      <c r="G197" s="36"/>
+      <c r="I197" s="36"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="28"/>
-      <c r="G198" s="29"/>
-      <c r="I198" s="29"/>
+      <c r="A198" s="35"/>
+      <c r="G198" s="36"/>
+      <c r="I198" s="36"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="28"/>
-      <c r="G199" s="29"/>
-      <c r="I199" s="29"/>
+      <c r="A199" s="35"/>
+      <c r="G199" s="36"/>
+      <c r="I199" s="36"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="28"/>
-      <c r="G200" s="29"/>
-      <c r="I200" s="29"/>
+      <c r="A200" s="35"/>
+      <c r="G200" s="36"/>
+      <c r="I200" s="36"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="28"/>
-      <c r="G201" s="29"/>
-      <c r="I201" s="29"/>
+      <c r="A201" s="35"/>
+      <c r="G201" s="36"/>
+      <c r="I201" s="36"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="28"/>
-      <c r="G202" s="29"/>
-      <c r="I202" s="29"/>
+      <c r="A202" s="35"/>
+      <c r="G202" s="36"/>
+      <c r="I202" s="36"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="28"/>
-      <c r="G203" s="29"/>
-      <c r="I203" s="29"/>
+      <c r="A203" s="35"/>
+      <c r="G203" s="36"/>
+      <c r="I203" s="36"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="28"/>
-      <c r="G204" s="29"/>
-      <c r="I204" s="29"/>
+      <c r="A204" s="35"/>
+      <c r="G204" s="36"/>
+      <c r="I204" s="36"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="28"/>
-      <c r="G205" s="29"/>
-      <c r="I205" s="29"/>
+      <c r="A205" s="35"/>
+      <c r="G205" s="36"/>
+      <c r="I205" s="36"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="28"/>
-      <c r="G206" s="29"/>
-      <c r="I206" s="29"/>
+      <c r="A206" s="35"/>
+      <c r="G206" s="36"/>
+      <c r="I206" s="36"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="28"/>
-      <c r="G207" s="29"/>
-      <c r="I207" s="29"/>
+      <c r="A207" s="35"/>
+      <c r="G207" s="36"/>
+      <c r="I207" s="36"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="28"/>
-      <c r="G208" s="29"/>
-      <c r="I208" s="29"/>
+      <c r="A208" s="35"/>
+      <c r="G208" s="36"/>
+      <c r="I208" s="36"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="28"/>
-      <c r="G209" s="29"/>
-      <c r="I209" s="29"/>
+      <c r="A209" s="35"/>
+      <c r="G209" s="36"/>
+      <c r="I209" s="36"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="28"/>
-      <c r="G210" s="29"/>
-      <c r="I210" s="29"/>
+      <c r="A210" s="35"/>
+      <c r="G210" s="36"/>
+      <c r="I210" s="36"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="28"/>
-      <c r="G211" s="29"/>
-      <c r="I211" s="29"/>
+      <c r="A211" s="35"/>
+      <c r="G211" s="36"/>
+      <c r="I211" s="36"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="28"/>
-      <c r="G212" s="29"/>
-      <c r="I212" s="29"/>
+      <c r="A212" s="35"/>
+      <c r="G212" s="36"/>
+      <c r="I212" s="36"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="28"/>
-      <c r="G213" s="29"/>
-      <c r="I213" s="29"/>
+      <c r="A213" s="35"/>
+      <c r="G213" s="36"/>
+      <c r="I213" s="36"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="28"/>
-      <c r="G214" s="29"/>
-      <c r="I214" s="29"/>
+      <c r="A214" s="35"/>
+      <c r="G214" s="36"/>
+      <c r="I214" s="36"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="28"/>
-      <c r="G215" s="29"/>
-      <c r="I215" s="29"/>
+      <c r="A215" s="35"/>
+      <c r="G215" s="36"/>
+      <c r="I215" s="36"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="28"/>
-      <c r="G216" s="29"/>
-      <c r="I216" s="29"/>
+      <c r="A216" s="35"/>
+      <c r="G216" s="36"/>
+      <c r="I216" s="36"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="28"/>
-      <c r="G217" s="29"/>
-      <c r="I217" s="29"/>
+      <c r="A217" s="35"/>
+      <c r="G217" s="36"/>
+      <c r="I217" s="36"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="28"/>
-      <c r="G218" s="29"/>
-      <c r="I218" s="29"/>
+      <c r="A218" s="35"/>
+      <c r="G218" s="36"/>
+      <c r="I218" s="36"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="28"/>
-      <c r="G219" s="29"/>
-      <c r="I219" s="29"/>
+      <c r="A219" s="35"/>
+      <c r="G219" s="36"/>
+      <c r="I219" s="36"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="28"/>
-      <c r="G220" s="29"/>
-      <c r="I220" s="29"/>
+      <c r="A220" s="35"/>
+      <c r="G220" s="36"/>
+      <c r="I220" s="36"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="28"/>
-      <c r="G221" s="29"/>
-      <c r="I221" s="29"/>
+      <c r="A221" s="35"/>
+      <c r="G221" s="36"/>
+      <c r="I221" s="36"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="28"/>
-      <c r="G222" s="29"/>
-      <c r="I222" s="29"/>
+      <c r="A222" s="35"/>
+      <c r="G222" s="36"/>
+      <c r="I222" s="36"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="28"/>
-      <c r="G223" s="29"/>
-      <c r="I223" s="29"/>
+      <c r="A223" s="35"/>
+      <c r="G223" s="36"/>
+      <c r="I223" s="36"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="28"/>
-      <c r="G224" s="29"/>
-      <c r="I224" s="29"/>
+      <c r="A224" s="35"/>
+      <c r="G224" s="36"/>
+      <c r="I224" s="36"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="28"/>
-      <c r="G225" s="29"/>
-      <c r="I225" s="29"/>
+      <c r="A225" s="35"/>
+      <c r="G225" s="36"/>
+      <c r="I225" s="36"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="28"/>
-      <c r="G226" s="29"/>
-      <c r="I226" s="29"/>
+      <c r="A226" s="35"/>
+      <c r="G226" s="36"/>
+      <c r="I226" s="36"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="28"/>
-      <c r="G227" s="29"/>
-      <c r="I227" s="29"/>
+      <c r="A227" s="35"/>
+      <c r="G227" s="36"/>
+      <c r="I227" s="36"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="28"/>
-      <c r="G228" s="29"/>
-      <c r="I228" s="29"/>
+      <c r="A228" s="35"/>
+      <c r="G228" s="36"/>
+      <c r="I228" s="36"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="28"/>
-      <c r="G229" s="29"/>
-      <c r="I229" s="29"/>
+      <c r="A229" s="35"/>
+      <c r="G229" s="36"/>
+      <c r="I229" s="36"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="28"/>
-      <c r="G230" s="29"/>
-      <c r="I230" s="29"/>
+      <c r="A230" s="35"/>
+      <c r="G230" s="36"/>
+      <c r="I230" s="36"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="28"/>
-      <c r="G231" s="29"/>
-      <c r="I231" s="29"/>
+      <c r="A231" s="35"/>
+      <c r="G231" s="36"/>
+      <c r="I231" s="36"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="28"/>
-      <c r="G232" s="29"/>
-      <c r="I232" s="29"/>
+      <c r="A232" s="35"/>
+      <c r="G232" s="36"/>
+      <c r="I232" s="36"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="28"/>
-      <c r="G233" s="29"/>
-      <c r="I233" s="29"/>
+      <c r="A233" s="35"/>
+      <c r="G233" s="36"/>
+      <c r="I233" s="36"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="28"/>
-      <c r="G234" s="29"/>
-      <c r="I234" s="29"/>
+      <c r="A234" s="35"/>
+      <c r="G234" s="36"/>
+      <c r="I234" s="36"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="28"/>
-      <c r="G235" s="29"/>
-      <c r="I235" s="29"/>
+      <c r="A235" s="35"/>
+      <c r="G235" s="36"/>
+      <c r="I235" s="36"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="28"/>
-      <c r="G236" s="29"/>
-      <c r="I236" s="29"/>
+      <c r="A236" s="35"/>
+      <c r="G236" s="36"/>
+      <c r="I236" s="36"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="28"/>
-      <c r="G237" s="29"/>
-      <c r="I237" s="29"/>
+      <c r="A237" s="35"/>
+      <c r="G237" s="36"/>
+      <c r="I237" s="36"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="28"/>
-      <c r="G238" s="29"/>
-      <c r="I238" s="29"/>
+      <c r="A238" s="35"/>
+      <c r="G238" s="36"/>
+      <c r="I238" s="36"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="28"/>
-      <c r="G239" s="29"/>
-      <c r="I239" s="29"/>
+      <c r="A239" s="35"/>
+      <c r="G239" s="36"/>
+      <c r="I239" s="36"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="28"/>
-      <c r="G240" s="29"/>
-      <c r="I240" s="29"/>
+      <c r="A240" s="35"/>
+      <c r="G240" s="36"/>
+      <c r="I240" s="36"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="28"/>
-      <c r="G241" s="29"/>
-      <c r="I241" s="29"/>
+      <c r="A241" s="35"/>
+      <c r="G241" s="36"/>
+      <c r="I241" s="36"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="28"/>
-      <c r="G242" s="29"/>
-      <c r="I242" s="29"/>
+      <c r="A242" s="35"/>
+      <c r="G242" s="36"/>
+      <c r="I242" s="36"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="28"/>
-      <c r="G243" s="29"/>
-      <c r="I243" s="29"/>
+      <c r="A243" s="35"/>
+      <c r="G243" s="36"/>
+      <c r="I243" s="36"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="28"/>
-      <c r="G244" s="29"/>
-      <c r="I244" s="29"/>
+      <c r="A244" s="35"/>
+      <c r="G244" s="36"/>
+      <c r="I244" s="36"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="28"/>
-      <c r="G245" s="29"/>
-      <c r="I245" s="29"/>
+      <c r="A245" s="35"/>
+      <c r="G245" s="36"/>
+      <c r="I245" s="36"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="28"/>
-      <c r="G246" s="29"/>
-      <c r="I246" s="29"/>
+      <c r="A246" s="35"/>
+      <c r="G246" s="36"/>
+      <c r="I246" s="36"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="28"/>
-      <c r="G247" s="29"/>
-      <c r="I247" s="29"/>
+      <c r="A247" s="35"/>
+      <c r="G247" s="36"/>
+      <c r="I247" s="36"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="28"/>
-      <c r="G248" s="29"/>
-      <c r="I248" s="29"/>
+      <c r="A248" s="35"/>
+      <c r="G248" s="36"/>
+      <c r="I248" s="36"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="28"/>
-      <c r="G249" s="29"/>
-      <c r="I249" s="29"/>
+      <c r="A249" s="35"/>
+      <c r="G249" s="36"/>
+      <c r="I249" s="36"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="28"/>
-      <c r="G250" s="29"/>
-      <c r="I250" s="29"/>
+      <c r="A250" s="35"/>
+      <c r="G250" s="36"/>
+      <c r="I250" s="36"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="28"/>
-      <c r="G251" s="29"/>
-      <c r="I251" s="29"/>
+      <c r="A251" s="35"/>
+      <c r="G251" s="36"/>
+      <c r="I251" s="36"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="28"/>
-      <c r="G252" s="29"/>
-      <c r="I252" s="29"/>
+      <c r="A252" s="35"/>
+      <c r="G252" s="36"/>
+      <c r="I252" s="36"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="28"/>
-      <c r="G253" s="29"/>
-      <c r="I253" s="29"/>
+      <c r="A253" s="35"/>
+      <c r="G253" s="36"/>
+      <c r="I253" s="36"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="28"/>
-      <c r="G254" s="29"/>
-      <c r="I254" s="29"/>
+      <c r="A254" s="35"/>
+      <c r="G254" s="36"/>
+      <c r="I254" s="36"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="28"/>
-      <c r="G255" s="29"/>
-      <c r="I255" s="29"/>
+      <c r="A255" s="35"/>
+      <c r="G255" s="36"/>
+      <c r="I255" s="36"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="28"/>
-      <c r="G256" s="29"/>
-      <c r="I256" s="29"/>
+      <c r="A256" s="35"/>
+      <c r="G256" s="36"/>
+      <c r="I256" s="36"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="28"/>
-      <c r="G257" s="29"/>
-      <c r="I257" s="29"/>
+      <c r="A257" s="35"/>
+      <c r="G257" s="36"/>
+      <c r="I257" s="36"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="28"/>
-      <c r="G258" s="29"/>
-      <c r="I258" s="29"/>
+      <c r="A258" s="35"/>
+      <c r="G258" s="36"/>
+      <c r="I258" s="36"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="28"/>
-      <c r="G259" s="29"/>
-      <c r="I259" s="29"/>
+      <c r="A259" s="35"/>
+      <c r="G259" s="36"/>
+      <c r="I259" s="36"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="28"/>
-      <c r="G260" s="29"/>
-      <c r="I260" s="29"/>
+      <c r="A260" s="35"/>
+      <c r="G260" s="36"/>
+      <c r="I260" s="36"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="28"/>
-      <c r="G261" s="29"/>
-      <c r="I261" s="29"/>
+      <c r="A261" s="35"/>
+      <c r="G261" s="36"/>
+      <c r="I261" s="36"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="28"/>
-      <c r="G262" s="29"/>
-      <c r="I262" s="29"/>
+      <c r="A262" s="35"/>
+      <c r="G262" s="36"/>
+      <c r="I262" s="36"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="28"/>
-      <c r="G263" s="29"/>
-      <c r="I263" s="29"/>
+      <c r="A263" s="35"/>
+      <c r="G263" s="36"/>
+      <c r="I263" s="36"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="28"/>
-      <c r="G264" s="29"/>
-      <c r="I264" s="29"/>
+      <c r="A264" s="35"/>
+      <c r="G264" s="36"/>
+      <c r="I264" s="36"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="28"/>
-      <c r="G265" s="29"/>
-      <c r="I265" s="29"/>
+      <c r="A265" s="35"/>
+      <c r="G265" s="36"/>
+      <c r="I265" s="36"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="28"/>
-      <c r="G266" s="29"/>
-      <c r="I266" s="29"/>
+      <c r="A266" s="35"/>
+      <c r="G266" s="36"/>
+      <c r="I266" s="36"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="28"/>
-      <c r="G267" s="29"/>
-      <c r="I267" s="29"/>
+      <c r="A267" s="35"/>
+      <c r="G267" s="36"/>
+      <c r="I267" s="36"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="28"/>
-      <c r="G268" s="29"/>
-      <c r="I268" s="29"/>
+      <c r="A268" s="35"/>
+      <c r="G268" s="36"/>
+      <c r="I268" s="36"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="28"/>
-      <c r="G269" s="29"/>
-      <c r="I269" s="29"/>
+      <c r="A269" s="35"/>
+      <c r="G269" s="36"/>
+      <c r="I269" s="36"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="28"/>
-      <c r="G270" s="29"/>
-      <c r="I270" s="29"/>
+      <c r="A270" s="35"/>
+      <c r="G270" s="36"/>
+      <c r="I270" s="36"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="28"/>
-      <c r="G271" s="29"/>
-      <c r="I271" s="29"/>
+      <c r="A271" s="35"/>
+      <c r="G271" s="36"/>
+      <c r="I271" s="36"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="28"/>
-      <c r="G272" s="29"/>
-      <c r="I272" s="29"/>
+      <c r="A272" s="35"/>
+      <c r="G272" s="36"/>
+      <c r="I272" s="36"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="28"/>
-      <c r="G273" s="29"/>
-      <c r="I273" s="29"/>
+      <c r="A273" s="35"/>
+      <c r="G273" s="36"/>
+      <c r="I273" s="36"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="28"/>
-      <c r="G274" s="29"/>
-      <c r="I274" s="29"/>
+      <c r="A274" s="35"/>
+      <c r="G274" s="36"/>
+      <c r="I274" s="36"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="28"/>
-      <c r="G275" s="29"/>
-      <c r="I275" s="29"/>
+      <c r="A275" s="35"/>
+      <c r="G275" s="36"/>
+      <c r="I275" s="36"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="28"/>
-      <c r="G276" s="29"/>
-      <c r="I276" s="29"/>
+      <c r="A276" s="35"/>
+      <c r="G276" s="36"/>
+      <c r="I276" s="36"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="28"/>
-      <c r="G277" s="29"/>
-      <c r="I277" s="29"/>
+      <c r="A277" s="35"/>
+      <c r="G277" s="36"/>
+      <c r="I277" s="36"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="28"/>
-      <c r="G278" s="29"/>
-      <c r="I278" s="29"/>
+      <c r="A278" s="35"/>
+      <c r="G278" s="36"/>
+      <c r="I278" s="36"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="28"/>
-      <c r="G279" s="29"/>
-      <c r="I279" s="29"/>
+      <c r="A279" s="35"/>
+      <c r="G279" s="36"/>
+      <c r="I279" s="36"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="28"/>
-      <c r="G280" s="29"/>
-      <c r="I280" s="29"/>
+      <c r="A280" s="35"/>
+      <c r="G280" s="36"/>
+      <c r="I280" s="36"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="28"/>
-      <c r="G281" s="29"/>
-      <c r="I281" s="29"/>
+      <c r="A281" s="35"/>
+      <c r="G281" s="36"/>
+      <c r="I281" s="36"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="28"/>
-      <c r="G282" s="29"/>
-      <c r="I282" s="29"/>
+      <c r="A282" s="35"/>
+      <c r="G282" s="36"/>
+      <c r="I282" s="36"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="28"/>
-      <c r="G283" s="29"/>
-      <c r="I283" s="29"/>
+      <c r="A283" s="35"/>
+      <c r="G283" s="36"/>
+      <c r="I283" s="36"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="28"/>
-      <c r="G284" s="29"/>
-      <c r="I284" s="29"/>
+      <c r="A284" s="35"/>
+      <c r="G284" s="36"/>
+      <c r="I284" s="36"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="28"/>
-      <c r="G285" s="29"/>
-      <c r="I285" s="29"/>
+      <c r="A285" s="35"/>
+      <c r="G285" s="36"/>
+      <c r="I285" s="36"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="28"/>
-      <c r="G286" s="29"/>
-      <c r="I286" s="29"/>
+      <c r="A286" s="35"/>
+      <c r="G286" s="36"/>
+      <c r="I286" s="36"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="28"/>
-      <c r="G287" s="29"/>
-      <c r="I287" s="29"/>
+      <c r="A287" s="35"/>
+      <c r="G287" s="36"/>
+      <c r="I287" s="36"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="28"/>
-      <c r="G288" s="29"/>
-      <c r="I288" s="29"/>
+      <c r="A288" s="35"/>
+      <c r="G288" s="36"/>
+      <c r="I288" s="36"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="28"/>
-      <c r="G289" s="29"/>
-      <c r="I289" s="29"/>
+      <c r="A289" s="35"/>
+      <c r="G289" s="36"/>
+      <c r="I289" s="36"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="28"/>
-      <c r="G290" s="29"/>
-      <c r="I290" s="29"/>
+      <c r="A290" s="35"/>
+      <c r="G290" s="36"/>
+      <c r="I290" s="36"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="28"/>
-      <c r="G291" s="29"/>
-      <c r="I291" s="29"/>
+      <c r="A291" s="35"/>
+      <c r="G291" s="36"/>
+      <c r="I291" s="36"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="28"/>
-      <c r="G292" s="29"/>
-      <c r="I292" s="29"/>
+      <c r="A292" s="35"/>
+      <c r="G292" s="36"/>
+      <c r="I292" s="36"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="28"/>
-      <c r="G293" s="29"/>
-      <c r="I293" s="29"/>
+      <c r="A293" s="35"/>
+      <c r="G293" s="36"/>
+      <c r="I293" s="36"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="28"/>
-      <c r="G294" s="29"/>
-      <c r="I294" s="29"/>
+      <c r="A294" s="35"/>
+      <c r="G294" s="36"/>
+      <c r="I294" s="36"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="28"/>
-      <c r="G295" s="29"/>
-      <c r="I295" s="29"/>
+      <c r="A295" s="35"/>
+      <c r="G295" s="36"/>
+      <c r="I295" s="36"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="28"/>
-      <c r="G296" s="29"/>
-      <c r="I296" s="29"/>
+      <c r="A296" s="35"/>
+      <c r="G296" s="36"/>
+      <c r="I296" s="36"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="28"/>
-      <c r="G297" s="29"/>
-      <c r="I297" s="29"/>
+      <c r="A297" s="35"/>
+      <c r="G297" s="36"/>
+      <c r="I297" s="36"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="28"/>
-      <c r="G298" s="29"/>
-      <c r="I298" s="29"/>
+      <c r="A298" s="35"/>
+      <c r="G298" s="36"/>
+      <c r="I298" s="36"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="28"/>
-      <c r="G299" s="29"/>
-      <c r="I299" s="29"/>
+      <c r="A299" s="35"/>
+      <c r="G299" s="36"/>
+      <c r="I299" s="36"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="28"/>
-      <c r="G300" s="29"/>
-      <c r="I300" s="29"/>
+      <c r="A300" s="35"/>
+      <c r="G300" s="36"/>
+      <c r="I300" s="36"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="28"/>
-      <c r="G301" s="29"/>
-      <c r="I301" s="29"/>
+      <c r="A301" s="35"/>
+      <c r="G301" s="36"/>
+      <c r="I301" s="36"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="28"/>
-      <c r="G302" s="29"/>
-      <c r="I302" s="29"/>
+      <c r="A302" s="35"/>
+      <c r="G302" s="36"/>
+      <c r="I302" s="36"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="28"/>
-      <c r="G303" s="29"/>
-      <c r="I303" s="29"/>
+      <c r="A303" s="35"/>
+      <c r="G303" s="36"/>
+      <c r="I303" s="36"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="28"/>
-      <c r="G304" s="29"/>
-      <c r="I304" s="29"/>
+      <c r="A304" s="35"/>
+      <c r="G304" s="36"/>
+      <c r="I304" s="36"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="28"/>
-      <c r="G305" s="29"/>
-      <c r="I305" s="29"/>
+      <c r="A305" s="35"/>
+      <c r="G305" s="36"/>
+      <c r="I305" s="36"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="28"/>
-      <c r="G306" s="29"/>
-      <c r="I306" s="29"/>
+      <c r="A306" s="35"/>
+      <c r="G306" s="36"/>
+      <c r="I306" s="36"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="28"/>
-      <c r="G307" s="29"/>
-      <c r="I307" s="29"/>
+      <c r="A307" s="35"/>
+      <c r="G307" s="36"/>
+      <c r="I307" s="36"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="28"/>
-      <c r="G308" s="29"/>
-      <c r="I308" s="29"/>
+      <c r="A308" s="35"/>
+      <c r="G308" s="36"/>
+      <c r="I308" s="36"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="28"/>
-      <c r="G309" s="29"/>
-      <c r="I309" s="29"/>
+      <c r="A309" s="35"/>
+      <c r="G309" s="36"/>
+      <c r="I309" s="36"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="28"/>
-      <c r="G310" s="29"/>
-      <c r="I310" s="29"/>
+      <c r="A310" s="35"/>
+      <c r="G310" s="36"/>
+      <c r="I310" s="36"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="28"/>
-      <c r="G311" s="29"/>
-      <c r="I311" s="29"/>
+      <c r="A311" s="35"/>
+      <c r="G311" s="36"/>
+      <c r="I311" s="36"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="28"/>
-      <c r="G312" s="29"/>
-      <c r="I312" s="29"/>
+      <c r="A312" s="35"/>
+      <c r="G312" s="36"/>
+      <c r="I312" s="36"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="28"/>
-      <c r="G313" s="29"/>
-      <c r="I313" s="29"/>
+      <c r="A313" s="35"/>
+      <c r="G313" s="36"/>
+      <c r="I313" s="36"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="28"/>
-      <c r="G314" s="29"/>
-      <c r="I314" s="29"/>
+      <c r="A314" s="35"/>
+      <c r="G314" s="36"/>
+      <c r="I314" s="36"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="28"/>
-      <c r="G315" s="29"/>
-      <c r="I315" s="29"/>
+      <c r="A315" s="35"/>
+      <c r="G315" s="36"/>
+      <c r="I315" s="36"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="28"/>
-      <c r="G316" s="29"/>
-      <c r="I316" s="29"/>
+      <c r="A316" s="35"/>
+      <c r="G316" s="36"/>
+      <c r="I316" s="36"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="28"/>
-      <c r="G317" s="29"/>
-      <c r="I317" s="29"/>
+      <c r="A317" s="35"/>
+      <c r="G317" s="36"/>
+      <c r="I317" s="36"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="28"/>
-      <c r="G318" s="29"/>
-      <c r="I318" s="29"/>
+      <c r="A318" s="35"/>
+      <c r="G318" s="36"/>
+      <c r="I318" s="36"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="28"/>
-      <c r="G319" s="29"/>
-      <c r="I319" s="29"/>
+      <c r="A319" s="35"/>
+      <c r="G319" s="36"/>
+      <c r="I319" s="36"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="28"/>
-      <c r="G320" s="29"/>
-      <c r="I320" s="29"/>
+      <c r="A320" s="35"/>
+      <c r="G320" s="36"/>
+      <c r="I320" s="36"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="28"/>
-      <c r="G321" s="29"/>
-      <c r="I321" s="29"/>
+      <c r="A321" s="35"/>
+      <c r="G321" s="36"/>
+      <c r="I321" s="36"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="28"/>
-      <c r="G322" s="29"/>
-      <c r="I322" s="29"/>
+      <c r="A322" s="35"/>
+      <c r="G322" s="36"/>
+      <c r="I322" s="36"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="28"/>
-      <c r="G323" s="29"/>
-      <c r="I323" s="29"/>
+      <c r="A323" s="35"/>
+      <c r="G323" s="36"/>
+      <c r="I323" s="36"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="28"/>
-      <c r="G324" s="29"/>
-      <c r="I324" s="29"/>
+      <c r="A324" s="35"/>
+      <c r="G324" s="36"/>
+      <c r="I324" s="36"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="28"/>
-      <c r="G325" s="29"/>
-      <c r="I325" s="29"/>
+      <c r="A325" s="35"/>
+      <c r="G325" s="36"/>
+      <c r="I325" s="36"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="28"/>
-      <c r="G326" s="29"/>
-      <c r="I326" s="29"/>
+      <c r="A326" s="35"/>
+      <c r="G326" s="36"/>
+      <c r="I326" s="36"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="28"/>
-      <c r="G327" s="29"/>
-      <c r="I327" s="29"/>
+      <c r="A327" s="35"/>
+      <c r="G327" s="36"/>
+      <c r="I327" s="36"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="28"/>
-      <c r="G328" s="29"/>
-      <c r="I328" s="29"/>
+      <c r="A328" s="35"/>
+      <c r="G328" s="36"/>
+      <c r="I328" s="36"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="28"/>
-      <c r="G329" s="29"/>
-      <c r="I329" s="29"/>
+      <c r="A329" s="35"/>
+      <c r="G329" s="36"/>
+      <c r="I329" s="36"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="28"/>
-      <c r="G330" s="29"/>
-      <c r="I330" s="29"/>
+      <c r="A330" s="35"/>
+      <c r="G330" s="36"/>
+      <c r="I330" s="36"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="28"/>
-      <c r="G331" s="29"/>
-      <c r="I331" s="29"/>
+      <c r="A331" s="35"/>
+      <c r="G331" s="36"/>
+      <c r="I331" s="36"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="28"/>
-      <c r="G332" s="29"/>
-      <c r="I332" s="29"/>
+      <c r="A332" s="35"/>
+      <c r="G332" s="36"/>
+      <c r="I332" s="36"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="28"/>
-      <c r="G333" s="29"/>
-      <c r="I333" s="29"/>
+      <c r="A333" s="35"/>
+      <c r="G333" s="36"/>
+      <c r="I333" s="36"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="28"/>
-      <c r="G334" s="29"/>
-      <c r="I334" s="29"/>
+      <c r="A334" s="35"/>
+      <c r="G334" s="36"/>
+      <c r="I334" s="36"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="28"/>
-      <c r="G335" s="29"/>
-      <c r="I335" s="29"/>
+      <c r="A335" s="35"/>
+      <c r="G335" s="36"/>
+      <c r="I335" s="36"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="28"/>
-      <c r="G336" s="29"/>
-      <c r="I336" s="29"/>
+      <c r="A336" s="35"/>
+      <c r="G336" s="36"/>
+      <c r="I336" s="36"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="28"/>
-      <c r="G337" s="29"/>
-      <c r="I337" s="29"/>
+      <c r="A337" s="35"/>
+      <c r="G337" s="36"/>
+      <c r="I337" s="36"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="28"/>
-      <c r="G338" s="29"/>
-      <c r="I338" s="29"/>
+      <c r="A338" s="35"/>
+      <c r="G338" s="36"/>
+      <c r="I338" s="36"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="28"/>
-      <c r="G339" s="29"/>
-      <c r="I339" s="29"/>
+      <c r="A339" s="35"/>
+      <c r="G339" s="36"/>
+      <c r="I339" s="36"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="28"/>
-      <c r="G340" s="29"/>
-      <c r="I340" s="29"/>
+      <c r="A340" s="35"/>
+      <c r="G340" s="36"/>
+      <c r="I340" s="36"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="28"/>
-      <c r="G341" s="29"/>
-      <c r="I341" s="29"/>
+      <c r="A341" s="35"/>
+      <c r="G341" s="36"/>
+      <c r="I341" s="36"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="28"/>
-      <c r="G342" s="29"/>
-      <c r="I342" s="29"/>
+      <c r="A342" s="35"/>
+      <c r="G342" s="36"/>
+      <c r="I342" s="36"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="28"/>
-      <c r="G343" s="29"/>
-      <c r="I343" s="29"/>
+      <c r="A343" s="35"/>
+      <c r="G343" s="36"/>
+      <c r="I343" s="36"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="28"/>
-      <c r="G344" s="29"/>
-      <c r="I344" s="29"/>
+      <c r="A344" s="35"/>
+      <c r="G344" s="36"/>
+      <c r="I344" s="36"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="28"/>
-      <c r="G345" s="29"/>
-      <c r="I345" s="29"/>
+      <c r="A345" s="35"/>
+      <c r="G345" s="36"/>
+      <c r="I345" s="36"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="28"/>
-      <c r="G346" s="29"/>
-      <c r="I346" s="29"/>
+      <c r="A346" s="35"/>
+      <c r="G346" s="36"/>
+      <c r="I346" s="36"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="28"/>
-      <c r="G347" s="29"/>
-      <c r="I347" s="29"/>
+      <c r="A347" s="35"/>
+      <c r="G347" s="36"/>
+      <c r="I347" s="36"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="28"/>
-      <c r="G348" s="29"/>
-      <c r="I348" s="29"/>
+      <c r="A348" s="35"/>
+      <c r="G348" s="36"/>
+      <c r="I348" s="36"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="28"/>
-      <c r="G349" s="29"/>
-      <c r="I349" s="29"/>
+      <c r="A349" s="35"/>
+      <c r="G349" s="36"/>
+      <c r="I349" s="36"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="28"/>
-      <c r="G350" s="29"/>
-      <c r="I350" s="29"/>
+      <c r="A350" s="35"/>
+      <c r="G350" s="36"/>
+      <c r="I350" s="36"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="28"/>
-      <c r="G351" s="29"/>
-      <c r="I351" s="29"/>
+      <c r="A351" s="35"/>
+      <c r="G351" s="36"/>
+      <c r="I351" s="36"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="28"/>
-      <c r="G352" s="29"/>
-      <c r="I352" s="29"/>
+      <c r="A352" s="35"/>
+      <c r="G352" s="36"/>
+      <c r="I352" s="36"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="28"/>
-      <c r="G353" s="29"/>
-      <c r="I353" s="29"/>
+      <c r="A353" s="35"/>
+      <c r="G353" s="36"/>
+      <c r="I353" s="36"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="28"/>
-      <c r="G354" s="29"/>
-      <c r="I354" s="29"/>
+      <c r="A354" s="35"/>
+      <c r="G354" s="36"/>
+      <c r="I354" s="36"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="28"/>
-      <c r="G355" s="29"/>
-      <c r="I355" s="29"/>
+      <c r="A355" s="35"/>
+      <c r="G355" s="36"/>
+      <c r="I355" s="36"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="28"/>
-      <c r="G356" s="29"/>
-      <c r="I356" s="29"/>
+      <c r="A356" s="35"/>
+      <c r="G356" s="36"/>
+      <c r="I356" s="36"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="28"/>
-      <c r="G357" s="29"/>
-      <c r="I357" s="29"/>
+      <c r="A357" s="35"/>
+      <c r="G357" s="36"/>
+      <c r="I357" s="36"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="28"/>
-      <c r="G358" s="29"/>
-      <c r="I358" s="29"/>
+      <c r="A358" s="35"/>
+      <c r="G358" s="36"/>
+      <c r="I358" s="36"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="28"/>
-      <c r="G359" s="29"/>
-      <c r="I359" s="29"/>
+      <c r="A359" s="35"/>
+      <c r="G359" s="36"/>
+      <c r="I359" s="36"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="28"/>
-      <c r="G360" s="29"/>
-      <c r="I360" s="29"/>
+      <c r="A360" s="35"/>
+      <c r="G360" s="36"/>
+      <c r="I360" s="36"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="28"/>
-      <c r="G361" s="29"/>
-      <c r="I361" s="29"/>
+      <c r="A361" s="35"/>
+      <c r="G361" s="36"/>
+      <c r="I361" s="36"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="28"/>
-      <c r="G362" s="29"/>
-      <c r="I362" s="29"/>
+      <c r="A362" s="35"/>
+      <c r="G362" s="36"/>
+      <c r="I362" s="36"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="28"/>
-      <c r="G363" s="29"/>
-      <c r="I363" s="29"/>
+      <c r="A363" s="35"/>
+      <c r="G363" s="36"/>
+      <c r="I363" s="36"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="28"/>
-      <c r="G364" s="29"/>
-      <c r="I364" s="29"/>
+      <c r="A364" s="35"/>
+      <c r="G364" s="36"/>
+      <c r="I364" s="36"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="28"/>
-      <c r="G365" s="29"/>
-      <c r="I365" s="29"/>
+      <c r="A365" s="35"/>
+      <c r="G365" s="36"/>
+      <c r="I365" s="36"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="28"/>
-      <c r="G366" s="29"/>
-      <c r="I366" s="29"/>
+      <c r="A366" s="35"/>
+      <c r="G366" s="36"/>
+      <c r="I366" s="36"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="28"/>
-      <c r="G367" s="29"/>
-      <c r="I367" s="29"/>
+      <c r="A367" s="35"/>
+      <c r="G367" s="36"/>
+      <c r="I367" s="36"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="28"/>
-      <c r="G368" s="29"/>
-      <c r="I368" s="29"/>
+      <c r="A368" s="35"/>
+      <c r="G368" s="36"/>
+      <c r="I368" s="36"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="28"/>
-      <c r="G369" s="29"/>
-      <c r="I369" s="29"/>
+      <c r="A369" s="35"/>
+      <c r="G369" s="36"/>
+      <c r="I369" s="36"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="28"/>
-      <c r="G370" s="29"/>
-      <c r="I370" s="29"/>
+      <c r="A370" s="35"/>
+      <c r="G370" s="36"/>
+      <c r="I370" s="36"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="28"/>
-      <c r="G371" s="29"/>
-      <c r="I371" s="29"/>
+      <c r="A371" s="35"/>
+      <c r="G371" s="36"/>
+      <c r="I371" s="36"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="28"/>
-      <c r="G372" s="29"/>
-      <c r="I372" s="29"/>
+      <c r="A372" s="35"/>
+      <c r="G372" s="36"/>
+      <c r="I372" s="36"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="28"/>
-      <c r="G373" s="29"/>
-      <c r="I373" s="29"/>
+      <c r="A373" s="35"/>
+      <c r="G373" s="36"/>
+      <c r="I373" s="36"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="28"/>
-      <c r="G374" s="29"/>
-      <c r="I374" s="29"/>
+      <c r="A374" s="35"/>
+      <c r="G374" s="36"/>
+      <c r="I374" s="36"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="28"/>
-      <c r="G375" s="29"/>
-      <c r="I375" s="29"/>
+      <c r="A375" s="35"/>
+      <c r="G375" s="36"/>
+      <c r="I375" s="36"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="28"/>
-      <c r="G376" s="29"/>
-      <c r="I376" s="29"/>
+      <c r="A376" s="35"/>
+      <c r="G376" s="36"/>
+      <c r="I376" s="36"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="28"/>
-      <c r="G377" s="29"/>
-      <c r="I377" s="29"/>
+      <c r="A377" s="35"/>
+      <c r="G377" s="36"/>
+      <c r="I377" s="36"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="28"/>
-      <c r="G378" s="29"/>
-      <c r="I378" s="29"/>
+      <c r="A378" s="35"/>
+      <c r="G378" s="36"/>
+      <c r="I378" s="36"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="28"/>
-      <c r="G379" s="29"/>
-      <c r="I379" s="29"/>
+      <c r="A379" s="35"/>
+      <c r="G379" s="36"/>
+      <c r="I379" s="36"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="28"/>
-      <c r="G380" s="29"/>
-      <c r="I380" s="29"/>
+      <c r="A380" s="35"/>
+      <c r="G380" s="36"/>
+      <c r="I380" s="36"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="28"/>
-      <c r="G381" s="29"/>
-      <c r="I381" s="29"/>
+      <c r="A381" s="35"/>
+      <c r="G381" s="36"/>
+      <c r="I381" s="36"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="28"/>
-      <c r="G382" s="29"/>
-      <c r="I382" s="29"/>
+      <c r="A382" s="35"/>
+      <c r="G382" s="36"/>
+      <c r="I382" s="36"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="28"/>
-      <c r="G383" s="29"/>
-      <c r="I383" s="29"/>
+      <c r="A383" s="35"/>
+      <c r="G383" s="36"/>
+      <c r="I383" s="36"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="28"/>
-      <c r="G384" s="29"/>
-      <c r="I384" s="29"/>
+      <c r="A384" s="35"/>
+      <c r="G384" s="36"/>
+      <c r="I384" s="36"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="28"/>
-      <c r="G385" s="29"/>
-      <c r="I385" s="29"/>
+      <c r="A385" s="35"/>
+      <c r="G385" s="36"/>
+      <c r="I385" s="36"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="28"/>
-      <c r="G386" s="29"/>
-      <c r="I386" s="29"/>
+      <c r="A386" s="35"/>
+      <c r="G386" s="36"/>
+      <c r="I386" s="36"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="28"/>
-      <c r="G387" s="29"/>
-      <c r="I387" s="29"/>
+      <c r="A387" s="35"/>
+      <c r="G387" s="36"/>
+      <c r="I387" s="36"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="28"/>
-      <c r="G388" s="29"/>
-      <c r="I388" s="29"/>
+      <c r="A388" s="35"/>
+      <c r="G388" s="36"/>
+      <c r="I388" s="36"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="28"/>
-      <c r="G389" s="29"/>
-      <c r="I389" s="29"/>
+      <c r="A389" s="35"/>
+      <c r="G389" s="36"/>
+      <c r="I389" s="36"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="28"/>
-      <c r="G390" s="29"/>
-      <c r="I390" s="29"/>
+      <c r="A390" s="35"/>
+      <c r="G390" s="36"/>
+      <c r="I390" s="36"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="28"/>
-      <c r="G391" s="29"/>
-      <c r="I391" s="29"/>
+      <c r="A391" s="35"/>
+      <c r="G391" s="36"/>
+      <c r="I391" s="36"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="28"/>
-      <c r="G392" s="29"/>
-      <c r="I392" s="29"/>
+      <c r="A392" s="35"/>
+      <c r="G392" s="36"/>
+      <c r="I392" s="36"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="28"/>
-      <c r="G393" s="29"/>
-      <c r="I393" s="29"/>
+      <c r="A393" s="35"/>
+      <c r="G393" s="36"/>
+      <c r="I393" s="36"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="28"/>
-      <c r="G394" s="29"/>
-      <c r="I394" s="29"/>
+      <c r="A394" s="35"/>
+      <c r="G394" s="36"/>
+      <c r="I394" s="36"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="28"/>
-      <c r="G395" s="29"/>
-      <c r="I395" s="29"/>
+      <c r="A395" s="35"/>
+      <c r="G395" s="36"/>
+      <c r="I395" s="36"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="28"/>
-      <c r="G396" s="29"/>
-      <c r="I396" s="29"/>
+      <c r="A396" s="35"/>
+      <c r="G396" s="36"/>
+      <c r="I396" s="36"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="28"/>
-      <c r="G397" s="29"/>
-      <c r="I397" s="29"/>
+      <c r="A397" s="35"/>
+      <c r="G397" s="36"/>
+      <c r="I397" s="36"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="28"/>
-      <c r="G398" s="29"/>
-      <c r="I398" s="29"/>
+      <c r="A398" s="35"/>
+      <c r="G398" s="36"/>
+      <c r="I398" s="36"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="28"/>
-      <c r="G399" s="29"/>
-      <c r="I399" s="29"/>
+      <c r="A399" s="35"/>
+      <c r="G399" s="36"/>
+      <c r="I399" s="36"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="28"/>
-      <c r="G400" s="29"/>
-      <c r="I400" s="29"/>
+      <c r="A400" s="35"/>
+      <c r="G400" s="36"/>
+      <c r="I400" s="36"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="28"/>
-      <c r="G401" s="29"/>
-      <c r="I401" s="29"/>
+      <c r="A401" s="35"/>
+      <c r="G401" s="36"/>
+      <c r="I401" s="36"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="28"/>
-      <c r="G402" s="29"/>
-      <c r="I402" s="29"/>
+      <c r="A402" s="35"/>
+      <c r="G402" s="36"/>
+      <c r="I402" s="36"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="28"/>
-      <c r="G403" s="29"/>
-      <c r="I403" s="29"/>
+      <c r="A403" s="35"/>
+      <c r="G403" s="36"/>
+      <c r="I403" s="36"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="28"/>
-      <c r="G404" s="29"/>
-      <c r="I404" s="29"/>
+      <c r="A404" s="35"/>
+      <c r="G404" s="36"/>
+      <c r="I404" s="36"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="28"/>
-      <c r="G405" s="29"/>
-      <c r="I405" s="29"/>
+      <c r="A405" s="35"/>
+      <c r="G405" s="36"/>
+      <c r="I405" s="36"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="28"/>
-      <c r="G406" s="29"/>
-      <c r="I406" s="29"/>
+      <c r="A406" s="35"/>
+      <c r="G406" s="36"/>
+      <c r="I406" s="36"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="28"/>
-      <c r="G407" s="29"/>
-      <c r="I407" s="29"/>
+      <c r="A407" s="35"/>
+      <c r="G407" s="36"/>
+      <c r="I407" s="36"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="28"/>
-      <c r="G408" s="29"/>
-      <c r="I408" s="29"/>
+      <c r="A408" s="35"/>
+      <c r="G408" s="36"/>
+      <c r="I408" s="36"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="28"/>
-      <c r="G409" s="29"/>
-      <c r="I409" s="29"/>
+      <c r="A409" s="35"/>
+      <c r="G409" s="36"/>
+      <c r="I409" s="36"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="28"/>
-      <c r="G410" s="29"/>
-      <c r="I410" s="29"/>
+      <c r="A410" s="35"/>
+      <c r="G410" s="36"/>
+      <c r="I410" s="36"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="28"/>
-      <c r="G411" s="29"/>
-      <c r="I411" s="29"/>
+      <c r="A411" s="35"/>
+      <c r="G411" s="36"/>
+      <c r="I411" s="36"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="28"/>
-      <c r="G412" s="29"/>
-      <c r="I412" s="29"/>
+      <c r="A412" s="35"/>
+      <c r="G412" s="36"/>
+      <c r="I412" s="36"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="28"/>
-      <c r="G413" s="29"/>
-      <c r="I413" s="29"/>
+      <c r="A413" s="35"/>
+      <c r="G413" s="36"/>
+      <c r="I413" s="36"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="28"/>
-      <c r="G414" s="29"/>
-      <c r="I414" s="29"/>
+      <c r="A414" s="35"/>
+      <c r="G414" s="36"/>
+      <c r="I414" s="36"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="28"/>
-      <c r="G415" s="29"/>
-      <c r="I415" s="29"/>
+      <c r="A415" s="35"/>
+      <c r="G415" s="36"/>
+      <c r="I415" s="36"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="28"/>
-      <c r="G416" s="29"/>
-      <c r="I416" s="29"/>
+      <c r="A416" s="35"/>
+      <c r="G416" s="36"/>
+      <c r="I416" s="36"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="28"/>
-      <c r="G417" s="29"/>
-      <c r="I417" s="29"/>
+      <c r="A417" s="35"/>
+      <c r="G417" s="36"/>
+      <c r="I417" s="36"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="28"/>
-      <c r="G418" s="29"/>
-      <c r="I418" s="29"/>
+      <c r="A418" s="35"/>
+      <c r="G418" s="36"/>
+      <c r="I418" s="36"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="28"/>
-      <c r="G419" s="29"/>
-      <c r="I419" s="29"/>
+      <c r="A419" s="35"/>
+      <c r="G419" s="36"/>
+      <c r="I419" s="36"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="28"/>
-      <c r="G420" s="29"/>
-      <c r="I420" s="29"/>
+      <c r="A420" s="35"/>
+      <c r="G420" s="36"/>
+      <c r="I420" s="36"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="28"/>
-      <c r="G421" s="29"/>
-      <c r="I421" s="29"/>
+      <c r="A421" s="35"/>
+      <c r="G421" s="36"/>
+      <c r="I421" s="36"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="28"/>
-      <c r="G422" s="29"/>
-      <c r="I422" s="29"/>
+      <c r="A422" s="35"/>
+      <c r="G422" s="36"/>
+      <c r="I422" s="36"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="28"/>
-      <c r="G423" s="29"/>
-      <c r="I423" s="29"/>
+      <c r="A423" s="35"/>
+      <c r="G423" s="36"/>
+      <c r="I423" s="36"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="28"/>
-      <c r="G424" s="29"/>
-      <c r="I424" s="29"/>
+      <c r="A424" s="35"/>
+      <c r="G424" s="36"/>
+      <c r="I424" s="36"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="28"/>
-      <c r="G425" s="29"/>
-      <c r="I425" s="29"/>
+      <c r="A425" s="35"/>
+      <c r="G425" s="36"/>
+      <c r="I425" s="36"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="28"/>
-      <c r="G426" s="29"/>
-      <c r="I426" s="29"/>
+      <c r="A426" s="35"/>
+      <c r="G426" s="36"/>
+      <c r="I426" s="36"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="28"/>
-      <c r="G427" s="29"/>
-      <c r="I427" s="29"/>
+      <c r="A427" s="35"/>
+      <c r="G427" s="36"/>
+      <c r="I427" s="36"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="28"/>
-      <c r="G428" s="29"/>
-      <c r="I428" s="29"/>
+      <c r="A428" s="35"/>
+      <c r="G428" s="36"/>
+      <c r="I428" s="36"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="28"/>
-      <c r="G429" s="29"/>
-      <c r="I429" s="29"/>
+      <c r="A429" s="35"/>
+      <c r="G429" s="36"/>
+      <c r="I429" s="36"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="28"/>
-      <c r="G430" s="29"/>
-      <c r="I430" s="29"/>
+      <c r="A430" s="35"/>
+      <c r="G430" s="36"/>
+      <c r="I430" s="36"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="28"/>
-      <c r="G431" s="29"/>
-      <c r="I431" s="29"/>
+      <c r="A431" s="35"/>
+      <c r="G431" s="36"/>
+      <c r="I431" s="36"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="28"/>
-      <c r="G432" s="29"/>
-      <c r="I432" s="29"/>
+      <c r="A432" s="35"/>
+      <c r="G432" s="36"/>
+      <c r="I432" s="36"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="28"/>
-      <c r="G433" s="29"/>
-      <c r="I433" s="29"/>
+      <c r="A433" s="35"/>
+      <c r="G433" s="36"/>
+      <c r="I433" s="36"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="28"/>
-      <c r="G434" s="29"/>
-      <c r="I434" s="29"/>
+      <c r="A434" s="35"/>
+      <c r="G434" s="36"/>
+      <c r="I434" s="36"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="28"/>
-      <c r="G435" s="29"/>
-      <c r="I435" s="29"/>
+      <c r="A435" s="35"/>
+      <c r="G435" s="36"/>
+      <c r="I435" s="36"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="28"/>
-      <c r="G436" s="29"/>
-      <c r="I436" s="29"/>
+      <c r="A436" s="35"/>
+      <c r="G436" s="36"/>
+      <c r="I436" s="36"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="28"/>
-      <c r="G437" s="29"/>
-      <c r="I437" s="29"/>
+      <c r="A437" s="35"/>
+      <c r="G437" s="36"/>
+      <c r="I437" s="36"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="28"/>
-      <c r="G438" s="29"/>
-      <c r="I438" s="29"/>
+      <c r="A438" s="35"/>
+      <c r="G438" s="36"/>
+      <c r="I438" s="36"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="28"/>
-      <c r="G439" s="29"/>
-      <c r="I439" s="29"/>
+      <c r="A439" s="35"/>
+      <c r="G439" s="36"/>
+      <c r="I439" s="36"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="28"/>
-      <c r="G440" s="29"/>
-      <c r="I440" s="29"/>
+      <c r="A440" s="35"/>
+      <c r="G440" s="36"/>
+      <c r="I440" s="36"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="28"/>
-      <c r="G441" s="29"/>
-      <c r="I441" s="29"/>
+      <c r="A441" s="35"/>
+      <c r="G441" s="36"/>
+      <c r="I441" s="36"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="28"/>
-      <c r="G442" s="29"/>
-      <c r="I442" s="29"/>
+      <c r="A442" s="35"/>
+      <c r="G442" s="36"/>
+      <c r="I442" s="36"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="28"/>
-      <c r="G443" s="29"/>
-      <c r="I443" s="29"/>
+      <c r="A443" s="35"/>
+      <c r="G443" s="36"/>
+      <c r="I443" s="36"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="28"/>
-      <c r="G444" s="29"/>
-      <c r="I444" s="29"/>
+      <c r="A444" s="35"/>
+      <c r="G444" s="36"/>
+      <c r="I444" s="36"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="28"/>
-      <c r="G445" s="29"/>
-      <c r="I445" s="29"/>
+      <c r="A445" s="35"/>
+      <c r="G445" s="36"/>
+      <c r="I445" s="36"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="28"/>
-      <c r="G446" s="29"/>
-      <c r="I446" s="29"/>
+      <c r="A446" s="35"/>
+      <c r="G446" s="36"/>
+      <c r="I446" s="36"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="28"/>
-      <c r="G447" s="29"/>
-      <c r="I447" s="29"/>
+      <c r="A447" s="35"/>
+      <c r="G447" s="36"/>
+      <c r="I447" s="36"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="28"/>
-      <c r="G448" s="29"/>
-      <c r="I448" s="29"/>
+      <c r="A448" s="35"/>
+      <c r="G448" s="36"/>
+      <c r="I448" s="36"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="28"/>
-      <c r="G449" s="29"/>
-      <c r="I449" s="29"/>
+      <c r="A449" s="35"/>
+      <c r="G449" s="36"/>
+      <c r="I449" s="36"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="28"/>
-      <c r="G450" s="29"/>
-      <c r="I450" s="29"/>
+      <c r="A450" s="35"/>
+      <c r="G450" s="36"/>
+      <c r="I450" s="36"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="28"/>
-      <c r="G451" s="29"/>
-      <c r="I451" s="29"/>
+      <c r="A451" s="35"/>
+      <c r="G451" s="36"/>
+      <c r="I451" s="36"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="28"/>
-      <c r="G452" s="29"/>
-      <c r="I452" s="29"/>
+      <c r="A452" s="35"/>
+      <c r="G452" s="36"/>
+      <c r="I452" s="36"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="28"/>
-      <c r="G453" s="29"/>
-      <c r="I453" s="29"/>
+      <c r="A453" s="35"/>
+      <c r="G453" s="36"/>
+      <c r="I453" s="36"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="28"/>
-      <c r="G454" s="29"/>
-      <c r="I454" s="29"/>
+      <c r="A454" s="35"/>
+      <c r="G454" s="36"/>
+      <c r="I454" s="36"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="28"/>
-      <c r="G455" s="29"/>
-      <c r="I455" s="29"/>
+      <c r="A455" s="35"/>
+      <c r="G455" s="36"/>
+      <c r="I455" s="36"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="28"/>
-      <c r="G456" s="29"/>
-      <c r="I456" s="29"/>
+      <c r="A456" s="35"/>
+      <c r="G456" s="36"/>
+      <c r="I456" s="36"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="28"/>
-      <c r="G457" s="29"/>
-      <c r="I457" s="29"/>
+      <c r="A457" s="35"/>
+      <c r="G457" s="36"/>
+      <c r="I457" s="36"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="28"/>
-      <c r="G458" s="29"/>
-      <c r="I458" s="29"/>
+      <c r="A458" s="35"/>
+      <c r="G458" s="36"/>
+      <c r="I458" s="36"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="28"/>
-      <c r="G459" s="29"/>
-      <c r="I459" s="29"/>
+      <c r="A459" s="35"/>
+      <c r="G459" s="36"/>
+      <c r="I459" s="36"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="28"/>
-      <c r="G460" s="29"/>
-      <c r="I460" s="29"/>
+      <c r="A460" s="35"/>
+      <c r="G460" s="36"/>
+      <c r="I460" s="36"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="28"/>
-      <c r="G461" s="29"/>
-      <c r="I461" s="29"/>
+      <c r="A461" s="35"/>
+      <c r="G461" s="36"/>
+      <c r="I461" s="36"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="28"/>
-      <c r="G462" s="29"/>
-      <c r="I462" s="29"/>
+      <c r="A462" s="35"/>
+      <c r="G462" s="36"/>
+      <c r="I462" s="36"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="28"/>
-      <c r="G463" s="29"/>
-      <c r="I463" s="29"/>
+      <c r="A463" s="35"/>
+      <c r="G463" s="36"/>
+      <c r="I463" s="36"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="28"/>
-      <c r="G464" s="29"/>
-      <c r="I464" s="29"/>
+      <c r="A464" s="35"/>
+      <c r="G464" s="36"/>
+      <c r="I464" s="36"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="28"/>
-      <c r="G465" s="29"/>
-      <c r="I465" s="29"/>
+      <c r="A465" s="35"/>
+      <c r="G465" s="36"/>
+      <c r="I465" s="36"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="28"/>
-      <c r="G466" s="29"/>
-      <c r="I466" s="29"/>
+      <c r="A466" s="35"/>
+      <c r="G466" s="36"/>
+      <c r="I466" s="36"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="28"/>
-      <c r="G467" s="29"/>
-      <c r="I467" s="29"/>
+      <c r="A467" s="35"/>
+      <c r="G467" s="36"/>
+      <c r="I467" s="36"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="28"/>
-      <c r="G468" s="29"/>
-      <c r="I468" s="29"/>
+      <c r="A468" s="35"/>
+      <c r="G468" s="36"/>
+      <c r="I468" s="36"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="28"/>
-      <c r="G469" s="29"/>
-      <c r="I469" s="29"/>
+      <c r="A469" s="35"/>
+      <c r="G469" s="36"/>
+      <c r="I469" s="36"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="28"/>
-      <c r="G470" s="29"/>
-      <c r="I470" s="29"/>
+      <c r="A470" s="35"/>
+      <c r="G470" s="36"/>
+      <c r="I470" s="36"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="28"/>
-      <c r="G471" s="29"/>
-      <c r="I471" s="29"/>
+      <c r="A471" s="35"/>
+      <c r="G471" s="36"/>
+      <c r="I471" s="36"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="28"/>
-      <c r="G472" s="29"/>
-      <c r="I472" s="29"/>
+      <c r="A472" s="35"/>
+      <c r="G472" s="36"/>
+      <c r="I472" s="36"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="28"/>
-      <c r="G473" s="29"/>
-      <c r="I473" s="29"/>
+      <c r="A473" s="35"/>
+      <c r="G473" s="36"/>
+      <c r="I473" s="36"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="28"/>
-      <c r="G474" s="29"/>
-      <c r="I474" s="29"/>
+      <c r="A474" s="35"/>
+      <c r="G474" s="36"/>
+      <c r="I474" s="36"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="28"/>
-      <c r="G475" s="29"/>
-      <c r="I475" s="29"/>
+      <c r="A475" s="35"/>
+      <c r="G475" s="36"/>
+      <c r="I475" s="36"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="28"/>
-      <c r="G476" s="29"/>
-      <c r="I476" s="29"/>
+      <c r="A476" s="35"/>
+      <c r="G476" s="36"/>
+      <c r="I476" s="36"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="28"/>
-      <c r="G477" s="29"/>
-      <c r="I477" s="29"/>
+      <c r="A477" s="35"/>
+      <c r="G477" s="36"/>
+      <c r="I477" s="36"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="28"/>
-      <c r="G478" s="29"/>
-      <c r="I478" s="29"/>
+      <c r="A478" s="35"/>
+      <c r="G478" s="36"/>
+      <c r="I478" s="36"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="28"/>
-      <c r="G479" s="29"/>
-      <c r="I479" s="29"/>
+      <c r="A479" s="35"/>
+      <c r="G479" s="36"/>
+      <c r="I479" s="36"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="28"/>
-      <c r="G480" s="29"/>
-      <c r="I480" s="29"/>
+      <c r="A480" s="35"/>
+      <c r="G480" s="36"/>
+      <c r="I480" s="36"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="28"/>
-      <c r="G481" s="29"/>
-      <c r="I481" s="29"/>
+      <c r="A481" s="35"/>
+      <c r="G481" s="36"/>
+      <c r="I481" s="36"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="28"/>
-      <c r="G482" s="29"/>
-      <c r="I482" s="29"/>
+      <c r="A482" s="35"/>
+      <c r="G482" s="36"/>
+      <c r="I482" s="36"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="28"/>
-      <c r="G483" s="29"/>
-      <c r="I483" s="29"/>
+      <c r="A483" s="35"/>
+      <c r="G483" s="36"/>
+      <c r="I483" s="36"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="28"/>
-      <c r="G484" s="29"/>
-      <c r="I484" s="29"/>
+      <c r="A484" s="35"/>
+      <c r="G484" s="36"/>
+      <c r="I484" s="36"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="28"/>
-      <c r="G485" s="29"/>
-      <c r="I485" s="29"/>
+      <c r="A485" s="35"/>
+      <c r="G485" s="36"/>
+      <c r="I485" s="36"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="28"/>
-      <c r="G486" s="29"/>
-      <c r="I486" s="29"/>
+      <c r="A486" s="35"/>
+      <c r="G486" s="36"/>
+      <c r="I486" s="36"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="28"/>
-      <c r="G487" s="29"/>
-      <c r="I487" s="29"/>
+      <c r="A487" s="35"/>
+      <c r="G487" s="36"/>
+      <c r="I487" s="36"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="28"/>
-      <c r="G488" s="29"/>
-      <c r="I488" s="29"/>
+      <c r="A488" s="35"/>
+      <c r="G488" s="36"/>
+      <c r="I488" s="36"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="28"/>
-      <c r="G489" s="29"/>
-      <c r="I489" s="29"/>
+      <c r="A489" s="35"/>
+      <c r="G489" s="36"/>
+      <c r="I489" s="36"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="28"/>
-      <c r="G490" s="29"/>
-      <c r="I490" s="29"/>
+      <c r="A490" s="35"/>
+      <c r="G490" s="36"/>
+      <c r="I490" s="36"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="28"/>
-      <c r="G491" s="29"/>
-      <c r="I491" s="29"/>
+      <c r="A491" s="35"/>
+      <c r="G491" s="36"/>
+      <c r="I491" s="36"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="28"/>
-      <c r="G492" s="29"/>
-      <c r="I492" s="29"/>
+      <c r="A492" s="35"/>
+      <c r="G492" s="36"/>
+      <c r="I492" s="36"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="28"/>
-      <c r="G493" s="29"/>
-      <c r="I493" s="29"/>
+      <c r="A493" s="35"/>
+      <c r="G493" s="36"/>
+      <c r="I493" s="36"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="28"/>
-      <c r="G494" s="29"/>
-      <c r="I494" s="29"/>
+      <c r="A494" s="35"/>
+      <c r="G494" s="36"/>
+      <c r="I494" s="36"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="28"/>
-      <c r="G495" s="29"/>
-      <c r="I495" s="29"/>
+      <c r="A495" s="35"/>
+      <c r="G495" s="36"/>
+      <c r="I495" s="36"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="28"/>
-      <c r="G496" s="29"/>
-      <c r="I496" s="29"/>
+      <c r="A496" s="35"/>
+      <c r="G496" s="36"/>
+      <c r="I496" s="36"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="28"/>
-      <c r="G497" s="29"/>
-      <c r="I497" s="29"/>
+      <c r="A497" s="35"/>
+      <c r="G497" s="36"/>
+      <c r="I497" s="36"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="28"/>
-      <c r="G498" s="29"/>
-      <c r="I498" s="29"/>
+      <c r="A498" s="35"/>
+      <c r="G498" s="36"/>
+      <c r="I498" s="36"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="28"/>
-      <c r="G499" s="29"/>
-      <c r="I499" s="29"/>
+      <c r="A499" s="35"/>
+      <c r="G499" s="36"/>
+      <c r="I499" s="36"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="28"/>
-      <c r="G500" s="29"/>
-      <c r="I500" s="29"/>
+      <c r="A500" s="35"/>
+      <c r="G500" s="36"/>
+      <c r="I500" s="36"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="28"/>
-      <c r="G501" s="29"/>
-      <c r="I501" s="29"/>
+      <c r="A501" s="35"/>
+      <c r="G501" s="36"/>
+      <c r="I501" s="36"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="28"/>
-      <c r="G502" s="29"/>
-      <c r="I502" s="29"/>
+      <c r="A502" s="35"/>
+      <c r="G502" s="36"/>
+      <c r="I502" s="36"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="28"/>
-      <c r="G503" s="29"/>
-      <c r="I503" s="29"/>
+      <c r="A503" s="35"/>
+      <c r="G503" s="36"/>
+      <c r="I503" s="36"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="28"/>
-      <c r="G504" s="29"/>
-      <c r="I504" s="29"/>
+      <c r="A504" s="35"/>
+      <c r="G504" s="36"/>
+      <c r="I504" s="36"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="28"/>
-      <c r="G505" s="29"/>
-      <c r="I505" s="29"/>
+      <c r="A505" s="35"/>
+      <c r="G505" s="36"/>
+      <c r="I505" s="36"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="28"/>
-      <c r="G506" s="29"/>
-      <c r="I506" s="29"/>
+      <c r="A506" s="35"/>
+      <c r="G506" s="36"/>
+      <c r="I506" s="36"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="28"/>
-      <c r="G507" s="29"/>
-      <c r="I507" s="29"/>
+      <c r="A507" s="35"/>
+      <c r="G507" s="36"/>
+      <c r="I507" s="36"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="28"/>
-      <c r="G508" s="29"/>
-      <c r="I508" s="29"/>
+      <c r="A508" s="35"/>
+      <c r="G508" s="36"/>
+      <c r="I508" s="36"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="28"/>
-      <c r="G509" s="29"/>
-      <c r="I509" s="29"/>
+      <c r="A509" s="35"/>
+      <c r="G509" s="36"/>
+      <c r="I509" s="36"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="28"/>
-      <c r="G510" s="29"/>
-      <c r="I510" s="29"/>
+      <c r="A510" s="35"/>
+      <c r="G510" s="36"/>
+      <c r="I510" s="36"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="28"/>
-      <c r="G511" s="29"/>
-      <c r="I511" s="29"/>
+      <c r="A511" s="35"/>
+      <c r="G511" s="36"/>
+      <c r="I511" s="36"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="28"/>
-      <c r="G512" s="29"/>
-      <c r="I512" s="29"/>
+      <c r="A512" s="35"/>
+      <c r="G512" s="36"/>
+      <c r="I512" s="36"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="28"/>
-      <c r="G513" s="29"/>
-      <c r="I513" s="29"/>
+      <c r="A513" s="35"/>
+      <c r="G513" s="36"/>
+      <c r="I513" s="36"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="28"/>
-      <c r="G514" s="29"/>
-      <c r="I514" s="29"/>
+      <c r="A514" s="35"/>
+      <c r="G514" s="36"/>
+      <c r="I514" s="36"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="28"/>
-      <c r="G515" s="29"/>
-      <c r="I515" s="29"/>
+      <c r="A515" s="35"/>
+      <c r="G515" s="36"/>
+      <c r="I515" s="36"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="28"/>
-      <c r="G516" s="29"/>
-      <c r="I516" s="29"/>
+      <c r="A516" s="35"/>
+      <c r="G516" s="36"/>
+      <c r="I516" s="36"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="28"/>
-      <c r="G517" s="29"/>
-      <c r="I517" s="29"/>
+      <c r="A517" s="35"/>
+      <c r="G517" s="36"/>
+      <c r="I517" s="36"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="28"/>
-      <c r="G518" s="29"/>
-      <c r="I518" s="29"/>
+      <c r="A518" s="35"/>
+      <c r="G518" s="36"/>
+      <c r="I518" s="36"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="28"/>
-      <c r="G519" s="29"/>
-      <c r="I519" s="29"/>
+      <c r="A519" s="35"/>
+      <c r="G519" s="36"/>
+      <c r="I519" s="36"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="28"/>
-      <c r="G520" s="29"/>
-      <c r="I520" s="29"/>
+      <c r="A520" s="35"/>
+      <c r="G520" s="36"/>
+      <c r="I520" s="36"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="28"/>
-      <c r="G521" s="29"/>
-      <c r="I521" s="29"/>
+      <c r="A521" s="35"/>
+      <c r="G521" s="36"/>
+      <c r="I521" s="36"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="28"/>
-      <c r="G522" s="29"/>
-      <c r="I522" s="29"/>
+      <c r="A522" s="35"/>
+      <c r="G522" s="36"/>
+      <c r="I522" s="36"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="28"/>
-      <c r="G523" s="29"/>
-      <c r="I523" s="29"/>
+      <c r="A523" s="35"/>
+      <c r="G523" s="36"/>
+      <c r="I523" s="36"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="28"/>
-      <c r="G524" s="29"/>
-      <c r="I524" s="29"/>
+      <c r="A524" s="35"/>
+      <c r="G524" s="36"/>
+      <c r="I524" s="36"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="28"/>
-      <c r="G525" s="29"/>
-      <c r="I525" s="29"/>
+      <c r="A525" s="35"/>
+      <c r="G525" s="36"/>
+      <c r="I525" s="36"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="28"/>
-      <c r="G526" s="29"/>
-      <c r="I526" s="29"/>
+      <c r="A526" s="35"/>
+      <c r="G526" s="36"/>
+      <c r="I526" s="36"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="28"/>
-      <c r="G527" s="29"/>
-      <c r="I527" s="29"/>
+      <c r="A527" s="35"/>
+      <c r="G527" s="36"/>
+      <c r="I527" s="36"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="28"/>
-      <c r="G528" s="29"/>
-      <c r="I528" s="29"/>
+      <c r="A528" s="35"/>
+      <c r="G528" s="36"/>
+      <c r="I528" s="36"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="28"/>
-      <c r="G529" s="29"/>
-      <c r="I529" s="29"/>
+      <c r="A529" s="35"/>
+      <c r="G529" s="36"/>
+      <c r="I529" s="36"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="28"/>
-      <c r="G530" s="29"/>
-      <c r="I530" s="29"/>
+      <c r="A530" s="35"/>
+      <c r="G530" s="36"/>
+      <c r="I530" s="36"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="28"/>
-      <c r="G531" s="29"/>
-      <c r="I531" s="29"/>
+      <c r="A531" s="35"/>
+      <c r="G531" s="36"/>
+      <c r="I531" s="36"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="28"/>
-      <c r="G532" s="29"/>
-      <c r="I532" s="29"/>
+      <c r="A532" s="35"/>
+      <c r="G532" s="36"/>
+      <c r="I532" s="36"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="28"/>
-      <c r="G533" s="29"/>
-      <c r="I533" s="29"/>
+      <c r="A533" s="35"/>
+      <c r="G533" s="36"/>
+      <c r="I533" s="36"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="28"/>
-      <c r="G534" s="29"/>
-      <c r="I534" s="29"/>
+      <c r="A534" s="35"/>
+      <c r="G534" s="36"/>
+      <c r="I534" s="36"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="28"/>
-      <c r="G535" s="29"/>
-      <c r="I535" s="29"/>
+      <c r="A535" s="35"/>
+      <c r="G535" s="36"/>
+      <c r="I535" s="36"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="28"/>
-      <c r="G536" s="29"/>
-      <c r="I536" s="29"/>
+      <c r="A536" s="35"/>
+      <c r="G536" s="36"/>
+      <c r="I536" s="36"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="28"/>
-      <c r="G537" s="29"/>
-      <c r="I537" s="29"/>
+      <c r="A537" s="35"/>
+      <c r="G537" s="36"/>
+      <c r="I537" s="36"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="28"/>
-      <c r="G538" s="29"/>
-      <c r="I538" s="29"/>
+      <c r="A538" s="35"/>
+      <c r="G538" s="36"/>
+      <c r="I538" s="36"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="28"/>
-      <c r="G539" s="29"/>
-      <c r="I539" s="29"/>
+      <c r="A539" s="35"/>
+      <c r="G539" s="36"/>
+      <c r="I539" s="36"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="28"/>
-      <c r="G540" s="29"/>
-      <c r="I540" s="29"/>
+      <c r="A540" s="35"/>
+      <c r="G540" s="36"/>
+      <c r="I540" s="36"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="28"/>
-      <c r="G541" s="29"/>
-      <c r="I541" s="29"/>
+      <c r="A541" s="35"/>
+      <c r="G541" s="36"/>
+      <c r="I541" s="36"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="28"/>
-      <c r="G542" s="29"/>
-      <c r="I542" s="29"/>
+      <c r="A542" s="35"/>
+      <c r="G542" s="36"/>
+      <c r="I542" s="36"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="28"/>
-      <c r="G543" s="29"/>
-      <c r="I543" s="29"/>
+      <c r="A543" s="35"/>
+      <c r="G543" s="36"/>
+      <c r="I543" s="36"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="28"/>
-      <c r="G544" s="29"/>
-      <c r="I544" s="29"/>
+      <c r="A544" s="35"/>
+      <c r="G544" s="36"/>
+      <c r="I544" s="36"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="28"/>
-      <c r="G545" s="29"/>
-      <c r="I545" s="29"/>
+      <c r="A545" s="35"/>
+      <c r="G545" s="36"/>
+      <c r="I545" s="36"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="28"/>
-      <c r="G546" s="29"/>
-      <c r="I546" s="29"/>
+      <c r="A546" s="35"/>
+      <c r="G546" s="36"/>
+      <c r="I546" s="36"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="28"/>
-      <c r="G547" s="29"/>
-      <c r="I547" s="29"/>
+      <c r="A547" s="35"/>
+      <c r="G547" s="36"/>
+      <c r="I547" s="36"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="28"/>
-      <c r="G548" s="29"/>
-      <c r="I548" s="29"/>
+      <c r="A548" s="35"/>
+      <c r="G548" s="36"/>
+      <c r="I548" s="36"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="28"/>
-      <c r="G549" s="29"/>
-      <c r="I549" s="29"/>
+      <c r="A549" s="35"/>
+      <c r="G549" s="36"/>
+      <c r="I549" s="36"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="28"/>
-      <c r="G550" s="29"/>
-      <c r="I550" s="29"/>
+      <c r="A550" s="35"/>
+      <c r="G550" s="36"/>
+      <c r="I550" s="36"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="28"/>
-      <c r="G551" s="29"/>
-      <c r="I551" s="29"/>
+      <c r="A551" s="35"/>
+      <c r="G551" s="36"/>
+      <c r="I551" s="36"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="28"/>
-      <c r="G552" s="29"/>
-      <c r="I552" s="29"/>
+      <c r="A552" s="35"/>
+      <c r="G552" s="36"/>
+      <c r="I552" s="36"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="28"/>
-      <c r="G553" s="29"/>
-      <c r="I553" s="29"/>
+      <c r="A553" s="35"/>
+      <c r="G553" s="36"/>
+      <c r="I553" s="36"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="28"/>
-      <c r="G554" s="29"/>
-      <c r="I554" s="29"/>
+      <c r="A554" s="35"/>
+      <c r="G554" s="36"/>
+      <c r="I554" s="36"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="28"/>
-      <c r="G555" s="29"/>
-      <c r="I555" s="29"/>
+      <c r="A555" s="35"/>
+      <c r="G555" s="36"/>
+      <c r="I555" s="36"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="28"/>
-      <c r="G556" s="29"/>
-      <c r="I556" s="29"/>
+      <c r="A556" s="35"/>
+      <c r="G556" s="36"/>
+      <c r="I556" s="36"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="28"/>
-      <c r="G557" s="29"/>
-      <c r="I557" s="29"/>
+      <c r="A557" s="35"/>
+      <c r="G557" s="36"/>
+      <c r="I557" s="36"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="28"/>
-      <c r="G558" s="29"/>
-      <c r="I558" s="29"/>
+      <c r="A558" s="35"/>
+      <c r="G558" s="36"/>
+      <c r="I558" s="36"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="28"/>
-      <c r="G559" s="29"/>
-      <c r="I559" s="29"/>
+      <c r="A559" s="35"/>
+      <c r="G559" s="36"/>
+      <c r="I559" s="36"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="28"/>
-      <c r="G560" s="29"/>
-      <c r="I560" s="29"/>
+      <c r="A560" s="35"/>
+      <c r="G560" s="36"/>
+      <c r="I560" s="36"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="28"/>
-      <c r="G561" s="29"/>
-      <c r="I561" s="29"/>
+      <c r="A561" s="35"/>
+      <c r="G561" s="36"/>
+      <c r="I561" s="36"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="28"/>
-      <c r="G562" s="29"/>
-      <c r="I562" s="29"/>
+      <c r="A562" s="35"/>
+      <c r="G562" s="36"/>
+      <c r="I562" s="36"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="28"/>
-      <c r="G563" s="29"/>
-      <c r="I563" s="29"/>
+      <c r="A563" s="35"/>
+      <c r="G563" s="36"/>
+      <c r="I563" s="36"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="28"/>
-      <c r="G564" s="29"/>
-      <c r="I564" s="29"/>
+      <c r="A564" s="35"/>
+      <c r="G564" s="36"/>
+      <c r="I564" s="36"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="28"/>
-      <c r="G565" s="29"/>
-      <c r="I565" s="29"/>
+      <c r="A565" s="35"/>
+      <c r="G565" s="36"/>
+      <c r="I565" s="36"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="28"/>
-      <c r="G566" s="29"/>
-      <c r="I566" s="29"/>
+      <c r="A566" s="35"/>
+      <c r="G566" s="36"/>
+      <c r="I566" s="36"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="28"/>
-      <c r="G567" s="29"/>
-      <c r="I567" s="29"/>
+      <c r="A567" s="35"/>
+      <c r="G567" s="36"/>
+      <c r="I567" s="36"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="28"/>
-      <c r="G568" s="29"/>
-      <c r="I568" s="29"/>
+      <c r="A568" s="35"/>
+      <c r="G568" s="36"/>
+      <c r="I568" s="36"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="28"/>
-      <c r="G569" s="29"/>
-      <c r="I569" s="29"/>
+      <c r="A569" s="35"/>
+      <c r="G569" s="36"/>
+      <c r="I569" s="36"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="28"/>
-      <c r="G570" s="29"/>
-      <c r="I570" s="29"/>
+      <c r="A570" s="35"/>
+      <c r="G570" s="36"/>
+      <c r="I570" s="36"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="28"/>
-      <c r="G571" s="29"/>
-      <c r="I571" s="29"/>
+      <c r="A571" s="35"/>
+      <c r="G571" s="36"/>
+      <c r="I571" s="36"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="28"/>
-      <c r="G572" s="29"/>
-      <c r="I572" s="29"/>
+      <c r="A572" s="35"/>
+      <c r="G572" s="36"/>
+      <c r="I572" s="36"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="28"/>
-      <c r="G573" s="29"/>
-      <c r="I573" s="29"/>
+      <c r="A573" s="35"/>
+      <c r="G573" s="36"/>
+      <c r="I573" s="36"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="28"/>
-      <c r="G574" s="29"/>
-      <c r="I574" s="29"/>
+      <c r="A574" s="35"/>
+      <c r="G574" s="36"/>
+      <c r="I574" s="36"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="28"/>
-      <c r="G575" s="29"/>
-      <c r="I575" s="29"/>
+      <c r="A575" s="35"/>
+      <c r="G575" s="36"/>
+      <c r="I575" s="36"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="28"/>
-      <c r="G576" s="29"/>
-      <c r="I576" s="29"/>
+      <c r="A576" s="35"/>
+      <c r="G576" s="36"/>
+      <c r="I576" s="36"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="28"/>
-      <c r="G577" s="29"/>
-      <c r="I577" s="29"/>
+      <c r="A577" s="35"/>
+      <c r="G577" s="36"/>
+      <c r="I577" s="36"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="28"/>
-      <c r="G578" s="29"/>
-      <c r="I578" s="29"/>
+      <c r="A578" s="35"/>
+      <c r="G578" s="36"/>
+      <c r="I578" s="36"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="28"/>
-      <c r="G579" s="29"/>
-      <c r="I579" s="29"/>
+      <c r="A579" s="35"/>
+      <c r="G579" s="36"/>
+      <c r="I579" s="36"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="28"/>
-      <c r="G580" s="29"/>
-      <c r="I580" s="29"/>
+      <c r="A580" s="35"/>
+      <c r="G580" s="36"/>
+      <c r="I580" s="36"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="28"/>
-      <c r="G581" s="29"/>
-      <c r="I581" s="29"/>
+      <c r="A581" s="35"/>
+      <c r="G581" s="36"/>
+      <c r="I581" s="36"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="28"/>
-      <c r="G582" s="29"/>
-      <c r="I582" s="29"/>
+      <c r="A582" s="35"/>
+      <c r="G582" s="36"/>
+      <c r="I582" s="36"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="28"/>
-      <c r="G583" s="29"/>
-      <c r="I583" s="29"/>
+      <c r="A583" s="35"/>
+      <c r="G583" s="36"/>
+      <c r="I583" s="36"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="28"/>
-      <c r="G584" s="29"/>
-      <c r="I584" s="29"/>
+      <c r="A584" s="35"/>
+      <c r="G584" s="36"/>
+      <c r="I584" s="36"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="28"/>
-      <c r="G585" s="29"/>
-      <c r="I585" s="29"/>
+      <c r="A585" s="35"/>
+      <c r="G585" s="36"/>
+      <c r="I585" s="36"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="28"/>
-      <c r="G586" s="29"/>
-      <c r="I586" s="29"/>
+      <c r="A586" s="35"/>
+      <c r="G586" s="36"/>
+      <c r="I586" s="36"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="28"/>
-      <c r="G587" s="29"/>
-      <c r="I587" s="29"/>
+      <c r="A587" s="35"/>
+      <c r="G587" s="36"/>
+      <c r="I587" s="36"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="28"/>
-      <c r="G588" s="29"/>
-      <c r="I588" s="29"/>
+      <c r="A588" s="35"/>
+      <c r="G588" s="36"/>
+      <c r="I588" s="36"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="28"/>
-      <c r="G589" s="29"/>
-      <c r="I589" s="29"/>
+      <c r="A589" s="35"/>
+      <c r="G589" s="36"/>
+      <c r="I589" s="36"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="28"/>
-      <c r="G590" s="29"/>
-      <c r="I590" s="29"/>
+      <c r="A590" s="35"/>
+      <c r="G590" s="36"/>
+      <c r="I590" s="36"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="28"/>
-      <c r="G591" s="29"/>
-      <c r="I591" s="29"/>
+      <c r="A591" s="35"/>
+      <c r="G591" s="36"/>
+      <c r="I591" s="36"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="28"/>
-      <c r="G592" s="29"/>
-      <c r="I592" s="29"/>
+      <c r="A592" s="35"/>
+      <c r="G592" s="36"/>
+      <c r="I592" s="36"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="28"/>
-      <c r="G593" s="29"/>
-      <c r="I593" s="29"/>
+      <c r="A593" s="35"/>
+      <c r="G593" s="36"/>
+      <c r="I593" s="36"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="28"/>
-      <c r="G594" s="29"/>
-      <c r="I594" s="29"/>
+      <c r="A594" s="35"/>
+      <c r="G594" s="36"/>
+      <c r="I594" s="36"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="28"/>
-      <c r="G595" s="29"/>
-      <c r="I595" s="29"/>
+      <c r="A595" s="35"/>
+      <c r="G595" s="36"/>
+      <c r="I595" s="36"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="28"/>
-      <c r="G596" s="29"/>
-      <c r="I596" s="29"/>
+      <c r="A596" s="35"/>
+      <c r="G596" s="36"/>
+      <c r="I596" s="36"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="28"/>
-      <c r="G597" s="29"/>
-      <c r="I597" s="29"/>
+      <c r="A597" s="35"/>
+      <c r="G597" s="36"/>
+      <c r="I597" s="36"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="28"/>
-      <c r="G598" s="29"/>
-      <c r="I598" s="29"/>
+      <c r="A598" s="35"/>
+      <c r="G598" s="36"/>
+      <c r="I598" s="36"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="28"/>
-      <c r="G599" s="29"/>
-      <c r="I599" s="29"/>
+      <c r="A599" s="35"/>
+      <c r="G599" s="36"/>
+      <c r="I599" s="36"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="28"/>
-      <c r="G600" s="29"/>
-      <c r="I600" s="29"/>
+      <c r="A600" s="35"/>
+      <c r="G600" s="36"/>
+      <c r="I600" s="36"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="28"/>
-      <c r="G601" s="29"/>
-      <c r="I601" s="29"/>
+      <c r="A601" s="35"/>
+      <c r="G601" s="36"/>
+      <c r="I601" s="36"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="28"/>
-      <c r="G602" s="29"/>
-      <c r="I602" s="29"/>
+      <c r="A602" s="35"/>
+      <c r="G602" s="36"/>
+      <c r="I602" s="36"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="28"/>
-      <c r="G603" s="29"/>
-      <c r="I603" s="29"/>
+      <c r="A603" s="35"/>
+      <c r="G603" s="36"/>
+      <c r="I603" s="36"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="28"/>
-      <c r="G604" s="29"/>
-      <c r="I604" s="29"/>
+      <c r="A604" s="35"/>
+      <c r="G604" s="36"/>
+      <c r="I604" s="36"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="28"/>
-      <c r="G605" s="29"/>
-      <c r="I605" s="29"/>
+      <c r="A605" s="35"/>
+      <c r="G605" s="36"/>
+      <c r="I605" s="36"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="28"/>
-      <c r="G606" s="29"/>
-      <c r="I606" s="29"/>
+      <c r="A606" s="35"/>
+      <c r="G606" s="36"/>
+      <c r="I606" s="36"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="28"/>
-      <c r="G607" s="29"/>
-      <c r="I607" s="29"/>
+      <c r="A607" s="35"/>
+      <c r="G607" s="36"/>
+      <c r="I607" s="36"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="28"/>
-      <c r="G608" s="29"/>
-      <c r="I608" s="29"/>
+      <c r="A608" s="35"/>
+      <c r="G608" s="36"/>
+      <c r="I608" s="36"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="28"/>
-      <c r="G609" s="29"/>
-      <c r="I609" s="29"/>
+      <c r="A609" s="35"/>
+      <c r="G609" s="36"/>
+      <c r="I609" s="36"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="28"/>
-      <c r="G610" s="29"/>
-      <c r="I610" s="29"/>
+      <c r="A610" s="35"/>
+      <c r="G610" s="36"/>
+      <c r="I610" s="36"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="28"/>
-      <c r="G611" s="29"/>
-      <c r="I611" s="29"/>
+      <c r="A611" s="35"/>
+      <c r="G611" s="36"/>
+      <c r="I611" s="36"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="28"/>
-      <c r="G612" s="29"/>
-      <c r="I612" s="29"/>
+      <c r="A612" s="35"/>
+      <c r="G612" s="36"/>
+      <c r="I612" s="36"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="28"/>
-      <c r="G613" s="29"/>
-      <c r="I613" s="29"/>
+      <c r="A613" s="35"/>
+      <c r="G613" s="36"/>
+      <c r="I613" s="36"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="28"/>
-      <c r="G614" s="29"/>
-      <c r="I614" s="29"/>
+      <c r="A614" s="35"/>
+      <c r="G614" s="36"/>
+      <c r="I614" s="36"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="28"/>
-      <c r="G615" s="29"/>
-      <c r="I615" s="29"/>
+      <c r="A615" s="35"/>
+      <c r="G615" s="36"/>
+      <c r="I615" s="36"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="28"/>
-      <c r="G616" s="29"/>
-      <c r="I616" s="29"/>
+      <c r="A616" s="35"/>
+      <c r="G616" s="36"/>
+      <c r="I616" s="36"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="28"/>
-      <c r="G617" s="29"/>
-      <c r="I617" s="29"/>
+      <c r="A617" s="35"/>
+      <c r="G617" s="36"/>
+      <c r="I617" s="36"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="28"/>
-      <c r="G618" s="29"/>
-      <c r="I618" s="29"/>
+      <c r="A618" s="35"/>
+      <c r="G618" s="36"/>
+      <c r="I618" s="36"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="28"/>
-      <c r="G619" s="29"/>
-      <c r="I619" s="29"/>
+      <c r="A619" s="35"/>
+      <c r="G619" s="36"/>
+      <c r="I619" s="36"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="28"/>
-      <c r="G620" s="29"/>
-      <c r="I620" s="29"/>
+      <c r="A620" s="35"/>
+      <c r="G620" s="36"/>
+      <c r="I620" s="36"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="28"/>
-      <c r="G621" s="29"/>
-      <c r="I621" s="29"/>
+      <c r="A621" s="35"/>
+      <c r="G621" s="36"/>
+      <c r="I621" s="36"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="28"/>
-      <c r="G622" s="29"/>
-      <c r="I622" s="29"/>
+      <c r="A622" s="35"/>
+      <c r="G622" s="36"/>
+      <c r="I622" s="36"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="28"/>
-      <c r="G623" s="29"/>
-      <c r="I623" s="29"/>
+      <c r="A623" s="35"/>
+      <c r="G623" s="36"/>
+      <c r="I623" s="36"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="28"/>
-      <c r="G624" s="29"/>
-      <c r="I624" s="29"/>
+      <c r="A624" s="35"/>
+      <c r="G624" s="36"/>
+      <c r="I624" s="36"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="28"/>
-      <c r="G625" s="29"/>
-      <c r="I625" s="29"/>
+      <c r="A625" s="35"/>
+      <c r="G625" s="36"/>
+      <c r="I625" s="36"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="28"/>
-      <c r="G626" s="29"/>
-      <c r="I626" s="29"/>
+      <c r="A626" s="35"/>
+      <c r="G626" s="36"/>
+      <c r="I626" s="36"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="28"/>
-      <c r="G627" s="29"/>
-      <c r="I627" s="29"/>
+      <c r="A627" s="35"/>
+      <c r="G627" s="36"/>
+      <c r="I627" s="36"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="28"/>
-      <c r="G628" s="29"/>
-      <c r="I628" s="29"/>
+      <c r="A628" s="35"/>
+      <c r="G628" s="36"/>
+      <c r="I628" s="36"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="28"/>
-      <c r="G629" s="29"/>
-      <c r="I629" s="29"/>
+      <c r="A629" s="35"/>
+      <c r="G629" s="36"/>
+      <c r="I629" s="36"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="28"/>
-      <c r="G630" s="29"/>
-      <c r="I630" s="29"/>
+      <c r="A630" s="35"/>
+      <c r="G630" s="36"/>
+      <c r="I630" s="36"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="28"/>
-      <c r="G631" s="29"/>
-      <c r="I631" s="29"/>
+      <c r="A631" s="35"/>
+      <c r="G631" s="36"/>
+      <c r="I631" s="36"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="28"/>
-      <c r="G632" s="29"/>
-      <c r="I632" s="29"/>
+      <c r="A632" s="35"/>
+      <c r="G632" s="36"/>
+      <c r="I632" s="36"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="28"/>
-      <c r="G633" s="29"/>
-      <c r="I633" s="29"/>
+      <c r="A633" s="35"/>
+      <c r="G633" s="36"/>
+      <c r="I633" s="36"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="28"/>
-      <c r="G634" s="29"/>
-      <c r="I634" s="29"/>
+      <c r="A634" s="35"/>
+      <c r="G634" s="36"/>
+      <c r="I634" s="36"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="28"/>
-      <c r="G635" s="29"/>
-      <c r="I635" s="29"/>
+      <c r="A635" s="35"/>
+      <c r="G635" s="36"/>
+      <c r="I635" s="36"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="28"/>
-      <c r="G636" s="29"/>
-      <c r="I636" s="29"/>
+      <c r="A636" s="35"/>
+      <c r="G636" s="36"/>
+      <c r="I636" s="36"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="28"/>
-      <c r="G637" s="29"/>
-      <c r="I637" s="29"/>
+      <c r="A637" s="35"/>
+      <c r="G637" s="36"/>
+      <c r="I637" s="36"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="28"/>
-      <c r="G638" s="29"/>
-      <c r="I638" s="29"/>
+      <c r="A638" s="35"/>
+      <c r="G638" s="36"/>
+      <c r="I638" s="36"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="28"/>
-      <c r="G639" s="29"/>
-      <c r="I639" s="29"/>
+      <c r="A639" s="35"/>
+      <c r="G639" s="36"/>
+      <c r="I639" s="36"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="28"/>
-      <c r="G640" s="29"/>
-      <c r="I640" s="29"/>
+      <c r="A640" s="35"/>
+      <c r="G640" s="36"/>
+      <c r="I640" s="36"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="28"/>
-      <c r="G641" s="29"/>
-      <c r="I641" s="29"/>
+      <c r="A641" s="35"/>
+      <c r="G641" s="36"/>
+      <c r="I641" s="36"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="28"/>
-      <c r="G642" s="29"/>
-      <c r="I642" s="29"/>
+      <c r="A642" s="35"/>
+      <c r="G642" s="36"/>
+      <c r="I642" s="36"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="28"/>
-      <c r="G643" s="29"/>
-      <c r="I643" s="29"/>
+      <c r="A643" s="35"/>
+      <c r="G643" s="36"/>
+      <c r="I643" s="36"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="28"/>
-      <c r="G644" s="29"/>
-      <c r="I644" s="29"/>
+      <c r="A644" s="35"/>
+      <c r="G644" s="36"/>
+      <c r="I644" s="36"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="28"/>
-      <c r="G645" s="29"/>
-      <c r="I645" s="29"/>
+      <c r="A645" s="35"/>
+      <c r="G645" s="36"/>
+      <c r="I645" s="36"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="28"/>
-      <c r="G646" s="29"/>
-      <c r="I646" s="29"/>
+      <c r="A646" s="35"/>
+      <c r="G646" s="36"/>
+      <c r="I646" s="36"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="28"/>
-      <c r="G647" s="29"/>
-      <c r="I647" s="29"/>
+      <c r="A647" s="35"/>
+      <c r="G647" s="36"/>
+      <c r="I647" s="36"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="28"/>
-      <c r="G648" s="29"/>
-      <c r="I648" s="29"/>
+      <c r="A648" s="35"/>
+      <c r="G648" s="36"/>
+      <c r="I648" s="36"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="28"/>
-      <c r="G649" s="29"/>
-      <c r="I649" s="29"/>
+      <c r="A649" s="35"/>
+      <c r="G649" s="36"/>
+      <c r="I649" s="36"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="28"/>
-      <c r="G650" s="29"/>
-      <c r="I650" s="29"/>
+      <c r="A650" s="35"/>
+      <c r="G650" s="36"/>
+      <c r="I650" s="36"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="28"/>
-      <c r="G651" s="29"/>
-      <c r="I651" s="29"/>
+      <c r="A651" s="35"/>
+      <c r="G651" s="36"/>
+      <c r="I651" s="36"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="28"/>
-      <c r="G652" s="29"/>
-      <c r="I652" s="29"/>
+      <c r="A652" s="35"/>
+      <c r="G652" s="36"/>
+      <c r="I652" s="36"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="28"/>
-      <c r="G653" s="29"/>
-      <c r="I653" s="29"/>
+      <c r="A653" s="35"/>
+      <c r="G653" s="36"/>
+      <c r="I653" s="36"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="28"/>
-      <c r="G654" s="29"/>
-      <c r="I654" s="29"/>
+      <c r="A654" s="35"/>
+      <c r="G654" s="36"/>
+      <c r="I654" s="36"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="28"/>
-      <c r="G655" s="29"/>
-      <c r="I655" s="29"/>
+      <c r="A655" s="35"/>
+      <c r="G655" s="36"/>
+      <c r="I655" s="36"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="28"/>
-      <c r="G656" s="29"/>
-      <c r="I656" s="29"/>
+      <c r="A656" s="35"/>
+      <c r="G656" s="36"/>
+      <c r="I656" s="36"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="28"/>
-      <c r="G657" s="29"/>
-      <c r="I657" s="29"/>
+      <c r="A657" s="35"/>
+      <c r="G657" s="36"/>
+      <c r="I657" s="36"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="28"/>
-      <c r="G658" s="29"/>
-      <c r="I658" s="29"/>
+      <c r="A658" s="35"/>
+      <c r="G658" s="36"/>
+      <c r="I658" s="36"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="28"/>
-      <c r="G659" s="29"/>
-      <c r="I659" s="29"/>
+      <c r="A659" s="35"/>
+      <c r="G659" s="36"/>
+      <c r="I659" s="36"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="28"/>
-      <c r="G660" s="29"/>
-      <c r="I660" s="29"/>
+      <c r="A660" s="35"/>
+      <c r="G660" s="36"/>
+      <c r="I660" s="36"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="28"/>
-      <c r="G661" s="29"/>
-      <c r="I661" s="29"/>
+      <c r="A661" s="35"/>
+      <c r="G661" s="36"/>
+      <c r="I661" s="36"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="28"/>
-      <c r="G662" s="29"/>
-      <c r="I662" s="29"/>
+      <c r="A662" s="35"/>
+      <c r="G662" s="36"/>
+      <c r="I662" s="36"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="28"/>
-      <c r="G663" s="29"/>
-      <c r="I663" s="29"/>
+      <c r="A663" s="35"/>
+      <c r="G663" s="36"/>
+      <c r="I663" s="36"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="28"/>
-      <c r="G664" s="29"/>
-      <c r="I664" s="29"/>
+      <c r="A664" s="35"/>
+      <c r="G664" s="36"/>
+      <c r="I664" s="36"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="28"/>
-      <c r="G665" s="29"/>
-      <c r="I665" s="29"/>
+      <c r="A665" s="35"/>
+      <c r="G665" s="36"/>
+      <c r="I665" s="36"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="28"/>
-      <c r="G666" s="29"/>
-      <c r="I666" s="29"/>
+      <c r="A666" s="35"/>
+      <c r="G666" s="36"/>
+      <c r="I666" s="36"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="28"/>
-      <c r="G667" s="29"/>
-      <c r="I667" s="29"/>
+      <c r="A667" s="35"/>
+      <c r="G667" s="36"/>
+      <c r="I667" s="36"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="28"/>
-      <c r="G668" s="29"/>
-      <c r="I668" s="29"/>
+      <c r="A668" s="35"/>
+      <c r="G668" s="36"/>
+      <c r="I668" s="36"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="28"/>
-      <c r="G669" s="29"/>
-      <c r="I669" s="29"/>
+      <c r="A669" s="35"/>
+      <c r="G669" s="36"/>
+      <c r="I669" s="36"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="28"/>
-      <c r="G670" s="29"/>
-      <c r="I670" s="29"/>
+      <c r="A670" s="35"/>
+      <c r="G670" s="36"/>
+      <c r="I670" s="36"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="28"/>
-      <c r="G671" s="29"/>
-      <c r="I671" s="29"/>
+      <c r="A671" s="35"/>
+      <c r="G671" s="36"/>
+      <c r="I671" s="36"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="28"/>
-      <c r="G672" s="29"/>
-      <c r="I672" s="29"/>
+      <c r="A672" s="35"/>
+      <c r="G672" s="36"/>
+      <c r="I672" s="36"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="28"/>
-      <c r="G673" s="29"/>
-      <c r="I673" s="29"/>
+      <c r="A673" s="35"/>
+      <c r="G673" s="36"/>
+      <c r="I673" s="36"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="28"/>
-      <c r="G674" s="29"/>
-      <c r="I674" s="29"/>
+      <c r="A674" s="35"/>
+      <c r="G674" s="36"/>
+      <c r="I674" s="36"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="28"/>
-      <c r="G675" s="29"/>
-      <c r="I675" s="29"/>
+      <c r="A675" s="35"/>
+      <c r="G675" s="36"/>
+      <c r="I675" s="36"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="28"/>
-      <c r="G676" s="29"/>
-      <c r="I676" s="29"/>
+      <c r="A676" s="35"/>
+      <c r="G676" s="36"/>
+      <c r="I676" s="36"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="28"/>
-      <c r="G677" s="29"/>
-      <c r="I677" s="29"/>
+      <c r="A677" s="35"/>
+      <c r="G677" s="36"/>
+      <c r="I677" s="36"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="28"/>
-      <c r="G678" s="29"/>
-      <c r="I678" s="29"/>
+      <c r="A678" s="35"/>
+      <c r="G678" s="36"/>
+      <c r="I678" s="36"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="28"/>
-      <c r="G679" s="29"/>
-      <c r="I679" s="29"/>
+      <c r="A679" s="35"/>
+      <c r="G679" s="36"/>
+      <c r="I679" s="36"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="28"/>
-      <c r="G680" s="29"/>
-      <c r="I680" s="29"/>
+      <c r="A680" s="35"/>
+      <c r="G680" s="36"/>
+      <c r="I680" s="36"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="28"/>
-      <c r="G681" s="29"/>
-      <c r="I681" s="29"/>
+      <c r="A681" s="35"/>
+      <c r="G681" s="36"/>
+      <c r="I681" s="36"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="28"/>
-      <c r="G682" s="29"/>
-      <c r="I682" s="29"/>
+      <c r="A682" s="35"/>
+      <c r="G682" s="36"/>
+      <c r="I682" s="36"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="28"/>
-      <c r="G683" s="29"/>
-      <c r="I683" s="29"/>
+      <c r="A683" s="35"/>
+      <c r="G683" s="36"/>
+      <c r="I683" s="36"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="28"/>
-      <c r="G684" s="29"/>
-      <c r="I684" s="29"/>
+      <c r="A684" s="35"/>
+      <c r="G684" s="36"/>
+      <c r="I684" s="36"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="28"/>
-      <c r="G685" s="29"/>
-      <c r="I685" s="29"/>
+      <c r="A685" s="35"/>
+      <c r="G685" s="36"/>
+      <c r="I685" s="36"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="28"/>
-      <c r="G686" s="29"/>
-      <c r="I686" s="29"/>
+      <c r="A686" s="35"/>
+      <c r="G686" s="36"/>
+      <c r="I686" s="36"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="28"/>
-      <c r="G687" s="29"/>
-      <c r="I687" s="29"/>
+      <c r="A687" s="35"/>
+      <c r="G687" s="36"/>
+      <c r="I687" s="36"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="28"/>
-      <c r="G688" s="29"/>
-      <c r="I688" s="29"/>
+      <c r="A688" s="35"/>
+      <c r="G688" s="36"/>
+      <c r="I688" s="36"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="28"/>
-      <c r="G689" s="29"/>
-      <c r="I689" s="29"/>
+      <c r="A689" s="35"/>
+      <c r="G689" s="36"/>
+      <c r="I689" s="36"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="28"/>
-      <c r="G690" s="29"/>
-      <c r="I690" s="29"/>
+      <c r="A690" s="35"/>
+      <c r="G690" s="36"/>
+      <c r="I690" s="36"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="28"/>
-      <c r="G691" s="29"/>
-      <c r="I691" s="29"/>
+      <c r="A691" s="35"/>
+      <c r="G691" s="36"/>
+      <c r="I691" s="36"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="28"/>
-      <c r="G692" s="29"/>
-      <c r="I692" s="29"/>
+      <c r="A692" s="35"/>
+      <c r="G692" s="36"/>
+      <c r="I692" s="36"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="28"/>
-      <c r="G693" s="29"/>
-      <c r="I693" s="29"/>
+      <c r="A693" s="35"/>
+      <c r="G693" s="36"/>
+      <c r="I693" s="36"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="28"/>
-      <c r="G694" s="29"/>
-      <c r="I694" s="29"/>
+      <c r="A694" s="35"/>
+      <c r="G694" s="36"/>
+      <c r="I694" s="36"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="28"/>
-      <c r="G695" s="29"/>
-      <c r="I695" s="29"/>
+      <c r="A695" s="35"/>
+      <c r="G695" s="36"/>
+      <c r="I695" s="36"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="28"/>
-      <c r="G696" s="29"/>
-      <c r="I696" s="29"/>
+      <c r="A696" s="35"/>
+      <c r="G696" s="36"/>
+      <c r="I696" s="36"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="28"/>
-      <c r="G697" s="29"/>
-      <c r="I697" s="29"/>
+      <c r="A697" s="35"/>
+      <c r="G697" s="36"/>
+      <c r="I697" s="36"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="28"/>
-      <c r="G698" s="29"/>
-      <c r="I698" s="29"/>
+      <c r="A698" s="35"/>
+      <c r="G698" s="36"/>
+      <c r="I698" s="36"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="28"/>
-      <c r="G699" s="29"/>
-      <c r="I699" s="29"/>
+      <c r="A699" s="35"/>
+      <c r="G699" s="36"/>
+      <c r="I699" s="36"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="28"/>
-      <c r="G700" s="29"/>
-      <c r="I700" s="29"/>
+      <c r="A700" s="35"/>
+      <c r="G700" s="36"/>
+      <c r="I700" s="36"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="28"/>
-      <c r="G701" s="29"/>
-      <c r="I701" s="29"/>
+      <c r="A701" s="35"/>
+      <c r="G701" s="36"/>
+      <c r="I701" s="36"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="28"/>
-      <c r="G702" s="29"/>
-      <c r="I702" s="29"/>
+      <c r="A702" s="35"/>
+      <c r="G702" s="36"/>
+      <c r="I702" s="36"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="28"/>
-      <c r="G703" s="29"/>
-      <c r="I703" s="29"/>
+      <c r="A703" s="35"/>
+      <c r="G703" s="36"/>
+      <c r="I703" s="36"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="28"/>
-      <c r="G704" s="29"/>
-      <c r="I704" s="29"/>
+      <c r="A704" s="35"/>
+      <c r="G704" s="36"/>
+      <c r="I704" s="36"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="28"/>
-      <c r="G705" s="29"/>
-      <c r="I705" s="29"/>
+      <c r="A705" s="35"/>
+      <c r="G705" s="36"/>
+      <c r="I705" s="36"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="28"/>
-      <c r="G706" s="29"/>
-      <c r="I706" s="29"/>
+      <c r="A706" s="35"/>
+      <c r="G706" s="36"/>
+      <c r="I706" s="36"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="28"/>
-      <c r="G707" s="29"/>
-      <c r="I707" s="29"/>
+      <c r="A707" s="35"/>
+      <c r="G707" s="36"/>
+      <c r="I707" s="36"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="28"/>
-      <c r="G708" s="29"/>
-      <c r="I708" s="29"/>
+      <c r="A708" s="35"/>
+      <c r="G708" s="36"/>
+      <c r="I708" s="36"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="28"/>
-      <c r="G709" s="29"/>
-      <c r="I709" s="29"/>
+      <c r="A709" s="35"/>
+      <c r="G709" s="36"/>
+      <c r="I709" s="36"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="28"/>
-      <c r="G710" s="29"/>
-      <c r="I710" s="29"/>
+      <c r="A710" s="35"/>
+      <c r="G710" s="36"/>
+      <c r="I710" s="36"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="28"/>
-      <c r="G711" s="29"/>
-      <c r="I711" s="29"/>
+      <c r="A711" s="35"/>
+      <c r="G711" s="36"/>
+      <c r="I711" s="36"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="28"/>
-      <c r="G712" s="29"/>
-      <c r="I712" s="29"/>
+      <c r="A712" s="35"/>
+      <c r="G712" s="36"/>
+      <c r="I712" s="36"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="28"/>
-      <c r="G713" s="29"/>
-      <c r="I713" s="29"/>
+      <c r="A713" s="35"/>
+      <c r="G713" s="36"/>
+      <c r="I713" s="36"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="28"/>
-      <c r="G714" s="29"/>
-      <c r="I714" s="29"/>
+      <c r="A714" s="35"/>
+      <c r="G714" s="36"/>
+      <c r="I714" s="36"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="28"/>
-      <c r="G715" s="29"/>
-      <c r="I715" s="29"/>
+      <c r="A715" s="35"/>
+      <c r="G715" s="36"/>
+      <c r="I715" s="36"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="28"/>
-      <c r="G716" s="29"/>
-      <c r="I716" s="29"/>
+      <c r="A716" s="35"/>
+      <c r="G716" s="36"/>
+      <c r="I716" s="36"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="28"/>
-      <c r="G717" s="29"/>
-      <c r="I717" s="29"/>
+      <c r="A717" s="35"/>
+      <c r="G717" s="36"/>
+      <c r="I717" s="36"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="28"/>
-      <c r="G718" s="29"/>
-      <c r="I718" s="29"/>
+      <c r="A718" s="35"/>
+      <c r="G718" s="36"/>
+      <c r="I718" s="36"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="28"/>
-      <c r="G719" s="29"/>
-      <c r="I719" s="29"/>
+      <c r="A719" s="35"/>
+      <c r="G719" s="36"/>
+      <c r="I719" s="36"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="28"/>
-      <c r="G720" s="29"/>
-      <c r="I720" s="29"/>
+      <c r="A720" s="35"/>
+      <c r="G720" s="36"/>
+      <c r="I720" s="36"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="28"/>
-      <c r="G721" s="29"/>
-      <c r="I721" s="29"/>
+      <c r="A721" s="35"/>
+      <c r="G721" s="36"/>
+      <c r="I721" s="36"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="28"/>
-      <c r="G722" s="29"/>
-      <c r="I722" s="29"/>
+      <c r="A722" s="35"/>
+      <c r="G722" s="36"/>
+      <c r="I722" s="36"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="28"/>
-      <c r="G723" s="29"/>
-      <c r="I723" s="29"/>
+      <c r="A723" s="35"/>
+      <c r="G723" s="36"/>
+      <c r="I723" s="36"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="28"/>
-      <c r="G724" s="29"/>
-      <c r="I724" s="29"/>
+      <c r="A724" s="35"/>
+      <c r="G724" s="36"/>
+      <c r="I724" s="36"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="28"/>
-      <c r="G725" s="29"/>
-      <c r="I725" s="29"/>
+      <c r="A725" s="35"/>
+      <c r="G725" s="36"/>
+      <c r="I725" s="36"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="28"/>
-      <c r="G726" s="29"/>
-      <c r="I726" s="29"/>
+      <c r="A726" s="35"/>
+      <c r="G726" s="36"/>
+      <c r="I726" s="36"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="28"/>
-      <c r="G727" s="29"/>
-      <c r="I727" s="29"/>
+      <c r="A727" s="35"/>
+      <c r="G727" s="36"/>
+      <c r="I727" s="36"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="28"/>
-      <c r="G728" s="29"/>
-      <c r="I728" s="29"/>
+      <c r="A728" s="35"/>
+      <c r="G728" s="36"/>
+      <c r="I728" s="36"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="28"/>
-      <c r="G729" s="29"/>
-      <c r="I729" s="29"/>
+      <c r="A729" s="35"/>
+      <c r="G729" s="36"/>
+      <c r="I729" s="36"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="28"/>
-      <c r="G730" s="29"/>
-      <c r="I730" s="29"/>
+      <c r="A730" s="35"/>
+      <c r="G730" s="36"/>
+      <c r="I730" s="36"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="28"/>
-      <c r="G731" s="29"/>
-      <c r="I731" s="29"/>
+      <c r="A731" s="35"/>
+      <c r="G731" s="36"/>
+      <c r="I731" s="36"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="28"/>
-      <c r="G732" s="29"/>
-      <c r="I732" s="29"/>
+      <c r="A732" s="35"/>
+      <c r="G732" s="36"/>
+      <c r="I732" s="36"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="28"/>
-      <c r="G733" s="29"/>
-      <c r="I733" s="29"/>
+      <c r="A733" s="35"/>
+      <c r="G733" s="36"/>
+      <c r="I733" s="36"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="28"/>
-      <c r="G734" s="29"/>
-      <c r="I734" s="29"/>
+      <c r="A734" s="35"/>
+      <c r="G734" s="36"/>
+      <c r="I734" s="36"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="28"/>
-      <c r="G735" s="29"/>
-      <c r="I735" s="29"/>
+      <c r="A735" s="35"/>
+      <c r="G735" s="36"/>
+      <c r="I735" s="36"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="28"/>
-      <c r="G736" s="29"/>
-      <c r="I736" s="29"/>
+      <c r="A736" s="35"/>
+      <c r="G736" s="36"/>
+      <c r="I736" s="36"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="28"/>
-      <c r="G737" s="29"/>
-      <c r="I737" s="29"/>
+      <c r="A737" s="35"/>
+      <c r="G737" s="36"/>
+      <c r="I737" s="36"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="28"/>
-      <c r="G738" s="29"/>
-      <c r="I738" s="29"/>
+      <c r="A738" s="35"/>
+      <c r="G738" s="36"/>
+      <c r="I738" s="36"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="28"/>
-      <c r="G739" s="29"/>
-      <c r="I739" s="29"/>
+      <c r="A739" s="35"/>
+      <c r="G739" s="36"/>
+      <c r="I739" s="36"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="28"/>
-      <c r="G740" s="29"/>
-      <c r="I740" s="29"/>
+      <c r="A740" s="35"/>
+      <c r="G740" s="36"/>
+      <c r="I740" s="36"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="28"/>
-      <c r="G741" s="29"/>
-      <c r="I741" s="29"/>
+      <c r="A741" s="35"/>
+      <c r="G741" s="36"/>
+      <c r="I741" s="36"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="28"/>
-      <c r="G742" s="29"/>
-      <c r="I742" s="29"/>
+      <c r="A742" s="35"/>
+      <c r="G742" s="36"/>
+      <c r="I742" s="36"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="28"/>
-      <c r="G743" s="29"/>
-      <c r="I743" s="29"/>
+      <c r="A743" s="35"/>
+      <c r="G743" s="36"/>
+      <c r="I743" s="36"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="28"/>
-      <c r="G744" s="29"/>
-      <c r="I744" s="29"/>
+      <c r="A744" s="35"/>
+      <c r="G744" s="36"/>
+      <c r="I744" s="36"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="28"/>
-      <c r="G745" s="29"/>
-      <c r="I745" s="29"/>
+      <c r="A745" s="35"/>
+      <c r="G745" s="36"/>
+      <c r="I745" s="36"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="28"/>
-      <c r="G746" s="29"/>
-      <c r="I746" s="29"/>
+      <c r="A746" s="35"/>
+      <c r="G746" s="36"/>
+      <c r="I746" s="36"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="28"/>
-      <c r="G747" s="29"/>
-      <c r="I747" s="29"/>
+      <c r="A747" s="35"/>
+      <c r="G747" s="36"/>
+      <c r="I747" s="36"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="28"/>
-      <c r="G748" s="29"/>
-      <c r="I748" s="29"/>
+      <c r="A748" s="35"/>
+      <c r="G748" s="36"/>
+      <c r="I748" s="36"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="28"/>
-      <c r="G749" s="29"/>
-      <c r="I749" s="29"/>
+      <c r="A749" s="35"/>
+      <c r="G749" s="36"/>
+      <c r="I749" s="36"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="28"/>
-      <c r="G750" s="29"/>
-      <c r="I750" s="29"/>
+      <c r="A750" s="35"/>
+      <c r="G750" s="36"/>
+      <c r="I750" s="36"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="28"/>
-      <c r="G751" s="29"/>
-      <c r="I751" s="29"/>
+      <c r="A751" s="35"/>
+      <c r="G751" s="36"/>
+      <c r="I751" s="36"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="28"/>
-      <c r="G752" s="29"/>
-      <c r="I752" s="29"/>
+      <c r="A752" s="35"/>
+      <c r="G752" s="36"/>
+      <c r="I752" s="36"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="28"/>
-      <c r="G753" s="29"/>
-      <c r="I753" s="29"/>
+      <c r="A753" s="35"/>
+      <c r="G753" s="36"/>
+      <c r="I753" s="36"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="28"/>
-      <c r="G754" s="29"/>
-      <c r="I754" s="29"/>
+      <c r="A754" s="35"/>
+      <c r="G754" s="36"/>
+      <c r="I754" s="36"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="28"/>
-      <c r="G755" s="29"/>
-      <c r="I755" s="29"/>
+      <c r="A755" s="35"/>
+      <c r="G755" s="36"/>
+      <c r="I755" s="36"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="28"/>
-      <c r="G756" s="29"/>
-      <c r="I756" s="29"/>
+      <c r="A756" s="35"/>
+      <c r="G756" s="36"/>
+      <c r="I756" s="36"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="28"/>
-      <c r="G757" s="29"/>
-      <c r="I757" s="29"/>
+      <c r="A757" s="35"/>
+      <c r="G757" s="36"/>
+      <c r="I757" s="36"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="28"/>
-      <c r="G758" s="29"/>
-      <c r="I758" s="29"/>
+      <c r="A758" s="35"/>
+      <c r="G758" s="36"/>
+      <c r="I758" s="36"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="28"/>
-      <c r="G759" s="29"/>
-      <c r="I759" s="29"/>
+      <c r="A759" s="35"/>
+      <c r="G759" s="36"/>
+      <c r="I759" s="36"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="28"/>
-      <c r="G760" s="29"/>
-      <c r="I760" s="29"/>
+      <c r="A760" s="35"/>
+      <c r="G760" s="36"/>
+      <c r="I760" s="36"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="28"/>
-      <c r="G761" s="29"/>
-      <c r="I761" s="29"/>
+      <c r="A761" s="35"/>
+      <c r="G761" s="36"/>
+      <c r="I761" s="36"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="28"/>
-      <c r="G762" s="29"/>
-      <c r="I762" s="29"/>
+      <c r="A762" s="35"/>
+      <c r="G762" s="36"/>
+      <c r="I762" s="36"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="28"/>
-      <c r="G763" s="29"/>
-      <c r="I763" s="29"/>
+      <c r="A763" s="35"/>
+      <c r="G763" s="36"/>
+      <c r="I763" s="36"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="28"/>
-      <c r="G764" s="29"/>
-      <c r="I764" s="29"/>
+      <c r="A764" s="35"/>
+      <c r="G764" s="36"/>
+      <c r="I764" s="36"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="28"/>
-      <c r="G765" s="29"/>
-      <c r="I765" s="29"/>
+      <c r="A765" s="35"/>
+      <c r="G765" s="36"/>
+      <c r="I765" s="36"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="28"/>
-      <c r="G766" s="29"/>
-      <c r="I766" s="29"/>
+      <c r="A766" s="35"/>
+      <c r="G766" s="36"/>
+      <c r="I766" s="36"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="28"/>
-      <c r="G767" s="29"/>
-      <c r="I767" s="29"/>
+      <c r="A767" s="35"/>
+      <c r="G767" s="36"/>
+      <c r="I767" s="36"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="28"/>
-      <c r="G768" s="29"/>
-      <c r="I768" s="29"/>
+      <c r="A768" s="35"/>
+      <c r="G768" s="36"/>
+      <c r="I768" s="36"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="28"/>
-      <c r="G769" s="29"/>
-      <c r="I769" s="29"/>
+      <c r="A769" s="35"/>
+      <c r="G769" s="36"/>
+      <c r="I769" s="36"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="28"/>
-      <c r="G770" s="29"/>
-      <c r="I770" s="29"/>
+      <c r="A770" s="35"/>
+      <c r="G770" s="36"/>
+      <c r="I770" s="36"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="28"/>
-      <c r="G771" s="29"/>
-      <c r="I771" s="29"/>
+      <c r="A771" s="35"/>
+      <c r="G771" s="36"/>
+      <c r="I771" s="36"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="28"/>
-      <c r="G772" s="29"/>
-      <c r="I772" s="29"/>
+      <c r="A772" s="35"/>
+      <c r="G772" s="36"/>
+      <c r="I772" s="36"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="28"/>
-      <c r="G773" s="29"/>
-      <c r="I773" s="29"/>
+      <c r="A773" s="35"/>
+      <c r="G773" s="36"/>
+      <c r="I773" s="36"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="28"/>
-      <c r="G774" s="29"/>
-      <c r="I774" s="29"/>
+      <c r="A774" s="35"/>
+      <c r="G774" s="36"/>
+      <c r="I774" s="36"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="28"/>
-      <c r="G775" s="29"/>
-      <c r="I775" s="29"/>
+      <c r="A775" s="35"/>
+      <c r="G775" s="36"/>
+      <c r="I775" s="36"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="28"/>
-      <c r="G776" s="29"/>
-      <c r="I776" s="29"/>
+      <c r="A776" s="35"/>
+      <c r="G776" s="36"/>
+      <c r="I776" s="36"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="28"/>
-      <c r="G777" s="29"/>
-      <c r="I777" s="29"/>
+      <c r="A777" s="35"/>
+      <c r="G777" s="36"/>
+      <c r="I777" s="36"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="28"/>
-      <c r="G778" s="29"/>
-      <c r="I778" s="29"/>
+      <c r="A778" s="35"/>
+      <c r="G778" s="36"/>
+      <c r="I778" s="36"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="28"/>
-      <c r="G779" s="29"/>
-      <c r="I779" s="29"/>
+      <c r="A779" s="35"/>
+      <c r="G779" s="36"/>
+      <c r="I779" s="36"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="28"/>
-      <c r="G780" s="29"/>
-      <c r="I780" s="29"/>
+      <c r="A780" s="35"/>
+      <c r="G780" s="36"/>
+      <c r="I780" s="36"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="28"/>
-      <c r="G781" s="29"/>
-      <c r="I781" s="29"/>
+      <c r="A781" s="35"/>
+      <c r="G781" s="36"/>
+      <c r="I781" s="36"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="28"/>
-      <c r="G782" s="29"/>
-      <c r="I782" s="29"/>
+      <c r="A782" s="35"/>
+      <c r="G782" s="36"/>
+      <c r="I782" s="36"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="28"/>
-      <c r="G783" s="29"/>
-      <c r="I783" s="29"/>
+      <c r="A783" s="35"/>
+      <c r="G783" s="36"/>
+      <c r="I783" s="36"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="28"/>
-      <c r="G784" s="29"/>
-      <c r="I784" s="29"/>
+      <c r="A784" s="35"/>
+      <c r="G784" s="36"/>
+      <c r="I784" s="36"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="28"/>
-      <c r="G785" s="29"/>
-      <c r="I785" s="29"/>
+      <c r="A785" s="35"/>
+      <c r="G785" s="36"/>
+      <c r="I785" s="36"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="28"/>
-      <c r="G786" s="29"/>
-      <c r="I786" s="29"/>
+      <c r="A786" s="35"/>
+      <c r="G786" s="36"/>
+      <c r="I786" s="36"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="28"/>
-      <c r="G787" s="29"/>
-      <c r="I787" s="29"/>
+      <c r="A787" s="35"/>
+      <c r="G787" s="36"/>
+      <c r="I787" s="36"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="28"/>
-      <c r="G788" s="29"/>
-      <c r="I788" s="29"/>
+      <c r="A788" s="35"/>
+      <c r="G788" s="36"/>
+      <c r="I788" s="36"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="28"/>
-      <c r="G789" s="29"/>
-      <c r="I789" s="29"/>
+      <c r="A789" s="35"/>
+      <c r="G789" s="36"/>
+      <c r="I789" s="36"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="28"/>
-      <c r="G790" s="29"/>
-      <c r="I790" s="29"/>
+      <c r="A790" s="35"/>
+      <c r="G790" s="36"/>
+      <c r="I790" s="36"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="28"/>
-      <c r="G791" s="29"/>
-      <c r="I791" s="29"/>
+      <c r="A791" s="35"/>
+      <c r="G791" s="36"/>
+      <c r="I791" s="36"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="28"/>
-      <c r="G792" s="29"/>
-      <c r="I792" s="29"/>
+      <c r="A792" s="35"/>
+      <c r="G792" s="36"/>
+      <c r="I792" s="36"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="28"/>
-      <c r="G793" s="29"/>
-      <c r="I793" s="29"/>
+      <c r="A793" s="35"/>
+      <c r="G793" s="36"/>
+      <c r="I793" s="36"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="28"/>
-      <c r="G794" s="29"/>
-      <c r="I794" s="29"/>
+      <c r="A794" s="35"/>
+      <c r="G794" s="36"/>
+      <c r="I794" s="36"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="28"/>
-      <c r="G795" s="29"/>
-      <c r="I795" s="29"/>
+      <c r="A795" s="35"/>
+      <c r="G795" s="36"/>
+      <c r="I795" s="36"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="28"/>
-      <c r="G796" s="29"/>
-      <c r="I796" s="29"/>
+      <c r="A796" s="35"/>
+      <c r="G796" s="36"/>
+      <c r="I796" s="36"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="28"/>
-      <c r="G797" s="29"/>
-      <c r="I797" s="29"/>
+      <c r="A797" s="35"/>
+      <c r="G797" s="36"/>
+      <c r="I797" s="36"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="28"/>
-      <c r="G798" s="29"/>
-      <c r="I798" s="29"/>
+      <c r="A798" s="35"/>
+      <c r="G798" s="36"/>
+      <c r="I798" s="36"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="28"/>
-      <c r="G799" s="29"/>
-      <c r="I799" s="29"/>
+      <c r="A799" s="35"/>
+      <c r="G799" s="36"/>
+      <c r="I799" s="36"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="28"/>
-      <c r="G800" s="29"/>
-      <c r="I800" s="29"/>
+      <c r="A800" s="35"/>
+      <c r="G800" s="36"/>
+      <c r="I800" s="36"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="28"/>
-      <c r="G801" s="29"/>
-      <c r="I801" s="29"/>
+      <c r="A801" s="35"/>
+      <c r="G801" s="36"/>
+      <c r="I801" s="36"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="28"/>
-      <c r="G802" s="29"/>
-      <c r="I802" s="29"/>
+      <c r="A802" s="35"/>
+      <c r="G802" s="36"/>
+      <c r="I802" s="36"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="28"/>
-      <c r="G803" s="29"/>
-      <c r="I803" s="29"/>
+      <c r="A803" s="35"/>
+      <c r="G803" s="36"/>
+      <c r="I803" s="36"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="28"/>
-      <c r="G804" s="29"/>
-      <c r="I804" s="29"/>
+      <c r="A804" s="35"/>
+      <c r="G804" s="36"/>
+      <c r="I804" s="36"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="28"/>
-      <c r="G805" s="29"/>
-      <c r="I805" s="29"/>
+      <c r="A805" s="35"/>
+      <c r="G805" s="36"/>
+      <c r="I805" s="36"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="28"/>
-      <c r="G806" s="29"/>
-      <c r="I806" s="29"/>
+      <c r="A806" s="35"/>
+      <c r="G806" s="36"/>
+      <c r="I806" s="36"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="28"/>
-      <c r="G807" s="29"/>
-      <c r="I807" s="29"/>
+      <c r="A807" s="35"/>
+      <c r="G807" s="36"/>
+      <c r="I807" s="36"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="28"/>
-      <c r="G808" s="29"/>
-      <c r="I808" s="29"/>
+      <c r="A808" s="35"/>
+      <c r="G808" s="36"/>
+      <c r="I808" s="36"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="28"/>
-      <c r="G809" s="29"/>
-      <c r="I809" s="29"/>
+      <c r="A809" s="35"/>
+      <c r="G809" s="36"/>
+      <c r="I809" s="36"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="28"/>
-      <c r="G810" s="29"/>
-      <c r="I810" s="29"/>
+      <c r="A810" s="35"/>
+      <c r="G810" s="36"/>
+      <c r="I810" s="36"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="28"/>
-      <c r="G811" s="29"/>
-      <c r="I811" s="29"/>
+      <c r="A811" s="35"/>
+      <c r="G811" s="36"/>
+      <c r="I811" s="36"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="28"/>
-      <c r="G812" s="29"/>
-      <c r="I812" s="29"/>
+      <c r="A812" s="35"/>
+      <c r="G812" s="36"/>
+      <c r="I812" s="36"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="28"/>
-      <c r="G813" s="29"/>
-      <c r="I813" s="29"/>
+      <c r="A813" s="35"/>
+      <c r="G813" s="36"/>
+      <c r="I813" s="36"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="28"/>
-      <c r="G814" s="29"/>
-      <c r="I814" s="29"/>
+      <c r="A814" s="35"/>
+      <c r="G814" s="36"/>
+      <c r="I814" s="36"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="28"/>
-      <c r="G815" s="29"/>
-      <c r="I815" s="29"/>
+      <c r="A815" s="35"/>
+      <c r="G815" s="36"/>
+      <c r="I815" s="36"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="28"/>
-      <c r="G816" s="29"/>
-      <c r="I816" s="29"/>
+      <c r="A816" s="35"/>
+      <c r="G816" s="36"/>
+      <c r="I816" s="36"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="28"/>
-      <c r="G817" s="29"/>
-      <c r="I817" s="29"/>
+      <c r="A817" s="35"/>
+      <c r="G817" s="36"/>
+      <c r="I817" s="36"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="28"/>
-      <c r="G818" s="29"/>
-      <c r="I818" s="29"/>
+      <c r="A818" s="35"/>
+      <c r="G818" s="36"/>
+      <c r="I818" s="36"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="28"/>
-      <c r="G819" s="29"/>
-      <c r="I819" s="29"/>
+      <c r="A819" s="35"/>
+      <c r="G819" s="36"/>
+      <c r="I819" s="36"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="28"/>
-      <c r="G820" s="29"/>
-      <c r="I820" s="29"/>
+      <c r="A820" s="35"/>
+      <c r="G820" s="36"/>
+      <c r="I820" s="36"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="28"/>
-      <c r="G821" s="29"/>
-      <c r="I821" s="29"/>
+      <c r="A821" s="35"/>
+      <c r="G821" s="36"/>
+      <c r="I821" s="36"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="28"/>
-      <c r="G822" s="29"/>
-      <c r="I822" s="29"/>
+      <c r="A822" s="35"/>
+      <c r="G822" s="36"/>
+      <c r="I822" s="36"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="28"/>
-      <c r="G823" s="29"/>
-      <c r="I823" s="29"/>
+      <c r="A823" s="35"/>
+      <c r="G823" s="36"/>
+      <c r="I823" s="36"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="28"/>
-      <c r="G824" s="29"/>
-      <c r="I824" s="29"/>
+      <c r="A824" s="35"/>
+      <c r="G824" s="36"/>
+      <c r="I824" s="36"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="28"/>
-      <c r="G825" s="29"/>
-      <c r="I825" s="29"/>
+      <c r="A825" s="35"/>
+      <c r="G825" s="36"/>
+      <c r="I825" s="36"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="28"/>
-      <c r="G826" s="29"/>
-      <c r="I826" s="29"/>
+      <c r="A826" s="35"/>
+      <c r="G826" s="36"/>
+      <c r="I826" s="36"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="28"/>
-      <c r="G827" s="29"/>
-      <c r="I827" s="29"/>
+      <c r="A827" s="35"/>
+      <c r="G827" s="36"/>
+      <c r="I827" s="36"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="28"/>
-      <c r="G828" s="29"/>
-      <c r="I828" s="29"/>
+      <c r="A828" s="35"/>
+      <c r="G828" s="36"/>
+      <c r="I828" s="36"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="28"/>
-      <c r="G829" s="29"/>
-      <c r="I829" s="29"/>
+      <c r="A829" s="35"/>
+      <c r="G829" s="36"/>
+      <c r="I829" s="36"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="28"/>
-      <c r="G830" s="29"/>
-      <c r="I830" s="29"/>
+      <c r="A830" s="35"/>
+      <c r="G830" s="36"/>
+      <c r="I830" s="36"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="28"/>
-      <c r="G831" s="29"/>
-      <c r="I831" s="29"/>
+      <c r="A831" s="35"/>
+      <c r="G831" s="36"/>
+      <c r="I831" s="36"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="28"/>
-      <c r="G832" s="29"/>
-      <c r="I832" s="29"/>
+      <c r="A832" s="35"/>
+      <c r="G832" s="36"/>
+      <c r="I832" s="36"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="28"/>
-      <c r="G833" s="29"/>
-      <c r="I833" s="29"/>
+      <c r="A833" s="35"/>
+      <c r="G833" s="36"/>
+      <c r="I833" s="36"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="28"/>
-      <c r="G834" s="29"/>
-      <c r="I834" s="29"/>
+      <c r="A834" s="35"/>
+      <c r="G834" s="36"/>
+      <c r="I834" s="36"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="28"/>
-      <c r="G835" s="29"/>
-      <c r="I835" s="29"/>
+      <c r="A835" s="35"/>
+      <c r="G835" s="36"/>
+      <c r="I835" s="36"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="28"/>
-      <c r="G836" s="29"/>
-      <c r="I836" s="29"/>
+      <c r="A836" s="35"/>
+      <c r="G836" s="36"/>
+      <c r="I836" s="36"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="28"/>
-      <c r="G837" s="29"/>
-      <c r="I837" s="29"/>
+      <c r="A837" s="35"/>
+      <c r="G837" s="36"/>
+      <c r="I837" s="36"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="28"/>
-      <c r="G838" s="29"/>
-      <c r="I838" s="29"/>
+      <c r="A838" s="35"/>
+      <c r="G838" s="36"/>
+      <c r="I838" s="36"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="28"/>
-      <c r="G839" s="29"/>
-      <c r="I839" s="29"/>
+      <c r="A839" s="35"/>
+      <c r="G839" s="36"/>
+      <c r="I839" s="36"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="28"/>
-      <c r="G840" s="29"/>
-      <c r="I840" s="29"/>
+      <c r="A840" s="35"/>
+      <c r="G840" s="36"/>
+      <c r="I840" s="36"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="28"/>
-      <c r="G841" s="29"/>
-      <c r="I841" s="29"/>
+      <c r="A841" s="35"/>
+      <c r="G841" s="36"/>
+      <c r="I841" s="36"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="28"/>
-      <c r="G842" s="29"/>
-      <c r="I842" s="29"/>
+      <c r="A842" s="35"/>
+      <c r="G842" s="36"/>
+      <c r="I842" s="36"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="28"/>
-      <c r="G843" s="29"/>
-      <c r="I843" s="29"/>
+      <c r="A843" s="35"/>
+      <c r="G843" s="36"/>
+      <c r="I843" s="36"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="28"/>
-      <c r="G844" s="29"/>
-      <c r="I844" s="29"/>
+      <c r="A844" s="35"/>
+      <c r="G844" s="36"/>
+      <c r="I844" s="36"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="28"/>
-      <c r="G845" s="29"/>
-      <c r="I845" s="29"/>
+      <c r="A845" s="35"/>
+      <c r="G845" s="36"/>
+      <c r="I845" s="36"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="28"/>
-      <c r="G846" s="29"/>
-      <c r="I846" s="29"/>
+      <c r="A846" s="35"/>
+      <c r="G846" s="36"/>
+      <c r="I846" s="36"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="28"/>
-      <c r="G847" s="29"/>
-      <c r="I847" s="29"/>
+      <c r="A847" s="35"/>
+      <c r="G847" s="36"/>
+      <c r="I847" s="36"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="28"/>
-      <c r="G848" s="29"/>
-      <c r="I848" s="29"/>
+      <c r="A848" s="35"/>
+      <c r="G848" s="36"/>
+      <c r="I848" s="36"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="28"/>
-      <c r="G849" s="29"/>
-      <c r="I849" s="29"/>
+      <c r="A849" s="35"/>
+      <c r="G849" s="36"/>
+      <c r="I849" s="36"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="28"/>
-      <c r="G850" s="29"/>
-      <c r="I850" s="29"/>
+      <c r="A850" s="35"/>
+      <c r="G850" s="36"/>
+      <c r="I850" s="36"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="28"/>
-      <c r="G851" s="29"/>
-      <c r="I851" s="29"/>
+      <c r="A851" s="35"/>
+      <c r="G851" s="36"/>
+      <c r="I851" s="36"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="28"/>
-      <c r="G852" s="29"/>
-      <c r="I852" s="29"/>
+      <c r="A852" s="35"/>
+      <c r="G852" s="36"/>
+      <c r="I852" s="36"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="28"/>
-      <c r="G853" s="29"/>
-      <c r="I853" s="29"/>
+      <c r="A853" s="35"/>
+      <c r="G853" s="36"/>
+      <c r="I853" s="36"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="28"/>
-      <c r="G854" s="29"/>
-      <c r="I854" s="29"/>
+      <c r="A854" s="35"/>
+      <c r="G854" s="36"/>
+      <c r="I854" s="36"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="28"/>
-      <c r="G855" s="29"/>
-      <c r="I855" s="29"/>
+      <c r="A855" s="35"/>
+      <c r="G855" s="36"/>
+      <c r="I855" s="36"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="28"/>
-      <c r="G856" s="29"/>
-      <c r="I856" s="29"/>
+      <c r="A856" s="35"/>
+      <c r="G856" s="36"/>
+      <c r="I856" s="36"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="28"/>
-      <c r="G857" s="29"/>
-      <c r="I857" s="29"/>
+      <c r="A857" s="35"/>
+      <c r="G857" s="36"/>
+      <c r="I857" s="36"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="28"/>
-      <c r="G858" s="29"/>
-      <c r="I858" s="29"/>
+      <c r="A858" s="35"/>
+      <c r="G858" s="36"/>
+      <c r="I858" s="36"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="28"/>
-      <c r="G859" s="29"/>
-      <c r="I859" s="29"/>
+      <c r="A859" s="35"/>
+      <c r="G859" s="36"/>
+      <c r="I859" s="36"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="28"/>
-      <c r="G860" s="29"/>
-      <c r="I860" s="29"/>
+      <c r="A860" s="35"/>
+      <c r="G860" s="36"/>
+      <c r="I860" s="36"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="28"/>
-      <c r="G861" s="29"/>
-      <c r="I861" s="29"/>
+      <c r="A861" s="35"/>
+      <c r="G861" s="36"/>
+      <c r="I861" s="36"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="28"/>
-      <c r="G862" s="29"/>
-      <c r="I862" s="29"/>
+      <c r="A862" s="35"/>
+      <c r="G862" s="36"/>
+      <c r="I862" s="36"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="28"/>
-      <c r="G863" s="29"/>
-      <c r="I863" s="29"/>
+      <c r="A863" s="35"/>
+      <c r="G863" s="36"/>
+      <c r="I863" s="36"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="28"/>
-      <c r="G864" s="29"/>
-      <c r="I864" s="29"/>
+      <c r="A864" s="35"/>
+      <c r="G864" s="36"/>
+      <c r="I864" s="36"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="28"/>
-      <c r="G865" s="29"/>
-      <c r="I865" s="29"/>
+      <c r="A865" s="35"/>
+      <c r="G865" s="36"/>
+      <c r="I865" s="36"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="28"/>
-      <c r="G866" s="29"/>
-      <c r="I866" s="29"/>
+      <c r="A866" s="35"/>
+      <c r="G866" s="36"/>
+      <c r="I866" s="36"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="28"/>
-      <c r="G867" s="29"/>
-      <c r="I867" s="29"/>
+      <c r="A867" s="35"/>
+      <c r="G867" s="36"/>
+      <c r="I867" s="36"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="28"/>
-      <c r="G868" s="29"/>
-      <c r="I868" s="29"/>
+      <c r="A868" s="35"/>
+      <c r="G868" s="36"/>
+      <c r="I868" s="36"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="28"/>
-      <c r="G869" s="29"/>
-      <c r="I869" s="29"/>
+      <c r="A869" s="35"/>
+      <c r="G869" s="36"/>
+      <c r="I869" s="36"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="28"/>
-      <c r="G870" s="29"/>
-      <c r="I870" s="29"/>
+      <c r="A870" s="35"/>
+      <c r="G870" s="36"/>
+      <c r="I870" s="36"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="28"/>
-      <c r="G871" s="29"/>
-      <c r="I871" s="29"/>
+      <c r="A871" s="35"/>
+      <c r="G871" s="36"/>
+      <c r="I871" s="36"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="28"/>
-      <c r="G872" s="29"/>
-      <c r="I872" s="29"/>
+      <c r="A872" s="35"/>
+      <c r="G872" s="36"/>
+      <c r="I872" s="36"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="28"/>
-      <c r="G873" s="29"/>
-      <c r="I873" s="29"/>
+      <c r="A873" s="35"/>
+      <c r="G873" s="36"/>
+      <c r="I873" s="36"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="28"/>
-      <c r="G874" s="29"/>
-      <c r="I874" s="29"/>
+      <c r="A874" s="35"/>
+      <c r="G874" s="36"/>
+      <c r="I874" s="36"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="28"/>
-      <c r="G875" s="29"/>
-      <c r="I875" s="29"/>
+      <c r="A875" s="35"/>
+      <c r="G875" s="36"/>
+      <c r="I875" s="36"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="28"/>
-      <c r="G876" s="29"/>
-      <c r="I876" s="29"/>
+      <c r="A876" s="35"/>
+      <c r="G876" s="36"/>
+      <c r="I876" s="36"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="28"/>
-      <c r="G877" s="29"/>
-      <c r="I877" s="29"/>
+      <c r="A877" s="35"/>
+      <c r="G877" s="36"/>
+      <c r="I877" s="36"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="28"/>
-      <c r="G878" s="29"/>
-      <c r="I878" s="29"/>
+      <c r="A878" s="35"/>
+      <c r="G878" s="36"/>
+      <c r="I878" s="36"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="28"/>
-      <c r="G879" s="29"/>
-      <c r="I879" s="29"/>
+      <c r="A879" s="35"/>
+      <c r="G879" s="36"/>
+      <c r="I879" s="36"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="28"/>
-      <c r="G880" s="29"/>
-      <c r="I880" s="29"/>
+      <c r="A880" s="35"/>
+      <c r="G880" s="36"/>
+      <c r="I880" s="36"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="28"/>
-      <c r="G881" s="29"/>
-      <c r="I881" s="29"/>
+      <c r="A881" s="35"/>
+      <c r="G881" s="36"/>
+      <c r="I881" s="36"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="28"/>
-      <c r="G882" s="29"/>
-      <c r="I882" s="29"/>
+      <c r="A882" s="35"/>
+      <c r="G882" s="36"/>
+      <c r="I882" s="36"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="28"/>
-      <c r="G883" s="29"/>
-      <c r="I883" s="29"/>
+      <c r="A883" s="35"/>
+      <c r="G883" s="36"/>
+      <c r="I883" s="36"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="28"/>
-      <c r="G884" s="29"/>
-      <c r="I884" s="29"/>
+      <c r="A884" s="35"/>
+      <c r="G884" s="36"/>
+      <c r="I884" s="36"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="28"/>
-      <c r="G885" s="29"/>
-      <c r="I885" s="29"/>
+      <c r="A885" s="35"/>
+      <c r="G885" s="36"/>
+      <c r="I885" s="36"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="28"/>
-      <c r="G886" s="29"/>
-      <c r="I886" s="29"/>
+      <c r="A886" s="35"/>
+      <c r="G886" s="36"/>
+      <c r="I886" s="36"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="28"/>
-      <c r="G887" s="29"/>
-      <c r="I887" s="29"/>
+      <c r="A887" s="35"/>
+      <c r="G887" s="36"/>
+      <c r="I887" s="36"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="28"/>
-      <c r="G888" s="29"/>
-      <c r="I888" s="29"/>
+      <c r="A888" s="35"/>
+      <c r="G888" s="36"/>
+      <c r="I888" s="36"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="28"/>
-      <c r="G889" s="29"/>
-      <c r="I889" s="29"/>
+      <c r="A889" s="35"/>
+      <c r="G889" s="36"/>
+      <c r="I889" s="36"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="28"/>
-      <c r="G890" s="29"/>
-      <c r="I890" s="29"/>
+      <c r="A890" s="35"/>
+      <c r="G890" s="36"/>
+      <c r="I890" s="36"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="28"/>
-      <c r="G891" s="29"/>
-      <c r="I891" s="29"/>
+      <c r="A891" s="35"/>
+      <c r="G891" s="36"/>
+      <c r="I891" s="36"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="28"/>
-      <c r="G892" s="29"/>
-      <c r="I892" s="29"/>
+      <c r="A892" s="35"/>
+      <c r="G892" s="36"/>
+      <c r="I892" s="36"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="28"/>
-      <c r="G893" s="29"/>
-      <c r="I893" s="29"/>
+      <c r="A893" s="35"/>
+      <c r="G893" s="36"/>
+      <c r="I893" s="36"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="28"/>
-      <c r="G894" s="29"/>
-      <c r="I894" s="29"/>
+      <c r="A894" s="35"/>
+      <c r="G894" s="36"/>
+      <c r="I894" s="36"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="28"/>
-      <c r="G895" s="29"/>
-      <c r="I895" s="29"/>
+      <c r="A895" s="35"/>
+      <c r="G895" s="36"/>
+      <c r="I895" s="36"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="28"/>
-      <c r="G896" s="29"/>
-      <c r="I896" s="29"/>
+      <c r="A896" s="35"/>
+      <c r="G896" s="36"/>
+      <c r="I896" s="36"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="28"/>
-      <c r="G897" s="29"/>
-      <c r="I897" s="29"/>
+      <c r="A897" s="35"/>
+      <c r="G897" s="36"/>
+      <c r="I897" s="36"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="28"/>
-      <c r="G898" s="29"/>
-      <c r="I898" s="29"/>
+      <c r="A898" s="35"/>
+      <c r="G898" s="36"/>
+      <c r="I898" s="36"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="28"/>
-      <c r="G899" s="29"/>
-      <c r="I899" s="29"/>
+      <c r="A899" s="35"/>
+      <c r="G899" s="36"/>
+      <c r="I899" s="36"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="28"/>
-      <c r="G900" s="29"/>
-      <c r="I900" s="29"/>
+      <c r="A900" s="35"/>
+      <c r="G900" s="36"/>
+      <c r="I900" s="36"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="28"/>
-      <c r="G901" s="29"/>
-      <c r="I901" s="29"/>
+      <c r="A901" s="35"/>
+      <c r="G901" s="36"/>
+      <c r="I901" s="36"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="28"/>
-      <c r="G902" s="29"/>
-      <c r="I902" s="29"/>
+      <c r="A902" s="35"/>
+      <c r="G902" s="36"/>
+      <c r="I902" s="36"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="28"/>
-      <c r="G903" s="29"/>
-      <c r="I903" s="29"/>
+      <c r="A903" s="35"/>
+      <c r="G903" s="36"/>
+      <c r="I903" s="36"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="28"/>
-      <c r="G904" s="29"/>
-      <c r="I904" s="29"/>
+      <c r="A904" s="35"/>
+      <c r="G904" s="36"/>
+      <c r="I904" s="36"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="28"/>
-      <c r="G905" s="29"/>
-      <c r="I905" s="29"/>
+      <c r="A905" s="35"/>
+      <c r="G905" s="36"/>
+      <c r="I905" s="36"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="28"/>
-      <c r="G906" s="29"/>
-      <c r="I906" s="29"/>
+      <c r="A906" s="35"/>
+      <c r="G906" s="36"/>
+      <c r="I906" s="36"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="28"/>
-      <c r="G907" s="29"/>
-      <c r="I907" s="29"/>
+      <c r="A907" s="35"/>
+      <c r="G907" s="36"/>
+      <c r="I907" s="36"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="28"/>
-      <c r="G908" s="29"/>
-      <c r="I908" s="29"/>
+      <c r="A908" s="35"/>
+      <c r="G908" s="36"/>
+      <c r="I908" s="36"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="28"/>
-      <c r="G909" s="29"/>
-      <c r="I909" s="29"/>
+      <c r="A909" s="35"/>
+      <c r="G909" s="36"/>
+      <c r="I909" s="36"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="28"/>
-      <c r="G910" s="29"/>
-      <c r="I910" s="29"/>
+      <c r="A910" s="35"/>
+      <c r="G910" s="36"/>
+      <c r="I910" s="36"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="28"/>
-      <c r="G911" s="29"/>
-      <c r="I911" s="29"/>
+      <c r="A911" s="35"/>
+      <c r="G911" s="36"/>
+      <c r="I911" s="36"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="28"/>
-      <c r="G912" s="29"/>
-      <c r="I912" s="29"/>
+      <c r="A912" s="35"/>
+      <c r="G912" s="36"/>
+      <c r="I912" s="36"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="28"/>
-      <c r="G913" s="29"/>
-      <c r="I913" s="29"/>
+      <c r="A913" s="35"/>
+      <c r="G913" s="36"/>
+      <c r="I913" s="36"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="28"/>
-      <c r="G914" s="29"/>
-      <c r="I914" s="29"/>
+      <c r="A914" s="35"/>
+      <c r="G914" s="36"/>
+      <c r="I914" s="36"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="28"/>
-      <c r="G915" s="29"/>
-      <c r="I915" s="29"/>
+      <c r="A915" s="35"/>
+      <c r="G915" s="36"/>
+      <c r="I915" s="36"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="28"/>
-      <c r="G916" s="29"/>
-      <c r="I916" s="29"/>
+      <c r="A916" s="35"/>
+      <c r="G916" s="36"/>
+      <c r="I916" s="36"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="28"/>
-      <c r="G917" s="29"/>
-      <c r="I917" s="29"/>
+      <c r="A917" s="35"/>
+      <c r="G917" s="36"/>
+      <c r="I917" s="36"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="28"/>
-      <c r="G918" s="29"/>
-      <c r="I918" s="29"/>
+      <c r="A918" s="35"/>
+      <c r="G918" s="36"/>
+      <c r="I918" s="36"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="28"/>
-      <c r="G919" s="29"/>
-      <c r="I919" s="29"/>
+      <c r="A919" s="35"/>
+      <c r="G919" s="36"/>
+      <c r="I919" s="36"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="28"/>
-      <c r="G920" s="29"/>
-      <c r="I920" s="29"/>
+      <c r="A920" s="35"/>
+      <c r="G920" s="36"/>
+      <c r="I920" s="36"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="28"/>
-      <c r="G921" s="29"/>
-      <c r="I921" s="29"/>
+      <c r="A921" s="35"/>
+      <c r="G921" s="36"/>
+      <c r="I921" s="36"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="28"/>
-      <c r="G922" s="29"/>
-      <c r="I922" s="29"/>
+      <c r="A922" s="35"/>
+      <c r="G922" s="36"/>
+      <c r="I922" s="36"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="28"/>
-      <c r="G923" s="29"/>
-      <c r="I923" s="29"/>
+      <c r="A923" s="35"/>
+      <c r="G923" s="36"/>
+      <c r="I923" s="36"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="28"/>
-      <c r="G924" s="29"/>
-      <c r="I924" s="29"/>
+      <c r="A924" s="35"/>
+      <c r="G924" s="36"/>
+      <c r="I924" s="36"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="28"/>
-      <c r="G925" s="29"/>
-      <c r="I925" s="29"/>
+      <c r="A925" s="35"/>
+      <c r="G925" s="36"/>
+      <c r="I925" s="36"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="28"/>
-      <c r="G926" s="29"/>
-      <c r="I926" s="29"/>
+      <c r="A926" s="35"/>
+      <c r="G926" s="36"/>
+      <c r="I926" s="36"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="28"/>
-      <c r="G927" s="29"/>
-      <c r="I927" s="29"/>
+      <c r="A927" s="35"/>
+      <c r="G927" s="36"/>
+      <c r="I927" s="36"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="28"/>
-      <c r="G928" s="29"/>
-      <c r="I928" s="29"/>
+      <c r="A928" s="35"/>
+      <c r="G928" s="36"/>
+      <c r="I928" s="36"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="28"/>
-      <c r="G929" s="29"/>
-      <c r="I929" s="29"/>
+      <c r="A929" s="35"/>
+      <c r="G929" s="36"/>
+      <c r="I929" s="36"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="28"/>
-      <c r="G930" s="29"/>
-      <c r="I930" s="29"/>
+      <c r="A930" s="35"/>
+      <c r="G930" s="36"/>
+      <c r="I930" s="36"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="28"/>
-      <c r="G931" s="29"/>
-      <c r="I931" s="29"/>
+      <c r="A931" s="35"/>
+      <c r="G931" s="36"/>
+      <c r="I931" s="36"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="28"/>
-      <c r="G932" s="29"/>
-      <c r="I932" s="29"/>
+      <c r="A932" s="35"/>
+      <c r="G932" s="36"/>
+      <c r="I932" s="36"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="28"/>
-      <c r="G933" s="29"/>
-      <c r="I933" s="29"/>
+      <c r="A933" s="35"/>
+      <c r="G933" s="36"/>
+      <c r="I933" s="36"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="28"/>
-      <c r="G934" s="29"/>
-      <c r="I934" s="29"/>
+      <c r="A934" s="35"/>
+      <c r="G934" s="36"/>
+      <c r="I934" s="36"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="28"/>
-      <c r="G935" s="29"/>
-      <c r="I935" s="29"/>
+      <c r="A935" s="35"/>
+      <c r="G935" s="36"/>
+      <c r="I935" s="36"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="28"/>
-      <c r="G936" s="29"/>
-      <c r="I936" s="29"/>
+      <c r="A936" s="35"/>
+      <c r="G936" s="36"/>
+      <c r="I936" s="36"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="28"/>
-      <c r="G937" s="29"/>
-      <c r="I937" s="29"/>
+      <c r="A937" s="35"/>
+      <c r="G937" s="36"/>
+      <c r="I937" s="36"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="28"/>
-      <c r="G938" s="29"/>
-      <c r="I938" s="29"/>
+      <c r="A938" s="35"/>
+      <c r="G938" s="36"/>
+      <c r="I938" s="36"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="28"/>
-      <c r="G939" s="29"/>
-      <c r="I939" s="29"/>
+      <c r="A939" s="35"/>
+      <c r="G939" s="36"/>
+      <c r="I939" s="36"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="28"/>
-      <c r="G940" s="29"/>
-      <c r="I940" s="29"/>
+      <c r="A940" s="35"/>
+      <c r="G940" s="36"/>
+      <c r="I940" s="36"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="28"/>
-      <c r="G941" s="29"/>
-      <c r="I941" s="29"/>
+      <c r="A941" s="35"/>
+      <c r="G941" s="36"/>
+      <c r="I941" s="36"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="28"/>
-      <c r="G942" s="29"/>
-      <c r="I942" s="29"/>
+      <c r="A942" s="35"/>
+      <c r="G942" s="36"/>
+      <c r="I942" s="36"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="28"/>
-      <c r="G943" s="29"/>
-      <c r="I943" s="29"/>
+      <c r="A943" s="35"/>
+      <c r="G943" s="36"/>
+      <c r="I943" s="36"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="28"/>
-      <c r="G944" s="29"/>
-      <c r="I944" s="29"/>
+      <c r="A944" s="35"/>
+      <c r="G944" s="36"/>
+      <c r="I944" s="36"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="28"/>
-      <c r="G945" s="29"/>
-      <c r="I945" s="29"/>
+      <c r="A945" s="35"/>
+      <c r="G945" s="36"/>
+      <c r="I945" s="36"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="28"/>
-      <c r="G946" s="29"/>
-      <c r="I946" s="29"/>
+      <c r="A946" s="35"/>
+      <c r="G946" s="36"/>
+      <c r="I946" s="36"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="28"/>
-      <c r="G947" s="29"/>
-      <c r="I947" s="29"/>
+      <c r="A947" s="35"/>
+      <c r="G947" s="36"/>
+      <c r="I947" s="36"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="28"/>
-      <c r="G948" s="29"/>
-      <c r="I948" s="29"/>
+      <c r="A948" s="35"/>
+      <c r="G948" s="36"/>
+      <c r="I948" s="36"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="28"/>
-      <c r="G949" s="29"/>
-      <c r="I949" s="29"/>
+      <c r="A949" s="35"/>
+      <c r="G949" s="36"/>
+      <c r="I949" s="36"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="28"/>
-      <c r="G950" s="29"/>
-      <c r="I950" s="29"/>
+      <c r="A950" s="35"/>
+      <c r="G950" s="36"/>
+      <c r="I950" s="36"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="28"/>
-      <c r="G951" s="29"/>
-      <c r="I951" s="29"/>
+      <c r="A951" s="35"/>
+      <c r="G951" s="36"/>
+      <c r="I951" s="36"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="28"/>
-      <c r="G952" s="29"/>
-      <c r="I952" s="29"/>
+      <c r="A952" s="35"/>
+      <c r="G952" s="36"/>
+      <c r="I952" s="36"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="28"/>
-      <c r="G953" s="29"/>
-      <c r="I953" s="29"/>
+      <c r="A953" s="35"/>
+      <c r="G953" s="36"/>
+      <c r="I953" s="36"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="28"/>
-      <c r="G954" s="29"/>
-      <c r="I954" s="29"/>
+      <c r="A954" s="35"/>
+      <c r="G954" s="36"/>
+      <c r="I954" s="36"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="28"/>
-      <c r="G955" s="29"/>
-      <c r="I955" s="29"/>
+      <c r="A955" s="35"/>
+      <c r="G955" s="36"/>
+      <c r="I955" s="36"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="28"/>
-      <c r="G956" s="29"/>
-      <c r="I956" s="29"/>
+      <c r="A956" s="35"/>
+      <c r="G956" s="36"/>
+      <c r="I956" s="36"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="28"/>
-      <c r="G957" s="29"/>
-      <c r="I957" s="29"/>
+      <c r="A957" s="35"/>
+      <c r="G957" s="36"/>
+      <c r="I957" s="36"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="28"/>
-      <c r="G958" s="29"/>
-      <c r="I958" s="29"/>
+      <c r="A958" s="35"/>
+      <c r="G958" s="36"/>
+      <c r="I958" s="36"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="28"/>
-      <c r="G959" s="29"/>
-      <c r="I959" s="29"/>
+      <c r="A959" s="35"/>
+      <c r="G959" s="36"/>
+      <c r="I959" s="36"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="28"/>
-      <c r="G960" s="29"/>
-      <c r="I960" s="29"/>
+      <c r="A960" s="35"/>
+      <c r="G960" s="36"/>
+      <c r="I960" s="36"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="28"/>
-      <c r="G961" s="29"/>
-      <c r="I961" s="29"/>
+      <c r="A961" s="35"/>
+      <c r="G961" s="36"/>
+      <c r="I961" s="36"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="28"/>
-      <c r="G962" s="29"/>
-      <c r="I962" s="29"/>
+      <c r="A962" s="35"/>
+      <c r="G962" s="36"/>
+      <c r="I962" s="36"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="28"/>
-      <c r="G963" s="29"/>
-      <c r="I963" s="29"/>
+      <c r="A963" s="35"/>
+      <c r="G963" s="36"/>
+      <c r="I963" s="36"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="28"/>
-      <c r="G964" s="29"/>
-      <c r="I964" s="29"/>
+      <c r="A964" s="35"/>
+      <c r="G964" s="36"/>
+      <c r="I964" s="36"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="28"/>
-      <c r="G965" s="29"/>
-      <c r="I965" s="29"/>
+      <c r="A965" s="35"/>
+      <c r="G965" s="36"/>
+      <c r="I965" s="36"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="28"/>
-      <c r="G966" s="29"/>
-      <c r="I966" s="29"/>
+      <c r="A966" s="35"/>
+      <c r="G966" s="36"/>
+      <c r="I966" s="36"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="28"/>
-      <c r="G967" s="29"/>
-      <c r="I967" s="29"/>
+      <c r="A967" s="35"/>
+      <c r="G967" s="36"/>
+      <c r="I967" s="36"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="28"/>
-      <c r="G968" s="29"/>
-      <c r="I968" s="29"/>
+      <c r="A968" s="35"/>
+      <c r="G968" s="36"/>
+      <c r="I968" s="36"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="28"/>
-      <c r="G969" s="29"/>
-      <c r="I969" s="29"/>
+      <c r="A969" s="35"/>
+      <c r="G969" s="36"/>
+      <c r="I969" s="36"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="28"/>
-      <c r="G970" s="29"/>
-      <c r="I970" s="29"/>
+      <c r="A970" s="35"/>
+      <c r="G970" s="36"/>
+      <c r="I970" s="36"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="28"/>
-      <c r="G971" s="29"/>
-      <c r="I971" s="29"/>
+      <c r="A971" s="35"/>
+      <c r="G971" s="36"/>
+      <c r="I971" s="36"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="28"/>
-      <c r="G972" s="29"/>
-      <c r="I972" s="29"/>
+      <c r="A972" s="35"/>
+      <c r="G972" s="36"/>
+      <c r="I972" s="36"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="28"/>
-      <c r="G973" s="29"/>
-      <c r="I973" s="29"/>
+      <c r="A973" s="35"/>
+      <c r="G973" s="36"/>
+      <c r="I973" s="36"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="28"/>
-      <c r="G974" s="29"/>
-      <c r="I974" s="29"/>
+      <c r="A974" s="35"/>
+      <c r="G974" s="36"/>
+      <c r="I974" s="36"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="28"/>
-      <c r="G975" s="29"/>
-      <c r="I975" s="29"/>
+      <c r="A975" s="35"/>
+      <c r="G975" s="36"/>
+      <c r="I975" s="36"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="28"/>
-      <c r="G976" s="29"/>
-      <c r="I976" s="29"/>
+      <c r="A976" s="35"/>
+      <c r="G976" s="36"/>
+      <c r="I976" s="36"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="28"/>
-      <c r="G977" s="29"/>
-      <c r="I977" s="29"/>
+      <c r="A977" s="35"/>
+      <c r="G977" s="36"/>
+      <c r="I977" s="36"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="28"/>
-      <c r="G978" s="29"/>
-      <c r="I978" s="29"/>
+      <c r="A978" s="35"/>
+      <c r="G978" s="36"/>
+      <c r="I978" s="36"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="28"/>
-      <c r="G979" s="29"/>
-      <c r="I979" s="29"/>
+      <c r="A979" s="35"/>
+      <c r="G979" s="36"/>
+      <c r="I979" s="36"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="28"/>
-      <c r="G980" s="29"/>
-      <c r="I980" s="29"/>
+      <c r="A980" s="35"/>
+      <c r="G980" s="36"/>
+      <c r="I980" s="36"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="28"/>
-      <c r="G981" s="29"/>
-      <c r="I981" s="29"/>
+      <c r="A981" s="35"/>
+      <c r="G981" s="36"/>
+      <c r="I981" s="36"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="28"/>
-      <c r="G982" s="29"/>
-      <c r="I982" s="29"/>
+      <c r="A982" s="35"/>
+      <c r="G982" s="36"/>
+      <c r="I982" s="36"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="28"/>
-      <c r="G983" s="29"/>
-      <c r="I983" s="29"/>
+      <c r="A983" s="35"/>
+      <c r="G983" s="36"/>
+      <c r="I983" s="36"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="28"/>
-      <c r="G984" s="29"/>
-      <c r="I984" s="29"/>
+      <c r="A984" s="35"/>
+      <c r="G984" s="36"/>
+      <c r="I984" s="36"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="28"/>
-      <c r="G985" s="29"/>
-      <c r="I985" s="29"/>
+      <c r="A985" s="35"/>
+      <c r="G985" s="36"/>
+      <c r="I985" s="36"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="28"/>
-      <c r="G986" s="29"/>
-      <c r="I986" s="29"/>
+      <c r="A986" s="35"/>
+      <c r="G986" s="36"/>
+      <c r="I986" s="36"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="28"/>
-      <c r="G987" s="29"/>
-      <c r="I987" s="29"/>
+      <c r="A987" s="35"/>
+      <c r="G987" s="36"/>
+      <c r="I987" s="36"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="28"/>
-      <c r="G988" s="29"/>
-      <c r="I988" s="29"/>
+      <c r="A988" s="35"/>
+      <c r="G988" s="36"/>
+      <c r="I988" s="36"/>
     </row>
     <row r="989">
-      <c r="A989" s="28"/>
-      <c r="G989" s="29"/>
-      <c r="I989" s="29"/>
+      <c r="A989" s="35"/>
+      <c r="G989" s="36"/>
+      <c r="I989" s="36"/>
     </row>
     <row r="990">
-      <c r="A990" s="28"/>
-      <c r="G990" s="29"/>
-      <c r="I990" s="29"/>
+      <c r="A990" s="35"/>
+      <c r="G990" s="36"/>
+      <c r="I990" s="36"/>
     </row>
     <row r="991">
-      <c r="A991" s="28"/>
-      <c r="G991" s="29"/>
-      <c r="I991" s="29"/>
+      <c r="A991" s="35"/>
+      <c r="G991" s="36"/>
+      <c r="I991" s="36"/>
     </row>
     <row r="992">
-      <c r="A992" s="28"/>
-      <c r="G992" s="29"/>
-      <c r="I992" s="29"/>
+      <c r="A992" s="35"/>
+      <c r="G992" s="36"/>
+      <c r="I992" s="36"/>
     </row>
     <row r="993">
-      <c r="A993" s="28"/>
-      <c r="G993" s="29"/>
-      <c r="I993" s="29"/>
+      <c r="A993" s="35"/>
+      <c r="G993" s="36"/>
+      <c r="I993" s="36"/>
     </row>
     <row r="994">
-      <c r="A994" s="28"/>
-      <c r="G994" s="29"/>
-      <c r="I994" s="29"/>
+      <c r="A994" s="35"/>
+      <c r="G994" s="36"/>
+      <c r="I994" s="36"/>
     </row>
     <row r="995">
-      <c r="A995" s="28"/>
-      <c r="G995" s="29"/>
-      <c r="I995" s="29"/>
+      <c r="A995" s="35"/>
+      <c r="G995" s="36"/>
+      <c r="I995" s="36"/>
     </row>
     <row r="996">
-      <c r="A996" s="28"/>
-      <c r="G996" s="29"/>
-      <c r="I996" s="29"/>
+      <c r="A996" s="35"/>
+      <c r="G996" s="36"/>
+      <c r="I996" s="36"/>
     </row>
     <row r="997">
-      <c r="A997" s="28"/>
-      <c r="G997" s="29"/>
-      <c r="I997" s="29"/>
+      <c r="A997" s="35"/>
+      <c r="G997" s="36"/>
+      <c r="I997" s="36"/>
     </row>
     <row r="998">
-      <c r="A998" s="28"/>
-      <c r="G998" s="29"/>
-      <c r="I998" s="29"/>
+      <c r="A998" s="35"/>
+      <c r="G998" s="36"/>
+      <c r="I998" s="36"/>
     </row>
     <row r="999">
-      <c r="A999" s="28"/>
-      <c r="G999" s="29"/>
-      <c r="I999" s="29"/>
+      <c r="A999" s="35"/>
+      <c r="G999" s="36"/>
+      <c r="I999" s="36"/>
     </row>
   </sheetData>
   <printOptions/>

--- a/TNR_JDD/JDD.ST.MAG.xlsx
+++ b/TNR_JDD/JDD.ST.MAG.xlsx
@@ -10,15 +10,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7min2WFFyMBL3CCx4AaeNrh3eBAd1Q=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="t7AuYZXEHYD/htsyIqyB1Czqvn4nzm3x7nCr8xu/PaM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>Version de Mainta pour laquelle le JDD de référence est validé</t>
+  </si>
+  <si>
+    <t>24/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout rubrique MAG.ID_NUMCORP </t>
+  </si>
+  <si>
+    <t>X3i</t>
+  </si>
+  <si>
+    <t>V13.0.2</t>
   </si>
   <si>
     <t>Onglet</t>
@@ -155,10 +167,25 @@
     <t>varchar(10)</t>
   </si>
   <si>
+    <t>ID_NUMCORP</t>
+  </si>
+  <si>
+    <t>Identifiant interne éditeur de la donnée packagée</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>NULL par défaut</t>
+  </si>
+  <si>
     <t>PREREQUIS</t>
   </si>
   <si>
     <t>FOREIGNKEY</t>
+  </si>
+  <si>
+    <t>SEQUENCE</t>
   </si>
   <si>
     <t>LOCATOR</t>
@@ -202,6 +229,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -220,10 +251,6 @@
       <i/>
       <sz val="8.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -320,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border/>
     <border>
       <left style="thin">
@@ -337,6 +364,36 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -346,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -363,19 +420,34 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -384,33 +456,33 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf quotePrefix="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf quotePrefix="1" borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -419,7 +491,7 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -428,10 +500,10 @@
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -446,8 +518,8 @@
     <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -713,18 +785,28 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="3"/>
@@ -1826,203 +1908,219 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
+      <c r="C1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="6">
+      <c r="A3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="11">
         <v>1030.0</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>24</v>
       </c>
+      <c r="B4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="23"/>
+      <c r="E5" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="18" t="s">
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>23</v>
+      <c r="E10" s="26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1"/>
+      <c r="E11" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="13" ht="12.75" customHeight="1"/>
     <row r="14" ht="12.75" customHeight="1"/>
     <row r="15" ht="12.75" customHeight="1"/>
@@ -2944,5055 +3042,5076 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="29" t="s">
+      <c r="A1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="30" t="s">
-        <v>42</v>
+      <c r="H1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="A2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="A3" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="A5" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="A6" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="A7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="A8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="A9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="A10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="A11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="I11" s="41"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="A12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="A13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="I13" s="41"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="A14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="I14" s="41"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="A15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="I15" s="41"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="A16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="A17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="A18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="A19" s="40"/>
+      <c r="G19" s="41"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="I20" s="36"/>
+      <c r="A20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="I21" s="36"/>
+      <c r="A21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="I21" s="41"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="A22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="A23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="I23" s="41"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="I24" s="36"/>
+      <c r="A24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="I24" s="41"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="I25" s="36"/>
+      <c r="A25" s="40"/>
+      <c r="G25" s="41"/>
+      <c r="I25" s="41"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="I26" s="36"/>
+      <c r="A26" s="40"/>
+      <c r="G26" s="41"/>
+      <c r="I26" s="41"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="I27" s="36"/>
+      <c r="A27" s="40"/>
+      <c r="G27" s="41"/>
+      <c r="I27" s="41"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="A28" s="40"/>
+      <c r="G28" s="41"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="I29" s="36"/>
+      <c r="A29" s="40"/>
+      <c r="G29" s="41"/>
+      <c r="I29" s="41"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="I30" s="36"/>
+      <c r="A30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="I30" s="41"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="A31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="I31" s="41"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="I32" s="36"/>
+      <c r="A32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="I33" s="36"/>
+      <c r="A33" s="40"/>
+      <c r="G33" s="41"/>
+      <c r="I33" s="41"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="35"/>
-      <c r="G34" s="36"/>
-      <c r="I34" s="36"/>
+      <c r="A34" s="40"/>
+      <c r="G34" s="41"/>
+      <c r="I34" s="41"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="I35" s="36"/>
+      <c r="A35" s="40"/>
+      <c r="G35" s="41"/>
+      <c r="I35" s="41"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="I36" s="36"/>
+      <c r="A36" s="40"/>
+      <c r="G36" s="41"/>
+      <c r="I36" s="41"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="35"/>
-      <c r="G37" s="36"/>
-      <c r="I37" s="36"/>
+      <c r="A37" s="40"/>
+      <c r="G37" s="41"/>
+      <c r="I37" s="41"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="35"/>
-      <c r="G38" s="36"/>
-      <c r="I38" s="36"/>
+      <c r="A38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="I38" s="41"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="I39" s="36"/>
+      <c r="A39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="I39" s="41"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="35"/>
-      <c r="G40" s="36"/>
-      <c r="I40" s="36"/>
+      <c r="A40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="I40" s="41"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="I41" s="36"/>
+      <c r="A41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="I41" s="41"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="35"/>
-      <c r="G42" s="36"/>
-      <c r="I42" s="36"/>
+      <c r="A42" s="40"/>
+      <c r="G42" s="41"/>
+      <c r="I42" s="41"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="35"/>
-      <c r="G43" s="36"/>
-      <c r="I43" s="36"/>
+      <c r="A43" s="40"/>
+      <c r="G43" s="41"/>
+      <c r="I43" s="41"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="35"/>
-      <c r="G44" s="36"/>
-      <c r="I44" s="36"/>
+      <c r="A44" s="40"/>
+      <c r="G44" s="41"/>
+      <c r="I44" s="41"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="35"/>
-      <c r="G45" s="36"/>
-      <c r="I45" s="36"/>
+      <c r="A45" s="40"/>
+      <c r="G45" s="41"/>
+      <c r="I45" s="41"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="35"/>
-      <c r="G46" s="36"/>
-      <c r="I46" s="36"/>
+      <c r="A46" s="40"/>
+      <c r="G46" s="41"/>
+      <c r="I46" s="41"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="35"/>
-      <c r="G47" s="36"/>
-      <c r="I47" s="36"/>
+      <c r="A47" s="40"/>
+      <c r="G47" s="41"/>
+      <c r="I47" s="41"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="35"/>
-      <c r="G48" s="36"/>
-      <c r="I48" s="36"/>
+      <c r="A48" s="40"/>
+      <c r="G48" s="41"/>
+      <c r="I48" s="41"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="35"/>
-      <c r="G49" s="36"/>
-      <c r="I49" s="36"/>
+      <c r="A49" s="40"/>
+      <c r="G49" s="41"/>
+      <c r="I49" s="41"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="35"/>
-      <c r="G50" s="36"/>
-      <c r="I50" s="36"/>
+      <c r="A50" s="40"/>
+      <c r="G50" s="41"/>
+      <c r="I50" s="41"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="35"/>
-      <c r="G51" s="36"/>
-      <c r="I51" s="36"/>
+      <c r="A51" s="40"/>
+      <c r="G51" s="41"/>
+      <c r="I51" s="41"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="35"/>
-      <c r="G52" s="36"/>
-      <c r="I52" s="36"/>
+      <c r="A52" s="40"/>
+      <c r="G52" s="41"/>
+      <c r="I52" s="41"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="35"/>
-      <c r="G53" s="36"/>
-      <c r="I53" s="36"/>
+      <c r="A53" s="40"/>
+      <c r="G53" s="41"/>
+      <c r="I53" s="41"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="35"/>
-      <c r="G54" s="36"/>
-      <c r="I54" s="36"/>
+      <c r="A54" s="40"/>
+      <c r="G54" s="41"/>
+      <c r="I54" s="41"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="35"/>
-      <c r="G55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="A55" s="40"/>
+      <c r="G55" s="41"/>
+      <c r="I55" s="41"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="35"/>
-      <c r="G56" s="36"/>
-      <c r="I56" s="36"/>
+      <c r="A56" s="40"/>
+      <c r="G56" s="41"/>
+      <c r="I56" s="41"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="35"/>
-      <c r="G57" s="36"/>
-      <c r="I57" s="36"/>
+      <c r="A57" s="40"/>
+      <c r="G57" s="41"/>
+      <c r="I57" s="41"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="35"/>
-      <c r="G58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="A58" s="40"/>
+      <c r="G58" s="41"/>
+      <c r="I58" s="41"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="35"/>
-      <c r="G59" s="36"/>
-      <c r="I59" s="36"/>
+      <c r="A59" s="40"/>
+      <c r="G59" s="41"/>
+      <c r="I59" s="41"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="35"/>
-      <c r="G60" s="36"/>
-      <c r="I60" s="36"/>
+      <c r="A60" s="40"/>
+      <c r="G60" s="41"/>
+      <c r="I60" s="41"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="35"/>
-      <c r="G61" s="36"/>
-      <c r="I61" s="36"/>
+      <c r="A61" s="40"/>
+      <c r="G61" s="41"/>
+      <c r="I61" s="41"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="35"/>
-      <c r="G62" s="36"/>
-      <c r="I62" s="36"/>
+      <c r="A62" s="40"/>
+      <c r="G62" s="41"/>
+      <c r="I62" s="41"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="35"/>
-      <c r="G63" s="36"/>
-      <c r="I63" s="36"/>
+      <c r="A63" s="40"/>
+      <c r="G63" s="41"/>
+      <c r="I63" s="41"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="35"/>
-      <c r="G64" s="36"/>
-      <c r="I64" s="36"/>
+      <c r="A64" s="40"/>
+      <c r="G64" s="41"/>
+      <c r="I64" s="41"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="35"/>
-      <c r="G65" s="36"/>
-      <c r="I65" s="36"/>
+      <c r="A65" s="40"/>
+      <c r="G65" s="41"/>
+      <c r="I65" s="41"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="35"/>
-      <c r="G66" s="36"/>
-      <c r="I66" s="36"/>
+      <c r="A66" s="40"/>
+      <c r="G66" s="41"/>
+      <c r="I66" s="41"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="35"/>
-      <c r="G67" s="36"/>
-      <c r="I67" s="36"/>
+      <c r="A67" s="40"/>
+      <c r="G67" s="41"/>
+      <c r="I67" s="41"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="35"/>
-      <c r="G68" s="36"/>
-      <c r="I68" s="36"/>
+      <c r="A68" s="40"/>
+      <c r="G68" s="41"/>
+      <c r="I68" s="41"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="35"/>
-      <c r="G69" s="36"/>
-      <c r="I69" s="36"/>
+      <c r="A69" s="40"/>
+      <c r="G69" s="41"/>
+      <c r="I69" s="41"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="35"/>
-      <c r="G70" s="36"/>
-      <c r="I70" s="36"/>
+      <c r="A70" s="40"/>
+      <c r="G70" s="41"/>
+      <c r="I70" s="41"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="35"/>
-      <c r="G71" s="36"/>
-      <c r="I71" s="36"/>
+      <c r="A71" s="40"/>
+      <c r="G71" s="41"/>
+      <c r="I71" s="41"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="35"/>
-      <c r="G72" s="36"/>
-      <c r="I72" s="36"/>
+      <c r="A72" s="40"/>
+      <c r="G72" s="41"/>
+      <c r="I72" s="41"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="35"/>
-      <c r="G73" s="36"/>
-      <c r="I73" s="36"/>
+      <c r="A73" s="40"/>
+      <c r="G73" s="41"/>
+      <c r="I73" s="41"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="35"/>
-      <c r="G74" s="36"/>
-      <c r="I74" s="36"/>
+      <c r="A74" s="40"/>
+      <c r="G74" s="41"/>
+      <c r="I74" s="41"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="35"/>
-      <c r="G75" s="36"/>
-      <c r="I75" s="36"/>
+      <c r="A75" s="40"/>
+      <c r="G75" s="41"/>
+      <c r="I75" s="41"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="35"/>
-      <c r="G76" s="36"/>
-      <c r="I76" s="36"/>
+      <c r="A76" s="40"/>
+      <c r="G76" s="41"/>
+      <c r="I76" s="41"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="35"/>
-      <c r="G77" s="36"/>
-      <c r="I77" s="36"/>
+      <c r="A77" s="40"/>
+      <c r="G77" s="41"/>
+      <c r="I77" s="41"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="35"/>
-      <c r="G78" s="36"/>
-      <c r="I78" s="36"/>
+      <c r="A78" s="40"/>
+      <c r="G78" s="41"/>
+      <c r="I78" s="41"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="35"/>
-      <c r="G79" s="36"/>
-      <c r="I79" s="36"/>
+      <c r="A79" s="40"/>
+      <c r="G79" s="41"/>
+      <c r="I79" s="41"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="35"/>
-      <c r="G80" s="36"/>
-      <c r="I80" s="36"/>
+      <c r="A80" s="40"/>
+      <c r="G80" s="41"/>
+      <c r="I80" s="41"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="35"/>
-      <c r="G81" s="36"/>
-      <c r="I81" s="36"/>
+      <c r="A81" s="40"/>
+      <c r="G81" s="41"/>
+      <c r="I81" s="41"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="35"/>
-      <c r="G82" s="36"/>
-      <c r="I82" s="36"/>
+      <c r="A82" s="40"/>
+      <c r="G82" s="41"/>
+      <c r="I82" s="41"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="35"/>
-      <c r="G83" s="36"/>
-      <c r="I83" s="36"/>
+      <c r="A83" s="40"/>
+      <c r="G83" s="41"/>
+      <c r="I83" s="41"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="35"/>
-      <c r="G84" s="36"/>
-      <c r="I84" s="36"/>
+      <c r="A84" s="40"/>
+      <c r="G84" s="41"/>
+      <c r="I84" s="41"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="35"/>
-      <c r="G85" s="36"/>
-      <c r="I85" s="36"/>
+      <c r="A85" s="40"/>
+      <c r="G85" s="41"/>
+      <c r="I85" s="41"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="35"/>
-      <c r="G86" s="36"/>
-      <c r="I86" s="36"/>
+      <c r="A86" s="40"/>
+      <c r="G86" s="41"/>
+      <c r="I86" s="41"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="35"/>
-      <c r="G87" s="36"/>
-      <c r="I87" s="36"/>
+      <c r="A87" s="40"/>
+      <c r="G87" s="41"/>
+      <c r="I87" s="41"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="35"/>
-      <c r="G88" s="36"/>
-      <c r="I88" s="36"/>
+      <c r="A88" s="40"/>
+      <c r="G88" s="41"/>
+      <c r="I88" s="41"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="35"/>
-      <c r="G89" s="36"/>
-      <c r="I89" s="36"/>
+      <c r="A89" s="40"/>
+      <c r="G89" s="41"/>
+      <c r="I89" s="41"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="35"/>
-      <c r="G90" s="36"/>
-      <c r="I90" s="36"/>
+      <c r="A90" s="40"/>
+      <c r="G90" s="41"/>
+      <c r="I90" s="41"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="35"/>
-      <c r="G91" s="36"/>
-      <c r="I91" s="36"/>
+      <c r="A91" s="40"/>
+      <c r="G91" s="41"/>
+      <c r="I91" s="41"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="35"/>
-      <c r="G92" s="36"/>
-      <c r="I92" s="36"/>
+      <c r="A92" s="40"/>
+      <c r="G92" s="41"/>
+      <c r="I92" s="41"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="35"/>
-      <c r="G93" s="36"/>
-      <c r="I93" s="36"/>
+      <c r="A93" s="40"/>
+      <c r="G93" s="41"/>
+      <c r="I93" s="41"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="35"/>
-      <c r="G94" s="36"/>
-      <c r="I94" s="36"/>
+      <c r="A94" s="40"/>
+      <c r="G94" s="41"/>
+      <c r="I94" s="41"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="35"/>
-      <c r="G95" s="36"/>
-      <c r="I95" s="36"/>
+      <c r="A95" s="40"/>
+      <c r="G95" s="41"/>
+      <c r="I95" s="41"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="35"/>
-      <c r="G96" s="36"/>
-      <c r="I96" s="36"/>
+      <c r="A96" s="40"/>
+      <c r="G96" s="41"/>
+      <c r="I96" s="41"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="35"/>
-      <c r="G97" s="36"/>
-      <c r="I97" s="36"/>
+      <c r="A97" s="40"/>
+      <c r="G97" s="41"/>
+      <c r="I97" s="41"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="35"/>
-      <c r="G98" s="36"/>
-      <c r="I98" s="36"/>
+      <c r="A98" s="40"/>
+      <c r="G98" s="41"/>
+      <c r="I98" s="41"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="35"/>
-      <c r="G99" s="36"/>
-      <c r="I99" s="36"/>
+      <c r="A99" s="40"/>
+      <c r="G99" s="41"/>
+      <c r="I99" s="41"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="35"/>
-      <c r="G100" s="36"/>
-      <c r="I100" s="36"/>
+      <c r="A100" s="40"/>
+      <c r="G100" s="41"/>
+      <c r="I100" s="41"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="35"/>
-      <c r="G101" s="36"/>
-      <c r="I101" s="36"/>
+      <c r="A101" s="40"/>
+      <c r="G101" s="41"/>
+      <c r="I101" s="41"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="35"/>
-      <c r="G102" s="36"/>
-      <c r="I102" s="36"/>
+      <c r="A102" s="40"/>
+      <c r="G102" s="41"/>
+      <c r="I102" s="41"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="35"/>
-      <c r="G103" s="36"/>
-      <c r="I103" s="36"/>
+      <c r="A103" s="40"/>
+      <c r="G103" s="41"/>
+      <c r="I103" s="41"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="35"/>
-      <c r="G104" s="36"/>
-      <c r="I104" s="36"/>
+      <c r="A104" s="40"/>
+      <c r="G104" s="41"/>
+      <c r="I104" s="41"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="35"/>
-      <c r="G105" s="36"/>
-      <c r="I105" s="36"/>
+      <c r="A105" s="40"/>
+      <c r="G105" s="41"/>
+      <c r="I105" s="41"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="35"/>
-      <c r="G106" s="36"/>
-      <c r="I106" s="36"/>
+      <c r="A106" s="40"/>
+      <c r="G106" s="41"/>
+      <c r="I106" s="41"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="35"/>
-      <c r="G107" s="36"/>
-      <c r="I107" s="36"/>
+      <c r="A107" s="40"/>
+      <c r="G107" s="41"/>
+      <c r="I107" s="41"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="35"/>
-      <c r="G108" s="36"/>
-      <c r="I108" s="36"/>
+      <c r="A108" s="40"/>
+      <c r="G108" s="41"/>
+      <c r="I108" s="41"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="35"/>
-      <c r="G109" s="36"/>
-      <c r="I109" s="36"/>
+      <c r="A109" s="40"/>
+      <c r="G109" s="41"/>
+      <c r="I109" s="41"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="35"/>
-      <c r="G110" s="36"/>
-      <c r="I110" s="36"/>
+      <c r="A110" s="40"/>
+      <c r="G110" s="41"/>
+      <c r="I110" s="41"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="35"/>
-      <c r="G111" s="36"/>
-      <c r="I111" s="36"/>
+      <c r="A111" s="40"/>
+      <c r="G111" s="41"/>
+      <c r="I111" s="41"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="35"/>
-      <c r="G112" s="36"/>
-      <c r="I112" s="36"/>
+      <c r="A112" s="40"/>
+      <c r="G112" s="41"/>
+      <c r="I112" s="41"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="35"/>
-      <c r="G113" s="36"/>
-      <c r="I113" s="36"/>
+      <c r="A113" s="40"/>
+      <c r="G113" s="41"/>
+      <c r="I113" s="41"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="35"/>
-      <c r="G114" s="36"/>
-      <c r="I114" s="36"/>
+      <c r="A114" s="40"/>
+      <c r="G114" s="41"/>
+      <c r="I114" s="41"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="35"/>
-      <c r="G115" s="36"/>
-      <c r="I115" s="36"/>
+      <c r="A115" s="40"/>
+      <c r="G115" s="41"/>
+      <c r="I115" s="41"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="35"/>
-      <c r="G116" s="36"/>
-      <c r="I116" s="36"/>
+      <c r="A116" s="40"/>
+      <c r="G116" s="41"/>
+      <c r="I116" s="41"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="35"/>
-      <c r="G117" s="36"/>
-      <c r="I117" s="36"/>
+      <c r="A117" s="40"/>
+      <c r="G117" s="41"/>
+      <c r="I117" s="41"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="35"/>
-      <c r="G118" s="36"/>
-      <c r="I118" s="36"/>
+      <c r="A118" s="40"/>
+      <c r="G118" s="41"/>
+      <c r="I118" s="41"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="35"/>
-      <c r="G119" s="36"/>
-      <c r="I119" s="36"/>
+      <c r="A119" s="40"/>
+      <c r="G119" s="41"/>
+      <c r="I119" s="41"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="35"/>
-      <c r="G120" s="36"/>
-      <c r="I120" s="36"/>
+      <c r="A120" s="40"/>
+      <c r="G120" s="41"/>
+      <c r="I120" s="41"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="35"/>
-      <c r="G121" s="36"/>
-      <c r="I121" s="36"/>
+      <c r="A121" s="40"/>
+      <c r="G121" s="41"/>
+      <c r="I121" s="41"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="35"/>
-      <c r="G122" s="36"/>
-      <c r="I122" s="36"/>
+      <c r="A122" s="40"/>
+      <c r="G122" s="41"/>
+      <c r="I122" s="41"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="35"/>
-      <c r="G123" s="36"/>
-      <c r="I123" s="36"/>
+      <c r="A123" s="40"/>
+      <c r="G123" s="41"/>
+      <c r="I123" s="41"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="35"/>
-      <c r="G124" s="36"/>
-      <c r="I124" s="36"/>
+      <c r="A124" s="40"/>
+      <c r="G124" s="41"/>
+      <c r="I124" s="41"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="35"/>
-      <c r="G125" s="36"/>
-      <c r="I125" s="36"/>
+      <c r="A125" s="40"/>
+      <c r="G125" s="41"/>
+      <c r="I125" s="41"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="35"/>
-      <c r="G126" s="36"/>
-      <c r="I126" s="36"/>
+      <c r="A126" s="40"/>
+      <c r="G126" s="41"/>
+      <c r="I126" s="41"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="35"/>
-      <c r="G127" s="36"/>
-      <c r="I127" s="36"/>
+      <c r="A127" s="40"/>
+      <c r="G127" s="41"/>
+      <c r="I127" s="41"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="35"/>
-      <c r="G128" s="36"/>
-      <c r="I128" s="36"/>
+      <c r="A128" s="40"/>
+      <c r="G128" s="41"/>
+      <c r="I128" s="41"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="35"/>
-      <c r="G129" s="36"/>
-      <c r="I129" s="36"/>
+      <c r="A129" s="40"/>
+      <c r="G129" s="41"/>
+      <c r="I129" s="41"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="35"/>
-      <c r="G130" s="36"/>
-      <c r="I130" s="36"/>
+      <c r="A130" s="40"/>
+      <c r="G130" s="41"/>
+      <c r="I130" s="41"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="35"/>
-      <c r="G131" s="36"/>
-      <c r="I131" s="36"/>
+      <c r="A131" s="40"/>
+      <c r="G131" s="41"/>
+      <c r="I131" s="41"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="35"/>
-      <c r="G132" s="36"/>
-      <c r="I132" s="36"/>
+      <c r="A132" s="40"/>
+      <c r="G132" s="41"/>
+      <c r="I132" s="41"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="35"/>
-      <c r="G133" s="36"/>
-      <c r="I133" s="36"/>
+      <c r="A133" s="40"/>
+      <c r="G133" s="41"/>
+      <c r="I133" s="41"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="35"/>
-      <c r="G134" s="36"/>
-      <c r="I134" s="36"/>
+      <c r="A134" s="40"/>
+      <c r="G134" s="41"/>
+      <c r="I134" s="41"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="35"/>
-      <c r="G135" s="36"/>
-      <c r="I135" s="36"/>
+      <c r="A135" s="40"/>
+      <c r="G135" s="41"/>
+      <c r="I135" s="41"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="35"/>
-      <c r="G136" s="36"/>
-      <c r="I136" s="36"/>
+      <c r="A136" s="40"/>
+      <c r="G136" s="41"/>
+      <c r="I136" s="41"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="35"/>
-      <c r="G137" s="36"/>
-      <c r="I137" s="36"/>
+      <c r="A137" s="40"/>
+      <c r="G137" s="41"/>
+      <c r="I137" s="41"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="35"/>
-      <c r="G138" s="36"/>
-      <c r="I138" s="36"/>
+      <c r="A138" s="40"/>
+      <c r="G138" s="41"/>
+      <c r="I138" s="41"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="35"/>
-      <c r="G139" s="36"/>
-      <c r="I139" s="36"/>
+      <c r="A139" s="40"/>
+      <c r="G139" s="41"/>
+      <c r="I139" s="41"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="35"/>
-      <c r="G140" s="36"/>
-      <c r="I140" s="36"/>
+      <c r="A140" s="40"/>
+      <c r="G140" s="41"/>
+      <c r="I140" s="41"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="35"/>
-      <c r="G141" s="36"/>
-      <c r="I141" s="36"/>
+      <c r="A141" s="40"/>
+      <c r="G141" s="41"/>
+      <c r="I141" s="41"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="35"/>
-      <c r="G142" s="36"/>
-      <c r="I142" s="36"/>
+      <c r="A142" s="40"/>
+      <c r="G142" s="41"/>
+      <c r="I142" s="41"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="35"/>
-      <c r="G143" s="36"/>
-      <c r="I143" s="36"/>
+      <c r="A143" s="40"/>
+      <c r="G143" s="41"/>
+      <c r="I143" s="41"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="35"/>
-      <c r="G144" s="36"/>
-      <c r="I144" s="36"/>
+      <c r="A144" s="40"/>
+      <c r="G144" s="41"/>
+      <c r="I144" s="41"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="35"/>
-      <c r="G145" s="36"/>
-      <c r="I145" s="36"/>
+      <c r="A145" s="40"/>
+      <c r="G145" s="41"/>
+      <c r="I145" s="41"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="35"/>
-      <c r="G146" s="36"/>
-      <c r="I146" s="36"/>
+      <c r="A146" s="40"/>
+      <c r="G146" s="41"/>
+      <c r="I146" s="41"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="35"/>
-      <c r="G147" s="36"/>
-      <c r="I147" s="36"/>
+      <c r="A147" s="40"/>
+      <c r="G147" s="41"/>
+      <c r="I147" s="41"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="35"/>
-      <c r="G148" s="36"/>
-      <c r="I148" s="36"/>
+      <c r="A148" s="40"/>
+      <c r="G148" s="41"/>
+      <c r="I148" s="41"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="35"/>
-      <c r="G149" s="36"/>
-      <c r="I149" s="36"/>
+      <c r="A149" s="40"/>
+      <c r="G149" s="41"/>
+      <c r="I149" s="41"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="35"/>
-      <c r="G150" s="36"/>
-      <c r="I150" s="36"/>
+      <c r="A150" s="40"/>
+      <c r="G150" s="41"/>
+      <c r="I150" s="41"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="35"/>
-      <c r="G151" s="36"/>
-      <c r="I151" s="36"/>
+      <c r="A151" s="40"/>
+      <c r="G151" s="41"/>
+      <c r="I151" s="41"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="35"/>
-      <c r="G152" s="36"/>
-      <c r="I152" s="36"/>
+      <c r="A152" s="40"/>
+      <c r="G152" s="41"/>
+      <c r="I152" s="41"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="35"/>
-      <c r="G153" s="36"/>
-      <c r="I153" s="36"/>
+      <c r="A153" s="40"/>
+      <c r="G153" s="41"/>
+      <c r="I153" s="41"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="35"/>
-      <c r="G154" s="36"/>
-      <c r="I154" s="36"/>
+      <c r="A154" s="40"/>
+      <c r="G154" s="41"/>
+      <c r="I154" s="41"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="35"/>
-      <c r="G155" s="36"/>
-      <c r="I155" s="36"/>
+      <c r="A155" s="40"/>
+      <c r="G155" s="41"/>
+      <c r="I155" s="41"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="35"/>
-      <c r="G156" s="36"/>
-      <c r="I156" s="36"/>
+      <c r="A156" s="40"/>
+      <c r="G156" s="41"/>
+      <c r="I156" s="41"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="35"/>
-      <c r="G157" s="36"/>
-      <c r="I157" s="36"/>
+      <c r="A157" s="40"/>
+      <c r="G157" s="41"/>
+      <c r="I157" s="41"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="35"/>
-      <c r="G158" s="36"/>
-      <c r="I158" s="36"/>
+      <c r="A158" s="40"/>
+      <c r="G158" s="41"/>
+      <c r="I158" s="41"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="35"/>
-      <c r="G159" s="36"/>
-      <c r="I159" s="36"/>
+      <c r="A159" s="40"/>
+      <c r="G159" s="41"/>
+      <c r="I159" s="41"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="35"/>
-      <c r="G160" s="36"/>
-      <c r="I160" s="36"/>
+      <c r="A160" s="40"/>
+      <c r="G160" s="41"/>
+      <c r="I160" s="41"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="35"/>
-      <c r="G161" s="36"/>
-      <c r="I161" s="36"/>
+      <c r="A161" s="40"/>
+      <c r="G161" s="41"/>
+      <c r="I161" s="41"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="35"/>
-      <c r="G162" s="36"/>
-      <c r="I162" s="36"/>
+      <c r="A162" s="40"/>
+      <c r="G162" s="41"/>
+      <c r="I162" s="41"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="35"/>
-      <c r="G163" s="36"/>
-      <c r="I163" s="36"/>
+      <c r="A163" s="40"/>
+      <c r="G163" s="41"/>
+      <c r="I163" s="41"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="35"/>
-      <c r="G164" s="36"/>
-      <c r="I164" s="36"/>
+      <c r="A164" s="40"/>
+      <c r="G164" s="41"/>
+      <c r="I164" s="41"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="35"/>
-      <c r="G165" s="36"/>
-      <c r="I165" s="36"/>
+      <c r="A165" s="40"/>
+      <c r="G165" s="41"/>
+      <c r="I165" s="41"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="35"/>
-      <c r="G166" s="36"/>
-      <c r="I166" s="36"/>
+      <c r="A166" s="40"/>
+      <c r="G166" s="41"/>
+      <c r="I166" s="41"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="35"/>
-      <c r="G167" s="36"/>
-      <c r="I167" s="36"/>
+      <c r="A167" s="40"/>
+      <c r="G167" s="41"/>
+      <c r="I167" s="41"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="35"/>
-      <c r="G168" s="36"/>
-      <c r="I168" s="36"/>
+      <c r="A168" s="40"/>
+      <c r="G168" s="41"/>
+      <c r="I168" s="41"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="35"/>
-      <c r="G169" s="36"/>
-      <c r="I169" s="36"/>
+      <c r="A169" s="40"/>
+      <c r="G169" s="41"/>
+      <c r="I169" s="41"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="35"/>
-      <c r="G170" s="36"/>
-      <c r="I170" s="36"/>
+      <c r="A170" s="40"/>
+      <c r="G170" s="41"/>
+      <c r="I170" s="41"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="35"/>
-      <c r="G171" s="36"/>
-      <c r="I171" s="36"/>
+      <c r="A171" s="40"/>
+      <c r="G171" s="41"/>
+      <c r="I171" s="41"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="35"/>
-      <c r="G172" s="36"/>
-      <c r="I172" s="36"/>
+      <c r="A172" s="40"/>
+      <c r="G172" s="41"/>
+      <c r="I172" s="41"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="35"/>
-      <c r="G173" s="36"/>
-      <c r="I173" s="36"/>
+      <c r="A173" s="40"/>
+      <c r="G173" s="41"/>
+      <c r="I173" s="41"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="35"/>
-      <c r="G174" s="36"/>
-      <c r="I174" s="36"/>
+      <c r="A174" s="40"/>
+      <c r="G174" s="41"/>
+      <c r="I174" s="41"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="35"/>
-      <c r="G175" s="36"/>
-      <c r="I175" s="36"/>
+      <c r="A175" s="40"/>
+      <c r="G175" s="41"/>
+      <c r="I175" s="41"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="35"/>
-      <c r="G176" s="36"/>
-      <c r="I176" s="36"/>
+      <c r="A176" s="40"/>
+      <c r="G176" s="41"/>
+      <c r="I176" s="41"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="35"/>
-      <c r="G177" s="36"/>
-      <c r="I177" s="36"/>
+      <c r="A177" s="40"/>
+      <c r="G177" s="41"/>
+      <c r="I177" s="41"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="35"/>
-      <c r="G178" s="36"/>
-      <c r="I178" s="36"/>
+      <c r="A178" s="40"/>
+      <c r="G178" s="41"/>
+      <c r="I178" s="41"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="35"/>
-      <c r="G179" s="36"/>
-      <c r="I179" s="36"/>
+      <c r="A179" s="40"/>
+      <c r="G179" s="41"/>
+      <c r="I179" s="41"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="35"/>
-      <c r="G180" s="36"/>
-      <c r="I180" s="36"/>
+      <c r="A180" s="40"/>
+      <c r="G180" s="41"/>
+      <c r="I180" s="41"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="35"/>
-      <c r="G181" s="36"/>
-      <c r="I181" s="36"/>
+      <c r="A181" s="40"/>
+      <c r="G181" s="41"/>
+      <c r="I181" s="41"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="35"/>
-      <c r="G182" s="36"/>
-      <c r="I182" s="36"/>
+      <c r="A182" s="40"/>
+      <c r="G182" s="41"/>
+      <c r="I182" s="41"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="35"/>
-      <c r="G183" s="36"/>
-      <c r="I183" s="36"/>
+      <c r="A183" s="40"/>
+      <c r="G183" s="41"/>
+      <c r="I183" s="41"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="35"/>
-      <c r="G184" s="36"/>
-      <c r="I184" s="36"/>
+      <c r="A184" s="40"/>
+      <c r="G184" s="41"/>
+      <c r="I184" s="41"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="35"/>
-      <c r="G185" s="36"/>
-      <c r="I185" s="36"/>
+      <c r="A185" s="40"/>
+      <c r="G185" s="41"/>
+      <c r="I185" s="41"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="35"/>
-      <c r="G186" s="36"/>
-      <c r="I186" s="36"/>
+      <c r="A186" s="40"/>
+      <c r="G186" s="41"/>
+      <c r="I186" s="41"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="35"/>
-      <c r="G187" s="36"/>
-      <c r="I187" s="36"/>
+      <c r="A187" s="40"/>
+      <c r="G187" s="41"/>
+      <c r="I187" s="41"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="35"/>
-      <c r="G188" s="36"/>
-      <c r="I188" s="36"/>
+      <c r="A188" s="40"/>
+      <c r="G188" s="41"/>
+      <c r="I188" s="41"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="35"/>
-      <c r="G189" s="36"/>
-      <c r="I189" s="36"/>
+      <c r="A189" s="40"/>
+      <c r="G189" s="41"/>
+      <c r="I189" s="41"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="35"/>
-      <c r="G190" s="36"/>
-      <c r="I190" s="36"/>
+      <c r="A190" s="40"/>
+      <c r="G190" s="41"/>
+      <c r="I190" s="41"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="35"/>
-      <c r="G191" s="36"/>
-      <c r="I191" s="36"/>
+      <c r="A191" s="40"/>
+      <c r="G191" s="41"/>
+      <c r="I191" s="41"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="35"/>
-      <c r="G192" s="36"/>
-      <c r="I192" s="36"/>
+      <c r="A192" s="40"/>
+      <c r="G192" s="41"/>
+      <c r="I192" s="41"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="35"/>
-      <c r="G193" s="36"/>
-      <c r="I193" s="36"/>
+      <c r="A193" s="40"/>
+      <c r="G193" s="41"/>
+      <c r="I193" s="41"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="35"/>
-      <c r="G194" s="36"/>
-      <c r="I194" s="36"/>
+      <c r="A194" s="40"/>
+      <c r="G194" s="41"/>
+      <c r="I194" s="41"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="35"/>
-      <c r="G195" s="36"/>
-      <c r="I195" s="36"/>
+      <c r="A195" s="40"/>
+      <c r="G195" s="41"/>
+      <c r="I195" s="41"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="35"/>
-      <c r="G196" s="36"/>
-      <c r="I196" s="36"/>
+      <c r="A196" s="40"/>
+      <c r="G196" s="41"/>
+      <c r="I196" s="41"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="35"/>
-      <c r="G197" s="36"/>
-      <c r="I197" s="36"/>
+      <c r="A197" s="40"/>
+      <c r="G197" s="41"/>
+      <c r="I197" s="41"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="35"/>
-      <c r="G198" s="36"/>
-      <c r="I198" s="36"/>
+      <c r="A198" s="40"/>
+      <c r="G198" s="41"/>
+      <c r="I198" s="41"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="35"/>
-      <c r="G199" s="36"/>
-      <c r="I199" s="36"/>
+      <c r="A199" s="40"/>
+      <c r="G199" s="41"/>
+      <c r="I199" s="41"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="35"/>
-      <c r="G200" s="36"/>
-      <c r="I200" s="36"/>
+      <c r="A200" s="40"/>
+      <c r="G200" s="41"/>
+      <c r="I200" s="41"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="35"/>
-      <c r="G201" s="36"/>
-      <c r="I201" s="36"/>
+      <c r="A201" s="40"/>
+      <c r="G201" s="41"/>
+      <c r="I201" s="41"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="35"/>
-      <c r="G202" s="36"/>
-      <c r="I202" s="36"/>
+      <c r="A202" s="40"/>
+      <c r="G202" s="41"/>
+      <c r="I202" s="41"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="35"/>
-      <c r="G203" s="36"/>
-      <c r="I203" s="36"/>
+      <c r="A203" s="40"/>
+      <c r="G203" s="41"/>
+      <c r="I203" s="41"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="35"/>
-      <c r="G204" s="36"/>
-      <c r="I204" s="36"/>
+      <c r="A204" s="40"/>
+      <c r="G204" s="41"/>
+      <c r="I204" s="41"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="35"/>
-      <c r="G205" s="36"/>
-      <c r="I205" s="36"/>
+      <c r="A205" s="40"/>
+      <c r="G205" s="41"/>
+      <c r="I205" s="41"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="35"/>
-      <c r="G206" s="36"/>
-      <c r="I206" s="36"/>
+      <c r="A206" s="40"/>
+      <c r="G206" s="41"/>
+      <c r="I206" s="41"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="35"/>
-      <c r="G207" s="36"/>
-      <c r="I207" s="36"/>
+      <c r="A207" s="40"/>
+      <c r="G207" s="41"/>
+      <c r="I207" s="41"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="35"/>
-      <c r="G208" s="36"/>
-      <c r="I208" s="36"/>
+      <c r="A208" s="40"/>
+      <c r="G208" s="41"/>
+      <c r="I208" s="41"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="35"/>
-      <c r="G209" s="36"/>
-      <c r="I209" s="36"/>
+      <c r="A209" s="40"/>
+      <c r="G209" s="41"/>
+      <c r="I209" s="41"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="35"/>
-      <c r="G210" s="36"/>
-      <c r="I210" s="36"/>
+      <c r="A210" s="40"/>
+      <c r="G210" s="41"/>
+      <c r="I210" s="41"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="35"/>
-      <c r="G211" s="36"/>
-      <c r="I211" s="36"/>
+      <c r="A211" s="40"/>
+      <c r="G211" s="41"/>
+      <c r="I211" s="41"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="35"/>
-      <c r="G212" s="36"/>
-      <c r="I212" s="36"/>
+      <c r="A212" s="40"/>
+      <c r="G212" s="41"/>
+      <c r="I212" s="41"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="35"/>
-      <c r="G213" s="36"/>
-      <c r="I213" s="36"/>
+      <c r="A213" s="40"/>
+      <c r="G213" s="41"/>
+      <c r="I213" s="41"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="35"/>
-      <c r="G214" s="36"/>
-      <c r="I214" s="36"/>
+      <c r="A214" s="40"/>
+      <c r="G214" s="41"/>
+      <c r="I214" s="41"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="35"/>
-      <c r="G215" s="36"/>
-      <c r="I215" s="36"/>
+      <c r="A215" s="40"/>
+      <c r="G215" s="41"/>
+      <c r="I215" s="41"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="35"/>
-      <c r="G216" s="36"/>
-      <c r="I216" s="36"/>
+      <c r="A216" s="40"/>
+      <c r="G216" s="41"/>
+      <c r="I216" s="41"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="35"/>
-      <c r="G217" s="36"/>
-      <c r="I217" s="36"/>
+      <c r="A217" s="40"/>
+      <c r="G217" s="41"/>
+      <c r="I217" s="41"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="35"/>
-      <c r="G218" s="36"/>
-      <c r="I218" s="36"/>
+      <c r="A218" s="40"/>
+      <c r="G218" s="41"/>
+      <c r="I218" s="41"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="35"/>
-      <c r="G219" s="36"/>
-      <c r="I219" s="36"/>
+      <c r="A219" s="40"/>
+      <c r="G219" s="41"/>
+      <c r="I219" s="41"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="35"/>
-      <c r="G220" s="36"/>
-      <c r="I220" s="36"/>
+      <c r="A220" s="40"/>
+      <c r="G220" s="41"/>
+      <c r="I220" s="41"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="35"/>
-      <c r="G221" s="36"/>
-      <c r="I221" s="36"/>
+      <c r="A221" s="40"/>
+      <c r="G221" s="41"/>
+      <c r="I221" s="41"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="35"/>
-      <c r="G222" s="36"/>
-      <c r="I222" s="36"/>
+      <c r="A222" s="40"/>
+      <c r="G222" s="41"/>
+      <c r="I222" s="41"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="35"/>
-      <c r="G223" s="36"/>
-      <c r="I223" s="36"/>
+      <c r="A223" s="40"/>
+      <c r="G223" s="41"/>
+      <c r="I223" s="41"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="35"/>
-      <c r="G224" s="36"/>
-      <c r="I224" s="36"/>
+      <c r="A224" s="40"/>
+      <c r="G224" s="41"/>
+      <c r="I224" s="41"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="35"/>
-      <c r="G225" s="36"/>
-      <c r="I225" s="36"/>
+      <c r="A225" s="40"/>
+      <c r="G225" s="41"/>
+      <c r="I225" s="41"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="35"/>
-      <c r="G226" s="36"/>
-      <c r="I226" s="36"/>
+      <c r="A226" s="40"/>
+      <c r="G226" s="41"/>
+      <c r="I226" s="41"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="35"/>
-      <c r="G227" s="36"/>
-      <c r="I227" s="36"/>
+      <c r="A227" s="40"/>
+      <c r="G227" s="41"/>
+      <c r="I227" s="41"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="35"/>
-      <c r="G228" s="36"/>
-      <c r="I228" s="36"/>
+      <c r="A228" s="40"/>
+      <c r="G228" s="41"/>
+      <c r="I228" s="41"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="35"/>
-      <c r="G229" s="36"/>
-      <c r="I229" s="36"/>
+      <c r="A229" s="40"/>
+      <c r="G229" s="41"/>
+      <c r="I229" s="41"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="35"/>
-      <c r="G230" s="36"/>
-      <c r="I230" s="36"/>
+      <c r="A230" s="40"/>
+      <c r="G230" s="41"/>
+      <c r="I230" s="41"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="35"/>
-      <c r="G231" s="36"/>
-      <c r="I231" s="36"/>
+      <c r="A231" s="40"/>
+      <c r="G231" s="41"/>
+      <c r="I231" s="41"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="35"/>
-      <c r="G232" s="36"/>
-      <c r="I232" s="36"/>
+      <c r="A232" s="40"/>
+      <c r="G232" s="41"/>
+      <c r="I232" s="41"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="35"/>
-      <c r="G233" s="36"/>
-      <c r="I233" s="36"/>
+      <c r="A233" s="40"/>
+      <c r="G233" s="41"/>
+      <c r="I233" s="41"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="35"/>
-      <c r="G234" s="36"/>
-      <c r="I234" s="36"/>
+      <c r="A234" s="40"/>
+      <c r="G234" s="41"/>
+      <c r="I234" s="41"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="35"/>
-      <c r="G235" s="36"/>
-      <c r="I235" s="36"/>
+      <c r="A235" s="40"/>
+      <c r="G235" s="41"/>
+      <c r="I235" s="41"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="35"/>
-      <c r="G236" s="36"/>
-      <c r="I236" s="36"/>
+      <c r="A236" s="40"/>
+      <c r="G236" s="41"/>
+      <c r="I236" s="41"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="35"/>
-      <c r="G237" s="36"/>
-      <c r="I237" s="36"/>
+      <c r="A237" s="40"/>
+      <c r="G237" s="41"/>
+      <c r="I237" s="41"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="35"/>
-      <c r="G238" s="36"/>
-      <c r="I238" s="36"/>
+      <c r="A238" s="40"/>
+      <c r="G238" s="41"/>
+      <c r="I238" s="41"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="35"/>
-      <c r="G239" s="36"/>
-      <c r="I239" s="36"/>
+      <c r="A239" s="40"/>
+      <c r="G239" s="41"/>
+      <c r="I239" s="41"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="35"/>
-      <c r="G240" s="36"/>
-      <c r="I240" s="36"/>
+      <c r="A240" s="40"/>
+      <c r="G240" s="41"/>
+      <c r="I240" s="41"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="35"/>
-      <c r="G241" s="36"/>
-      <c r="I241" s="36"/>
+      <c r="A241" s="40"/>
+      <c r="G241" s="41"/>
+      <c r="I241" s="41"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="35"/>
-      <c r="G242" s="36"/>
-      <c r="I242" s="36"/>
+      <c r="A242" s="40"/>
+      <c r="G242" s="41"/>
+      <c r="I242" s="41"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="35"/>
-      <c r="G243" s="36"/>
-      <c r="I243" s="36"/>
+      <c r="A243" s="40"/>
+      <c r="G243" s="41"/>
+      <c r="I243" s="41"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="35"/>
-      <c r="G244" s="36"/>
-      <c r="I244" s="36"/>
+      <c r="A244" s="40"/>
+      <c r="G244" s="41"/>
+      <c r="I244" s="41"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="35"/>
-      <c r="G245" s="36"/>
-      <c r="I245" s="36"/>
+      <c r="A245" s="40"/>
+      <c r="G245" s="41"/>
+      <c r="I245" s="41"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="35"/>
-      <c r="G246" s="36"/>
-      <c r="I246" s="36"/>
+      <c r="A246" s="40"/>
+      <c r="G246" s="41"/>
+      <c r="I246" s="41"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="35"/>
-      <c r="G247" s="36"/>
-      <c r="I247" s="36"/>
+      <c r="A247" s="40"/>
+      <c r="G247" s="41"/>
+      <c r="I247" s="41"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="35"/>
-      <c r="G248" s="36"/>
-      <c r="I248" s="36"/>
+      <c r="A248" s="40"/>
+      <c r="G248" s="41"/>
+      <c r="I248" s="41"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="35"/>
-      <c r="G249" s="36"/>
-      <c r="I249" s="36"/>
+      <c r="A249" s="40"/>
+      <c r="G249" s="41"/>
+      <c r="I249" s="41"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="35"/>
-      <c r="G250" s="36"/>
-      <c r="I250" s="36"/>
+      <c r="A250" s="40"/>
+      <c r="G250" s="41"/>
+      <c r="I250" s="41"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="35"/>
-      <c r="G251" s="36"/>
-      <c r="I251" s="36"/>
+      <c r="A251" s="40"/>
+      <c r="G251" s="41"/>
+      <c r="I251" s="41"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="35"/>
-      <c r="G252" s="36"/>
-      <c r="I252" s="36"/>
+      <c r="A252" s="40"/>
+      <c r="G252" s="41"/>
+      <c r="I252" s="41"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="35"/>
-      <c r="G253" s="36"/>
-      <c r="I253" s="36"/>
+      <c r="A253" s="40"/>
+      <c r="G253" s="41"/>
+      <c r="I253" s="41"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="35"/>
-      <c r="G254" s="36"/>
-      <c r="I254" s="36"/>
+      <c r="A254" s="40"/>
+      <c r="G254" s="41"/>
+      <c r="I254" s="41"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="35"/>
-      <c r="G255" s="36"/>
-      <c r="I255" s="36"/>
+      <c r="A255" s="40"/>
+      <c r="G255" s="41"/>
+      <c r="I255" s="41"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="35"/>
-      <c r="G256" s="36"/>
-      <c r="I256" s="36"/>
+      <c r="A256" s="40"/>
+      <c r="G256" s="41"/>
+      <c r="I256" s="41"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="35"/>
-      <c r="G257" s="36"/>
-      <c r="I257" s="36"/>
+      <c r="A257" s="40"/>
+      <c r="G257" s="41"/>
+      <c r="I257" s="41"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="35"/>
-      <c r="G258" s="36"/>
-      <c r="I258" s="36"/>
+      <c r="A258" s="40"/>
+      <c r="G258" s="41"/>
+      <c r="I258" s="41"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="35"/>
-      <c r="G259" s="36"/>
-      <c r="I259" s="36"/>
+      <c r="A259" s="40"/>
+      <c r="G259" s="41"/>
+      <c r="I259" s="41"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="35"/>
-      <c r="G260" s="36"/>
-      <c r="I260" s="36"/>
+      <c r="A260" s="40"/>
+      <c r="G260" s="41"/>
+      <c r="I260" s="41"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="35"/>
-      <c r="G261" s="36"/>
-      <c r="I261" s="36"/>
+      <c r="A261" s="40"/>
+      <c r="G261" s="41"/>
+      <c r="I261" s="41"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="35"/>
-      <c r="G262" s="36"/>
-      <c r="I262" s="36"/>
+      <c r="A262" s="40"/>
+      <c r="G262" s="41"/>
+      <c r="I262" s="41"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="35"/>
-      <c r="G263" s="36"/>
-      <c r="I263" s="36"/>
+      <c r="A263" s="40"/>
+      <c r="G263" s="41"/>
+      <c r="I263" s="41"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="35"/>
-      <c r="G264" s="36"/>
-      <c r="I264" s="36"/>
+      <c r="A264" s="40"/>
+      <c r="G264" s="41"/>
+      <c r="I264" s="41"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="35"/>
-      <c r="G265" s="36"/>
-      <c r="I265" s="36"/>
+      <c r="A265" s="40"/>
+      <c r="G265" s="41"/>
+      <c r="I265" s="41"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="35"/>
-      <c r="G266" s="36"/>
-      <c r="I266" s="36"/>
+      <c r="A266" s="40"/>
+      <c r="G266" s="41"/>
+      <c r="I266" s="41"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="35"/>
-      <c r="G267" s="36"/>
-      <c r="I267" s="36"/>
+      <c r="A267" s="40"/>
+      <c r="G267" s="41"/>
+      <c r="I267" s="41"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="35"/>
-      <c r="G268" s="36"/>
-      <c r="I268" s="36"/>
+      <c r="A268" s="40"/>
+      <c r="G268" s="41"/>
+      <c r="I268" s="41"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="35"/>
-      <c r="G269" s="36"/>
-      <c r="I269" s="36"/>
+      <c r="A269" s="40"/>
+      <c r="G269" s="41"/>
+      <c r="I269" s="41"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="35"/>
-      <c r="G270" s="36"/>
-      <c r="I270" s="36"/>
+      <c r="A270" s="40"/>
+      <c r="G270" s="41"/>
+      <c r="I270" s="41"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="35"/>
-      <c r="G271" s="36"/>
-      <c r="I271" s="36"/>
+      <c r="A271" s="40"/>
+      <c r="G271" s="41"/>
+      <c r="I271" s="41"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="35"/>
-      <c r="G272" s="36"/>
-      <c r="I272" s="36"/>
+      <c r="A272" s="40"/>
+      <c r="G272" s="41"/>
+      <c r="I272" s="41"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="35"/>
-      <c r="G273" s="36"/>
-      <c r="I273" s="36"/>
+      <c r="A273" s="40"/>
+      <c r="G273" s="41"/>
+      <c r="I273" s="41"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="35"/>
-      <c r="G274" s="36"/>
-      <c r="I274" s="36"/>
+      <c r="A274" s="40"/>
+      <c r="G274" s="41"/>
+      <c r="I274" s="41"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="35"/>
-      <c r="G275" s="36"/>
-      <c r="I275" s="36"/>
+      <c r="A275" s="40"/>
+      <c r="G275" s="41"/>
+      <c r="I275" s="41"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="35"/>
-      <c r="G276" s="36"/>
-      <c r="I276" s="36"/>
+      <c r="A276" s="40"/>
+      <c r="G276" s="41"/>
+      <c r="I276" s="41"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="35"/>
-      <c r="G277" s="36"/>
-      <c r="I277" s="36"/>
+      <c r="A277" s="40"/>
+      <c r="G277" s="41"/>
+      <c r="I277" s="41"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="35"/>
-      <c r="G278" s="36"/>
-      <c r="I278" s="36"/>
+      <c r="A278" s="40"/>
+      <c r="G278" s="41"/>
+      <c r="I278" s="41"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="35"/>
-      <c r="G279" s="36"/>
-      <c r="I279" s="36"/>
+      <c r="A279" s="40"/>
+      <c r="G279" s="41"/>
+      <c r="I279" s="41"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="35"/>
-      <c r="G280" s="36"/>
-      <c r="I280" s="36"/>
+      <c r="A280" s="40"/>
+      <c r="G280" s="41"/>
+      <c r="I280" s="41"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="35"/>
-      <c r="G281" s="36"/>
-      <c r="I281" s="36"/>
+      <c r="A281" s="40"/>
+      <c r="G281" s="41"/>
+      <c r="I281" s="41"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="35"/>
-      <c r="G282" s="36"/>
-      <c r="I282" s="36"/>
+      <c r="A282" s="40"/>
+      <c r="G282" s="41"/>
+      <c r="I282" s="41"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="35"/>
-      <c r="G283" s="36"/>
-      <c r="I283" s="36"/>
+      <c r="A283" s="40"/>
+      <c r="G283" s="41"/>
+      <c r="I283" s="41"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="35"/>
-      <c r="G284" s="36"/>
-      <c r="I284" s="36"/>
+      <c r="A284" s="40"/>
+      <c r="G284" s="41"/>
+      <c r="I284" s="41"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="35"/>
-      <c r="G285" s="36"/>
-      <c r="I285" s="36"/>
+      <c r="A285" s="40"/>
+      <c r="G285" s="41"/>
+      <c r="I285" s="41"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="35"/>
-      <c r="G286" s="36"/>
-      <c r="I286" s="36"/>
+      <c r="A286" s="40"/>
+      <c r="G286" s="41"/>
+      <c r="I286" s="41"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="35"/>
-      <c r="G287" s="36"/>
-      <c r="I287" s="36"/>
+      <c r="A287" s="40"/>
+      <c r="G287" s="41"/>
+      <c r="I287" s="41"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="35"/>
-      <c r="G288" s="36"/>
-      <c r="I288" s="36"/>
+      <c r="A288" s="40"/>
+      <c r="G288" s="41"/>
+      <c r="I288" s="41"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="35"/>
-      <c r="G289" s="36"/>
-      <c r="I289" s="36"/>
+      <c r="A289" s="40"/>
+      <c r="G289" s="41"/>
+      <c r="I289" s="41"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="35"/>
-      <c r="G290" s="36"/>
-      <c r="I290" s="36"/>
+      <c r="A290" s="40"/>
+      <c r="G290" s="41"/>
+      <c r="I290" s="41"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="35"/>
-      <c r="G291" s="36"/>
-      <c r="I291" s="36"/>
+      <c r="A291" s="40"/>
+      <c r="G291" s="41"/>
+      <c r="I291" s="41"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="35"/>
-      <c r="G292" s="36"/>
-      <c r="I292" s="36"/>
+      <c r="A292" s="40"/>
+      <c r="G292" s="41"/>
+      <c r="I292" s="41"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="35"/>
-      <c r="G293" s="36"/>
-      <c r="I293" s="36"/>
+      <c r="A293" s="40"/>
+      <c r="G293" s="41"/>
+      <c r="I293" s="41"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="35"/>
-      <c r="G294" s="36"/>
-      <c r="I294" s="36"/>
+      <c r="A294" s="40"/>
+      <c r="G294" s="41"/>
+      <c r="I294" s="41"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="35"/>
-      <c r="G295" s="36"/>
-      <c r="I295" s="36"/>
+      <c r="A295" s="40"/>
+      <c r="G295" s="41"/>
+      <c r="I295" s="41"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="35"/>
-      <c r="G296" s="36"/>
-      <c r="I296" s="36"/>
+      <c r="A296" s="40"/>
+      <c r="G296" s="41"/>
+      <c r="I296" s="41"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="35"/>
-      <c r="G297" s="36"/>
-      <c r="I297" s="36"/>
+      <c r="A297" s="40"/>
+      <c r="G297" s="41"/>
+      <c r="I297" s="41"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="35"/>
-      <c r="G298" s="36"/>
-      <c r="I298" s="36"/>
+      <c r="A298" s="40"/>
+      <c r="G298" s="41"/>
+      <c r="I298" s="41"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="35"/>
-      <c r="G299" s="36"/>
-      <c r="I299" s="36"/>
+      <c r="A299" s="40"/>
+      <c r="G299" s="41"/>
+      <c r="I299" s="41"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="35"/>
-      <c r="G300" s="36"/>
-      <c r="I300" s="36"/>
+      <c r="A300" s="40"/>
+      <c r="G300" s="41"/>
+      <c r="I300" s="41"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="35"/>
-      <c r="G301" s="36"/>
-      <c r="I301" s="36"/>
+      <c r="A301" s="40"/>
+      <c r="G301" s="41"/>
+      <c r="I301" s="41"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="35"/>
-      <c r="G302" s="36"/>
-      <c r="I302" s="36"/>
+      <c r="A302" s="40"/>
+      <c r="G302" s="41"/>
+      <c r="I302" s="41"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="35"/>
-      <c r="G303" s="36"/>
-      <c r="I303" s="36"/>
+      <c r="A303" s="40"/>
+      <c r="G303" s="41"/>
+      <c r="I303" s="41"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="35"/>
-      <c r="G304" s="36"/>
-      <c r="I304" s="36"/>
+      <c r="A304" s="40"/>
+      <c r="G304" s="41"/>
+      <c r="I304" s="41"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="35"/>
-      <c r="G305" s="36"/>
-      <c r="I305" s="36"/>
+      <c r="A305" s="40"/>
+      <c r="G305" s="41"/>
+      <c r="I305" s="41"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="35"/>
-      <c r="G306" s="36"/>
-      <c r="I306" s="36"/>
+      <c r="A306" s="40"/>
+      <c r="G306" s="41"/>
+      <c r="I306" s="41"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="35"/>
-      <c r="G307" s="36"/>
-      <c r="I307" s="36"/>
+      <c r="A307" s="40"/>
+      <c r="G307" s="41"/>
+      <c r="I307" s="41"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="35"/>
-      <c r="G308" s="36"/>
-      <c r="I308" s="36"/>
+      <c r="A308" s="40"/>
+      <c r="G308" s="41"/>
+      <c r="I308" s="41"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="35"/>
-      <c r="G309" s="36"/>
-      <c r="I309" s="36"/>
+      <c r="A309" s="40"/>
+      <c r="G309" s="41"/>
+      <c r="I309" s="41"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="35"/>
-      <c r="G310" s="36"/>
-      <c r="I310" s="36"/>
+      <c r="A310" s="40"/>
+      <c r="G310" s="41"/>
+      <c r="I310" s="41"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="35"/>
-      <c r="G311" s="36"/>
-      <c r="I311" s="36"/>
+      <c r="A311" s="40"/>
+      <c r="G311" s="41"/>
+      <c r="I311" s="41"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="35"/>
-      <c r="G312" s="36"/>
-      <c r="I312" s="36"/>
+      <c r="A312" s="40"/>
+      <c r="G312" s="41"/>
+      <c r="I312" s="41"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="35"/>
-      <c r="G313" s="36"/>
-      <c r="I313" s="36"/>
+      <c r="A313" s="40"/>
+      <c r="G313" s="41"/>
+      <c r="I313" s="41"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="35"/>
-      <c r="G314" s="36"/>
-      <c r="I314" s="36"/>
+      <c r="A314" s="40"/>
+      <c r="G314" s="41"/>
+      <c r="I314" s="41"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="35"/>
-      <c r="G315" s="36"/>
-      <c r="I315" s="36"/>
+      <c r="A315" s="40"/>
+      <c r="G315" s="41"/>
+      <c r="I315" s="41"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="35"/>
-      <c r="G316" s="36"/>
-      <c r="I316" s="36"/>
+      <c r="A316" s="40"/>
+      <c r="G316" s="41"/>
+      <c r="I316" s="41"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="35"/>
-      <c r="G317" s="36"/>
-      <c r="I317" s="36"/>
+      <c r="A317" s="40"/>
+      <c r="G317" s="41"/>
+      <c r="I317" s="41"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="35"/>
-      <c r="G318" s="36"/>
-      <c r="I318" s="36"/>
+      <c r="A318" s="40"/>
+      <c r="G318" s="41"/>
+      <c r="I318" s="41"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="35"/>
-      <c r="G319" s="36"/>
-      <c r="I319" s="36"/>
+      <c r="A319" s="40"/>
+      <c r="G319" s="41"/>
+      <c r="I319" s="41"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="35"/>
-      <c r="G320" s="36"/>
-      <c r="I320" s="36"/>
+      <c r="A320" s="40"/>
+      <c r="G320" s="41"/>
+      <c r="I320" s="41"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="35"/>
-      <c r="G321" s="36"/>
-      <c r="I321" s="36"/>
+      <c r="A321" s="40"/>
+      <c r="G321" s="41"/>
+      <c r="I321" s="41"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="35"/>
-      <c r="G322" s="36"/>
-      <c r="I322" s="36"/>
+      <c r="A322" s="40"/>
+      <c r="G322" s="41"/>
+      <c r="I322" s="41"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="35"/>
-      <c r="G323" s="36"/>
-      <c r="I323" s="36"/>
+      <c r="A323" s="40"/>
+      <c r="G323" s="41"/>
+      <c r="I323" s="41"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="35"/>
-      <c r="G324" s="36"/>
-      <c r="I324" s="36"/>
+      <c r="A324" s="40"/>
+      <c r="G324" s="41"/>
+      <c r="I324" s="41"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="35"/>
-      <c r="G325" s="36"/>
-      <c r="I325" s="36"/>
+      <c r="A325" s="40"/>
+      <c r="G325" s="41"/>
+      <c r="I325" s="41"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="35"/>
-      <c r="G326" s="36"/>
-      <c r="I326" s="36"/>
+      <c r="A326" s="40"/>
+      <c r="G326" s="41"/>
+      <c r="I326" s="41"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="35"/>
-      <c r="G327" s="36"/>
-      <c r="I327" s="36"/>
+      <c r="A327" s="40"/>
+      <c r="G327" s="41"/>
+      <c r="I327" s="41"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="35"/>
-      <c r="G328" s="36"/>
-      <c r="I328" s="36"/>
+      <c r="A328" s="40"/>
+      <c r="G328" s="41"/>
+      <c r="I328" s="41"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="35"/>
-      <c r="G329" s="36"/>
-      <c r="I329" s="36"/>
+      <c r="A329" s="40"/>
+      <c r="G329" s="41"/>
+      <c r="I329" s="41"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="35"/>
-      <c r="G330" s="36"/>
-      <c r="I330" s="36"/>
+      <c r="A330" s="40"/>
+      <c r="G330" s="41"/>
+      <c r="I330" s="41"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="35"/>
-      <c r="G331" s="36"/>
-      <c r="I331" s="36"/>
+      <c r="A331" s="40"/>
+      <c r="G331" s="41"/>
+      <c r="I331" s="41"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="35"/>
-      <c r="G332" s="36"/>
-      <c r="I332" s="36"/>
+      <c r="A332" s="40"/>
+      <c r="G332" s="41"/>
+      <c r="I332" s="41"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="35"/>
-      <c r="G333" s="36"/>
-      <c r="I333" s="36"/>
+      <c r="A333" s="40"/>
+      <c r="G333" s="41"/>
+      <c r="I333" s="41"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="35"/>
-      <c r="G334" s="36"/>
-      <c r="I334" s="36"/>
+      <c r="A334" s="40"/>
+      <c r="G334" s="41"/>
+      <c r="I334" s="41"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="35"/>
-      <c r="G335" s="36"/>
-      <c r="I335" s="36"/>
+      <c r="A335" s="40"/>
+      <c r="G335" s="41"/>
+      <c r="I335" s="41"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="35"/>
-      <c r="G336" s="36"/>
-      <c r="I336" s="36"/>
+      <c r="A336" s="40"/>
+      <c r="G336" s="41"/>
+      <c r="I336" s="41"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="35"/>
-      <c r="G337" s="36"/>
-      <c r="I337" s="36"/>
+      <c r="A337" s="40"/>
+      <c r="G337" s="41"/>
+      <c r="I337" s="41"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="35"/>
-      <c r="G338" s="36"/>
-      <c r="I338" s="36"/>
+      <c r="A338" s="40"/>
+      <c r="G338" s="41"/>
+      <c r="I338" s="41"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="35"/>
-      <c r="G339" s="36"/>
-      <c r="I339" s="36"/>
+      <c r="A339" s="40"/>
+      <c r="G339" s="41"/>
+      <c r="I339" s="41"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="35"/>
-      <c r="G340" s="36"/>
-      <c r="I340" s="36"/>
+      <c r="A340" s="40"/>
+      <c r="G340" s="41"/>
+      <c r="I340" s="41"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="35"/>
-      <c r="G341" s="36"/>
-      <c r="I341" s="36"/>
+      <c r="A341" s="40"/>
+      <c r="G341" s="41"/>
+      <c r="I341" s="41"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="35"/>
-      <c r="G342" s="36"/>
-      <c r="I342" s="36"/>
+      <c r="A342" s="40"/>
+      <c r="G342" s="41"/>
+      <c r="I342" s="41"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="35"/>
-      <c r="G343" s="36"/>
-      <c r="I343" s="36"/>
+      <c r="A343" s="40"/>
+      <c r="G343" s="41"/>
+      <c r="I343" s="41"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="35"/>
-      <c r="G344" s="36"/>
-      <c r="I344" s="36"/>
+      <c r="A344" s="40"/>
+      <c r="G344" s="41"/>
+      <c r="I344" s="41"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="35"/>
-      <c r="G345" s="36"/>
-      <c r="I345" s="36"/>
+      <c r="A345" s="40"/>
+      <c r="G345" s="41"/>
+      <c r="I345" s="41"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="35"/>
-      <c r="G346" s="36"/>
-      <c r="I346" s="36"/>
+      <c r="A346" s="40"/>
+      <c r="G346" s="41"/>
+      <c r="I346" s="41"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="35"/>
-      <c r="G347" s="36"/>
-      <c r="I347" s="36"/>
+      <c r="A347" s="40"/>
+      <c r="G347" s="41"/>
+      <c r="I347" s="41"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="35"/>
-      <c r="G348" s="36"/>
-      <c r="I348" s="36"/>
+      <c r="A348" s="40"/>
+      <c r="G348" s="41"/>
+      <c r="I348" s="41"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="35"/>
-      <c r="G349" s="36"/>
-      <c r="I349" s="36"/>
+      <c r="A349" s="40"/>
+      <c r="G349" s="41"/>
+      <c r="I349" s="41"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="35"/>
-      <c r="G350" s="36"/>
-      <c r="I350" s="36"/>
+      <c r="A350" s="40"/>
+      <c r="G350" s="41"/>
+      <c r="I350" s="41"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="35"/>
-      <c r="G351" s="36"/>
-      <c r="I351" s="36"/>
+      <c r="A351" s="40"/>
+      <c r="G351" s="41"/>
+      <c r="I351" s="41"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="35"/>
-      <c r="G352" s="36"/>
-      <c r="I352" s="36"/>
+      <c r="A352" s="40"/>
+      <c r="G352" s="41"/>
+      <c r="I352" s="41"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="35"/>
-      <c r="G353" s="36"/>
-      <c r="I353" s="36"/>
+      <c r="A353" s="40"/>
+      <c r="G353" s="41"/>
+      <c r="I353" s="41"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="35"/>
-      <c r="G354" s="36"/>
-      <c r="I354" s="36"/>
+      <c r="A354" s="40"/>
+      <c r="G354" s="41"/>
+      <c r="I354" s="41"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="35"/>
-      <c r="G355" s="36"/>
-      <c r="I355" s="36"/>
+      <c r="A355" s="40"/>
+      <c r="G355" s="41"/>
+      <c r="I355" s="41"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="35"/>
-      <c r="G356" s="36"/>
-      <c r="I356" s="36"/>
+      <c r="A356" s="40"/>
+      <c r="G356" s="41"/>
+      <c r="I356" s="41"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="35"/>
-      <c r="G357" s="36"/>
-      <c r="I357" s="36"/>
+      <c r="A357" s="40"/>
+      <c r="G357" s="41"/>
+      <c r="I357" s="41"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="35"/>
-      <c r="G358" s="36"/>
-      <c r="I358" s="36"/>
+      <c r="A358" s="40"/>
+      <c r="G358" s="41"/>
+      <c r="I358" s="41"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="35"/>
-      <c r="G359" s="36"/>
-      <c r="I359" s="36"/>
+      <c r="A359" s="40"/>
+      <c r="G359" s="41"/>
+      <c r="I359" s="41"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="35"/>
-      <c r="G360" s="36"/>
-      <c r="I360" s="36"/>
+      <c r="A360" s="40"/>
+      <c r="G360" s="41"/>
+      <c r="I360" s="41"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="35"/>
-      <c r="G361" s="36"/>
-      <c r="I361" s="36"/>
+      <c r="A361" s="40"/>
+      <c r="G361" s="41"/>
+      <c r="I361" s="41"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="35"/>
-      <c r="G362" s="36"/>
-      <c r="I362" s="36"/>
+      <c r="A362" s="40"/>
+      <c r="G362" s="41"/>
+      <c r="I362" s="41"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="35"/>
-      <c r="G363" s="36"/>
-      <c r="I363" s="36"/>
+      <c r="A363" s="40"/>
+      <c r="G363" s="41"/>
+      <c r="I363" s="41"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="35"/>
-      <c r="G364" s="36"/>
-      <c r="I364" s="36"/>
+      <c r="A364" s="40"/>
+      <c r="G364" s="41"/>
+      <c r="I364" s="41"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="35"/>
-      <c r="G365" s="36"/>
-      <c r="I365" s="36"/>
+      <c r="A365" s="40"/>
+      <c r="G365" s="41"/>
+      <c r="I365" s="41"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="35"/>
-      <c r="G366" s="36"/>
-      <c r="I366" s="36"/>
+      <c r="A366" s="40"/>
+      <c r="G366" s="41"/>
+      <c r="I366" s="41"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="35"/>
-      <c r="G367" s="36"/>
-      <c r="I367" s="36"/>
+      <c r="A367" s="40"/>
+      <c r="G367" s="41"/>
+      <c r="I367" s="41"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="35"/>
-      <c r="G368" s="36"/>
-      <c r="I368" s="36"/>
+      <c r="A368" s="40"/>
+      <c r="G368" s="41"/>
+      <c r="I368" s="41"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="35"/>
-      <c r="G369" s="36"/>
-      <c r="I369" s="36"/>
+      <c r="A369" s="40"/>
+      <c r="G369" s="41"/>
+      <c r="I369" s="41"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="35"/>
-      <c r="G370" s="36"/>
-      <c r="I370" s="36"/>
+      <c r="A370" s="40"/>
+      <c r="G370" s="41"/>
+      <c r="I370" s="41"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="35"/>
-      <c r="G371" s="36"/>
-      <c r="I371" s="36"/>
+      <c r="A371" s="40"/>
+      <c r="G371" s="41"/>
+      <c r="I371" s="41"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="35"/>
-      <c r="G372" s="36"/>
-      <c r="I372" s="36"/>
+      <c r="A372" s="40"/>
+      <c r="G372" s="41"/>
+      <c r="I372" s="41"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="35"/>
-      <c r="G373" s="36"/>
-      <c r="I373" s="36"/>
+      <c r="A373" s="40"/>
+      <c r="G373" s="41"/>
+      <c r="I373" s="41"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="35"/>
-      <c r="G374" s="36"/>
-      <c r="I374" s="36"/>
+      <c r="A374" s="40"/>
+      <c r="G374" s="41"/>
+      <c r="I374" s="41"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="35"/>
-      <c r="G375" s="36"/>
-      <c r="I375" s="36"/>
+      <c r="A375" s="40"/>
+      <c r="G375" s="41"/>
+      <c r="I375" s="41"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="35"/>
-      <c r="G376" s="36"/>
-      <c r="I376" s="36"/>
+      <c r="A376" s="40"/>
+      <c r="G376" s="41"/>
+      <c r="I376" s="41"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="35"/>
-      <c r="G377" s="36"/>
-      <c r="I377" s="36"/>
+      <c r="A377" s="40"/>
+      <c r="G377" s="41"/>
+      <c r="I377" s="41"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="35"/>
-      <c r="G378" s="36"/>
-      <c r="I378" s="36"/>
+      <c r="A378" s="40"/>
+      <c r="G378" s="41"/>
+      <c r="I378" s="41"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="35"/>
-      <c r="G379" s="36"/>
-      <c r="I379" s="36"/>
+      <c r="A379" s="40"/>
+      <c r="G379" s="41"/>
+      <c r="I379" s="41"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="35"/>
-      <c r="G380" s="36"/>
-      <c r="I380" s="36"/>
+      <c r="A380" s="40"/>
+      <c r="G380" s="41"/>
+      <c r="I380" s="41"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="35"/>
-      <c r="G381" s="36"/>
-      <c r="I381" s="36"/>
+      <c r="A381" s="40"/>
+      <c r="G381" s="41"/>
+      <c r="I381" s="41"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="35"/>
-      <c r="G382" s="36"/>
-      <c r="I382" s="36"/>
+      <c r="A382" s="40"/>
+      <c r="G382" s="41"/>
+      <c r="I382" s="41"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="35"/>
-      <c r="G383" s="36"/>
-      <c r="I383" s="36"/>
+      <c r="A383" s="40"/>
+      <c r="G383" s="41"/>
+      <c r="I383" s="41"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="35"/>
-      <c r="G384" s="36"/>
-      <c r="I384" s="36"/>
+      <c r="A384" s="40"/>
+      <c r="G384" s="41"/>
+      <c r="I384" s="41"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="35"/>
-      <c r="G385" s="36"/>
-      <c r="I385" s="36"/>
+      <c r="A385" s="40"/>
+      <c r="G385" s="41"/>
+      <c r="I385" s="41"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="35"/>
-      <c r="G386" s="36"/>
-      <c r="I386" s="36"/>
+      <c r="A386" s="40"/>
+      <c r="G386" s="41"/>
+      <c r="I386" s="41"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="35"/>
-      <c r="G387" s="36"/>
-      <c r="I387" s="36"/>
+      <c r="A387" s="40"/>
+      <c r="G387" s="41"/>
+      <c r="I387" s="41"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="35"/>
-      <c r="G388" s="36"/>
-      <c r="I388" s="36"/>
+      <c r="A388" s="40"/>
+      <c r="G388" s="41"/>
+      <c r="I388" s="41"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="35"/>
-      <c r="G389" s="36"/>
-      <c r="I389" s="36"/>
+      <c r="A389" s="40"/>
+      <c r="G389" s="41"/>
+      <c r="I389" s="41"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="35"/>
-      <c r="G390" s="36"/>
-      <c r="I390" s="36"/>
+      <c r="A390" s="40"/>
+      <c r="G390" s="41"/>
+      <c r="I390" s="41"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="35"/>
-      <c r="G391" s="36"/>
-      <c r="I391" s="36"/>
+      <c r="A391" s="40"/>
+      <c r="G391" s="41"/>
+      <c r="I391" s="41"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="35"/>
-      <c r="G392" s="36"/>
-      <c r="I392" s="36"/>
+      <c r="A392" s="40"/>
+      <c r="G392" s="41"/>
+      <c r="I392" s="41"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="35"/>
-      <c r="G393" s="36"/>
-      <c r="I393" s="36"/>
+      <c r="A393" s="40"/>
+      <c r="G393" s="41"/>
+      <c r="I393" s="41"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="35"/>
-      <c r="G394" s="36"/>
-      <c r="I394" s="36"/>
+      <c r="A394" s="40"/>
+      <c r="G394" s="41"/>
+      <c r="I394" s="41"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="35"/>
-      <c r="G395" s="36"/>
-      <c r="I395" s="36"/>
+      <c r="A395" s="40"/>
+      <c r="G395" s="41"/>
+      <c r="I395" s="41"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="35"/>
-      <c r="G396" s="36"/>
-      <c r="I396" s="36"/>
+      <c r="A396" s="40"/>
+      <c r="G396" s="41"/>
+      <c r="I396" s="41"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="35"/>
-      <c r="G397" s="36"/>
-      <c r="I397" s="36"/>
+      <c r="A397" s="40"/>
+      <c r="G397" s="41"/>
+      <c r="I397" s="41"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="35"/>
-      <c r="G398" s="36"/>
-      <c r="I398" s="36"/>
+      <c r="A398" s="40"/>
+      <c r="G398" s="41"/>
+      <c r="I398" s="41"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="35"/>
-      <c r="G399" s="36"/>
-      <c r="I399" s="36"/>
+      <c r="A399" s="40"/>
+      <c r="G399" s="41"/>
+      <c r="I399" s="41"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="35"/>
-      <c r="G400" s="36"/>
-      <c r="I400" s="36"/>
+      <c r="A400" s="40"/>
+      <c r="G400" s="41"/>
+      <c r="I400" s="41"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="35"/>
-      <c r="G401" s="36"/>
-      <c r="I401" s="36"/>
+      <c r="A401" s="40"/>
+      <c r="G401" s="41"/>
+      <c r="I401" s="41"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="35"/>
-      <c r="G402" s="36"/>
-      <c r="I402" s="36"/>
+      <c r="A402" s="40"/>
+      <c r="G402" s="41"/>
+      <c r="I402" s="41"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="35"/>
-      <c r="G403" s="36"/>
-      <c r="I403" s="36"/>
+      <c r="A403" s="40"/>
+      <c r="G403" s="41"/>
+      <c r="I403" s="41"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="35"/>
-      <c r="G404" s="36"/>
-      <c r="I404" s="36"/>
+      <c r="A404" s="40"/>
+      <c r="G404" s="41"/>
+      <c r="I404" s="41"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="35"/>
-      <c r="G405" s="36"/>
-      <c r="I405" s="36"/>
+      <c r="A405" s="40"/>
+      <c r="G405" s="41"/>
+      <c r="I405" s="41"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="35"/>
-      <c r="G406" s="36"/>
-      <c r="I406" s="36"/>
+      <c r="A406" s="40"/>
+      <c r="G406" s="41"/>
+      <c r="I406" s="41"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="35"/>
-      <c r="G407" s="36"/>
-      <c r="I407" s="36"/>
+      <c r="A407" s="40"/>
+      <c r="G407" s="41"/>
+      <c r="I407" s="41"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="35"/>
-      <c r="G408" s="36"/>
-      <c r="I408" s="36"/>
+      <c r="A408" s="40"/>
+      <c r="G408" s="41"/>
+      <c r="I408" s="41"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="35"/>
-      <c r="G409" s="36"/>
-      <c r="I409" s="36"/>
+      <c r="A409" s="40"/>
+      <c r="G409" s="41"/>
+      <c r="I409" s="41"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="35"/>
-      <c r="G410" s="36"/>
-      <c r="I410" s="36"/>
+      <c r="A410" s="40"/>
+      <c r="G410" s="41"/>
+      <c r="I410" s="41"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="35"/>
-      <c r="G411" s="36"/>
-      <c r="I411" s="36"/>
+      <c r="A411" s="40"/>
+      <c r="G411" s="41"/>
+      <c r="I411" s="41"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="35"/>
-      <c r="G412" s="36"/>
-      <c r="I412" s="36"/>
+      <c r="A412" s="40"/>
+      <c r="G412" s="41"/>
+      <c r="I412" s="41"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="35"/>
-      <c r="G413" s="36"/>
-      <c r="I413" s="36"/>
+      <c r="A413" s="40"/>
+      <c r="G413" s="41"/>
+      <c r="I413" s="41"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="35"/>
-      <c r="G414" s="36"/>
-      <c r="I414" s="36"/>
+      <c r="A414" s="40"/>
+      <c r="G414" s="41"/>
+      <c r="I414" s="41"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="35"/>
-      <c r="G415" s="36"/>
-      <c r="I415" s="36"/>
+      <c r="A415" s="40"/>
+      <c r="G415" s="41"/>
+      <c r="I415" s="41"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="35"/>
-      <c r="G416" s="36"/>
-      <c r="I416" s="36"/>
+      <c r="A416" s="40"/>
+      <c r="G416" s="41"/>
+      <c r="I416" s="41"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="35"/>
-      <c r="G417" s="36"/>
-      <c r="I417" s="36"/>
+      <c r="A417" s="40"/>
+      <c r="G417" s="41"/>
+      <c r="I417" s="41"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="35"/>
-      <c r="G418" s="36"/>
-      <c r="I418" s="36"/>
+      <c r="A418" s="40"/>
+      <c r="G418" s="41"/>
+      <c r="I418" s="41"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="35"/>
-      <c r="G419" s="36"/>
-      <c r="I419" s="36"/>
+      <c r="A419" s="40"/>
+      <c r="G419" s="41"/>
+      <c r="I419" s="41"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="35"/>
-      <c r="G420" s="36"/>
-      <c r="I420" s="36"/>
+      <c r="A420" s="40"/>
+      <c r="G420" s="41"/>
+      <c r="I420" s="41"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="35"/>
-      <c r="G421" s="36"/>
-      <c r="I421" s="36"/>
+      <c r="A421" s="40"/>
+      <c r="G421" s="41"/>
+      <c r="I421" s="41"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="35"/>
-      <c r="G422" s="36"/>
-      <c r="I422" s="36"/>
+      <c r="A422" s="40"/>
+      <c r="G422" s="41"/>
+      <c r="I422" s="41"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="35"/>
-      <c r="G423" s="36"/>
-      <c r="I423" s="36"/>
+      <c r="A423" s="40"/>
+      <c r="G423" s="41"/>
+      <c r="I423" s="41"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="35"/>
-      <c r="G424" s="36"/>
-      <c r="I424" s="36"/>
+      <c r="A424" s="40"/>
+      <c r="G424" s="41"/>
+      <c r="I424" s="41"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="35"/>
-      <c r="G425" s="36"/>
-      <c r="I425" s="36"/>
+      <c r="A425" s="40"/>
+      <c r="G425" s="41"/>
+      <c r="I425" s="41"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="35"/>
-      <c r="G426" s="36"/>
-      <c r="I426" s="36"/>
+      <c r="A426" s="40"/>
+      <c r="G426" s="41"/>
+      <c r="I426" s="41"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="35"/>
-      <c r="G427" s="36"/>
-      <c r="I427" s="36"/>
+      <c r="A427" s="40"/>
+      <c r="G427" s="41"/>
+      <c r="I427" s="41"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="35"/>
-      <c r="G428" s="36"/>
-      <c r="I428" s="36"/>
+      <c r="A428" s="40"/>
+      <c r="G428" s="41"/>
+      <c r="I428" s="41"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="35"/>
-      <c r="G429" s="36"/>
-      <c r="I429" s="36"/>
+      <c r="A429" s="40"/>
+      <c r="G429" s="41"/>
+      <c r="I429" s="41"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="35"/>
-      <c r="G430" s="36"/>
-      <c r="I430" s="36"/>
+      <c r="A430" s="40"/>
+      <c r="G430" s="41"/>
+      <c r="I430" s="41"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="35"/>
-      <c r="G431" s="36"/>
-      <c r="I431" s="36"/>
+      <c r="A431" s="40"/>
+      <c r="G431" s="41"/>
+      <c r="I431" s="41"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="35"/>
-      <c r="G432" s="36"/>
-      <c r="I432" s="36"/>
+      <c r="A432" s="40"/>
+      <c r="G432" s="41"/>
+      <c r="I432" s="41"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="35"/>
-      <c r="G433" s="36"/>
-      <c r="I433" s="36"/>
+      <c r="A433" s="40"/>
+      <c r="G433" s="41"/>
+      <c r="I433" s="41"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="35"/>
-      <c r="G434" s="36"/>
-      <c r="I434" s="36"/>
+      <c r="A434" s="40"/>
+      <c r="G434" s="41"/>
+      <c r="I434" s="41"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="35"/>
-      <c r="G435" s="36"/>
-      <c r="I435" s="36"/>
+      <c r="A435" s="40"/>
+      <c r="G435" s="41"/>
+      <c r="I435" s="41"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="35"/>
-      <c r="G436" s="36"/>
-      <c r="I436" s="36"/>
+      <c r="A436" s="40"/>
+      <c r="G436" s="41"/>
+      <c r="I436" s="41"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="35"/>
-      <c r="G437" s="36"/>
-      <c r="I437" s="36"/>
+      <c r="A437" s="40"/>
+      <c r="G437" s="41"/>
+      <c r="I437" s="41"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="35"/>
-      <c r="G438" s="36"/>
-      <c r="I438" s="36"/>
+      <c r="A438" s="40"/>
+      <c r="G438" s="41"/>
+      <c r="I438" s="41"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="35"/>
-      <c r="G439" s="36"/>
-      <c r="I439" s="36"/>
+      <c r="A439" s="40"/>
+      <c r="G439" s="41"/>
+      <c r="I439" s="41"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="35"/>
-      <c r="G440" s="36"/>
-      <c r="I440" s="36"/>
+      <c r="A440" s="40"/>
+      <c r="G440" s="41"/>
+      <c r="I440" s="41"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="35"/>
-      <c r="G441" s="36"/>
-      <c r="I441" s="36"/>
+      <c r="A441" s="40"/>
+      <c r="G441" s="41"/>
+      <c r="I441" s="41"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="35"/>
-      <c r="G442" s="36"/>
-      <c r="I442" s="36"/>
+      <c r="A442" s="40"/>
+      <c r="G442" s="41"/>
+      <c r="I442" s="41"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="35"/>
-      <c r="G443" s="36"/>
-      <c r="I443" s="36"/>
+      <c r="A443" s="40"/>
+      <c r="G443" s="41"/>
+      <c r="I443" s="41"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="35"/>
-      <c r="G444" s="36"/>
-      <c r="I444" s="36"/>
+      <c r="A444" s="40"/>
+      <c r="G444" s="41"/>
+      <c r="I444" s="41"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="35"/>
-      <c r="G445" s="36"/>
-      <c r="I445" s="36"/>
+      <c r="A445" s="40"/>
+      <c r="G445" s="41"/>
+      <c r="I445" s="41"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="35"/>
-      <c r="G446" s="36"/>
-      <c r="I446" s="36"/>
+      <c r="A446" s="40"/>
+      <c r="G446" s="41"/>
+      <c r="I446" s="41"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="35"/>
-      <c r="G447" s="36"/>
-      <c r="I447" s="36"/>
+      <c r="A447" s="40"/>
+      <c r="G447" s="41"/>
+      <c r="I447" s="41"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="35"/>
-      <c r="G448" s="36"/>
-      <c r="I448" s="36"/>
+      <c r="A448" s="40"/>
+      <c r="G448" s="41"/>
+      <c r="I448" s="41"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="35"/>
-      <c r="G449" s="36"/>
-      <c r="I449" s="36"/>
+      <c r="A449" s="40"/>
+      <c r="G449" s="41"/>
+      <c r="I449" s="41"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="35"/>
-      <c r="G450" s="36"/>
-      <c r="I450" s="36"/>
+      <c r="A450" s="40"/>
+      <c r="G450" s="41"/>
+      <c r="I450" s="41"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="35"/>
-      <c r="G451" s="36"/>
-      <c r="I451" s="36"/>
+      <c r="A451" s="40"/>
+      <c r="G451" s="41"/>
+      <c r="I451" s="41"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="35"/>
-      <c r="G452" s="36"/>
-      <c r="I452" s="36"/>
+      <c r="A452" s="40"/>
+      <c r="G452" s="41"/>
+      <c r="I452" s="41"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="35"/>
-      <c r="G453" s="36"/>
-      <c r="I453" s="36"/>
+      <c r="A453" s="40"/>
+      <c r="G453" s="41"/>
+      <c r="I453" s="41"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="35"/>
-      <c r="G454" s="36"/>
-      <c r="I454" s="36"/>
+      <c r="A454" s="40"/>
+      <c r="G454" s="41"/>
+      <c r="I454" s="41"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="35"/>
-      <c r="G455" s="36"/>
-      <c r="I455" s="36"/>
+      <c r="A455" s="40"/>
+      <c r="G455" s="41"/>
+      <c r="I455" s="41"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="35"/>
-      <c r="G456" s="36"/>
-      <c r="I456" s="36"/>
+      <c r="A456" s="40"/>
+      <c r="G456" s="41"/>
+      <c r="I456" s="41"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="35"/>
-      <c r="G457" s="36"/>
-      <c r="I457" s="36"/>
+      <c r="A457" s="40"/>
+      <c r="G457" s="41"/>
+      <c r="I457" s="41"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="35"/>
-      <c r="G458" s="36"/>
-      <c r="I458" s="36"/>
+      <c r="A458" s="40"/>
+      <c r="G458" s="41"/>
+      <c r="I458" s="41"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="35"/>
-      <c r="G459" s="36"/>
-      <c r="I459" s="36"/>
+      <c r="A459" s="40"/>
+      <c r="G459" s="41"/>
+      <c r="I459" s="41"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="35"/>
-      <c r="G460" s="36"/>
-      <c r="I460" s="36"/>
+      <c r="A460" s="40"/>
+      <c r="G460" s="41"/>
+      <c r="I460" s="41"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="35"/>
-      <c r="G461" s="36"/>
-      <c r="I461" s="36"/>
+      <c r="A461" s="40"/>
+      <c r="G461" s="41"/>
+      <c r="I461" s="41"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="35"/>
-      <c r="G462" s="36"/>
-      <c r="I462" s="36"/>
+      <c r="A462" s="40"/>
+      <c r="G462" s="41"/>
+      <c r="I462" s="41"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="35"/>
-      <c r="G463" s="36"/>
-      <c r="I463" s="36"/>
+      <c r="A463" s="40"/>
+      <c r="G463" s="41"/>
+      <c r="I463" s="41"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="35"/>
-      <c r="G464" s="36"/>
-      <c r="I464" s="36"/>
+      <c r="A464" s="40"/>
+      <c r="G464" s="41"/>
+      <c r="I464" s="41"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="35"/>
-      <c r="G465" s="36"/>
-      <c r="I465" s="36"/>
+      <c r="A465" s="40"/>
+      <c r="G465" s="41"/>
+      <c r="I465" s="41"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="35"/>
-      <c r="G466" s="36"/>
-      <c r="I466" s="36"/>
+      <c r="A466" s="40"/>
+      <c r="G466" s="41"/>
+      <c r="I466" s="41"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="35"/>
-      <c r="G467" s="36"/>
-      <c r="I467" s="36"/>
+      <c r="A467" s="40"/>
+      <c r="G467" s="41"/>
+      <c r="I467" s="41"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="35"/>
-      <c r="G468" s="36"/>
-      <c r="I468" s="36"/>
+      <c r="A468" s="40"/>
+      <c r="G468" s="41"/>
+      <c r="I468" s="41"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="35"/>
-      <c r="G469" s="36"/>
-      <c r="I469" s="36"/>
+      <c r="A469" s="40"/>
+      <c r="G469" s="41"/>
+      <c r="I469" s="41"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="35"/>
-      <c r="G470" s="36"/>
-      <c r="I470" s="36"/>
+      <c r="A470" s="40"/>
+      <c r="G470" s="41"/>
+      <c r="I470" s="41"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="35"/>
-      <c r="G471" s="36"/>
-      <c r="I471" s="36"/>
+      <c r="A471" s="40"/>
+      <c r="G471" s="41"/>
+      <c r="I471" s="41"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="35"/>
-      <c r="G472" s="36"/>
-      <c r="I472" s="36"/>
+      <c r="A472" s="40"/>
+      <c r="G472" s="41"/>
+      <c r="I472" s="41"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="35"/>
-      <c r="G473" s="36"/>
-      <c r="I473" s="36"/>
+      <c r="A473" s="40"/>
+      <c r="G473" s="41"/>
+      <c r="I473" s="41"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="35"/>
-      <c r="G474" s="36"/>
-      <c r="I474" s="36"/>
+      <c r="A474" s="40"/>
+      <c r="G474" s="41"/>
+      <c r="I474" s="41"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="35"/>
-      <c r="G475" s="36"/>
-      <c r="I475" s="36"/>
+      <c r="A475" s="40"/>
+      <c r="G475" s="41"/>
+      <c r="I475" s="41"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="35"/>
-      <c r="G476" s="36"/>
-      <c r="I476" s="36"/>
+      <c r="A476" s="40"/>
+      <c r="G476" s="41"/>
+      <c r="I476" s="41"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="35"/>
-      <c r="G477" s="36"/>
-      <c r="I477" s="36"/>
+      <c r="A477" s="40"/>
+      <c r="G477" s="41"/>
+      <c r="I477" s="41"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="35"/>
-      <c r="G478" s="36"/>
-      <c r="I478" s="36"/>
+      <c r="A478" s="40"/>
+      <c r="G478" s="41"/>
+      <c r="I478" s="41"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="35"/>
-      <c r="G479" s="36"/>
-      <c r="I479" s="36"/>
+      <c r="A479" s="40"/>
+      <c r="G479" s="41"/>
+      <c r="I479" s="41"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="35"/>
-      <c r="G480" s="36"/>
-      <c r="I480" s="36"/>
+      <c r="A480" s="40"/>
+      <c r="G480" s="41"/>
+      <c r="I480" s="41"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="35"/>
-      <c r="G481" s="36"/>
-      <c r="I481" s="36"/>
+      <c r="A481" s="40"/>
+      <c r="G481" s="41"/>
+      <c r="I481" s="41"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="35"/>
-      <c r="G482" s="36"/>
-      <c r="I482" s="36"/>
+      <c r="A482" s="40"/>
+      <c r="G482" s="41"/>
+      <c r="I482" s="41"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="35"/>
-      <c r="G483" s="36"/>
-      <c r="I483" s="36"/>
+      <c r="A483" s="40"/>
+      <c r="G483" s="41"/>
+      <c r="I483" s="41"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="35"/>
-      <c r="G484" s="36"/>
-      <c r="I484" s="36"/>
+      <c r="A484" s="40"/>
+      <c r="G484" s="41"/>
+      <c r="I484" s="41"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="35"/>
-      <c r="G485" s="36"/>
-      <c r="I485" s="36"/>
+      <c r="A485" s="40"/>
+      <c r="G485" s="41"/>
+      <c r="I485" s="41"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="35"/>
-      <c r="G486" s="36"/>
-      <c r="I486" s="36"/>
+      <c r="A486" s="40"/>
+      <c r="G486" s="41"/>
+      <c r="I486" s="41"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="35"/>
-      <c r="G487" s="36"/>
-      <c r="I487" s="36"/>
+      <c r="A487" s="40"/>
+      <c r="G487" s="41"/>
+      <c r="I487" s="41"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="35"/>
-      <c r="G488" s="36"/>
-      <c r="I488" s="36"/>
+      <c r="A488" s="40"/>
+      <c r="G488" s="41"/>
+      <c r="I488" s="41"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="35"/>
-      <c r="G489" s="36"/>
-      <c r="I489" s="36"/>
+      <c r="A489" s="40"/>
+      <c r="G489" s="41"/>
+      <c r="I489" s="41"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="35"/>
-      <c r="G490" s="36"/>
-      <c r="I490" s="36"/>
+      <c r="A490" s="40"/>
+      <c r="G490" s="41"/>
+      <c r="I490" s="41"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="35"/>
-      <c r="G491" s="36"/>
-      <c r="I491" s="36"/>
+      <c r="A491" s="40"/>
+      <c r="G491" s="41"/>
+      <c r="I491" s="41"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="35"/>
-      <c r="G492" s="36"/>
-      <c r="I492" s="36"/>
+      <c r="A492" s="40"/>
+      <c r="G492" s="41"/>
+      <c r="I492" s="41"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="35"/>
-      <c r="G493" s="36"/>
-      <c r="I493" s="36"/>
+      <c r="A493" s="40"/>
+      <c r="G493" s="41"/>
+      <c r="I493" s="41"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="35"/>
-      <c r="G494" s="36"/>
-      <c r="I494" s="36"/>
+      <c r="A494" s="40"/>
+      <c r="G494" s="41"/>
+      <c r="I494" s="41"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="35"/>
-      <c r="G495" s="36"/>
-      <c r="I495" s="36"/>
+      <c r="A495" s="40"/>
+      <c r="G495" s="41"/>
+      <c r="I495" s="41"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="35"/>
-      <c r="G496" s="36"/>
-      <c r="I496" s="36"/>
+      <c r="A496" s="40"/>
+      <c r="G496" s="41"/>
+      <c r="I496" s="41"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="35"/>
-      <c r="G497" s="36"/>
-      <c r="I497" s="36"/>
+      <c r="A497" s="40"/>
+      <c r="G497" s="41"/>
+      <c r="I497" s="41"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="35"/>
-      <c r="G498" s="36"/>
-      <c r="I498" s="36"/>
+      <c r="A498" s="40"/>
+      <c r="G498" s="41"/>
+      <c r="I498" s="41"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="35"/>
-      <c r="G499" s="36"/>
-      <c r="I499" s="36"/>
+      <c r="A499" s="40"/>
+      <c r="G499" s="41"/>
+      <c r="I499" s="41"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="35"/>
-      <c r="G500" s="36"/>
-      <c r="I500" s="36"/>
+      <c r="A500" s="40"/>
+      <c r="G500" s="41"/>
+      <c r="I500" s="41"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="35"/>
-      <c r="G501" s="36"/>
-      <c r="I501" s="36"/>
+      <c r="A501" s="40"/>
+      <c r="G501" s="41"/>
+      <c r="I501" s="41"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="35"/>
-      <c r="G502" s="36"/>
-      <c r="I502" s="36"/>
+      <c r="A502" s="40"/>
+      <c r="G502" s="41"/>
+      <c r="I502" s="41"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="35"/>
-      <c r="G503" s="36"/>
-      <c r="I503" s="36"/>
+      <c r="A503" s="40"/>
+      <c r="G503" s="41"/>
+      <c r="I503" s="41"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="35"/>
-      <c r="G504" s="36"/>
-      <c r="I504" s="36"/>
+      <c r="A504" s="40"/>
+      <c r="G504" s="41"/>
+      <c r="I504" s="41"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="35"/>
-      <c r="G505" s="36"/>
-      <c r="I505" s="36"/>
+      <c r="A505" s="40"/>
+      <c r="G505" s="41"/>
+      <c r="I505" s="41"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="35"/>
-      <c r="G506" s="36"/>
-      <c r="I506" s="36"/>
+      <c r="A506" s="40"/>
+      <c r="G506" s="41"/>
+      <c r="I506" s="41"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="35"/>
-      <c r="G507" s="36"/>
-      <c r="I507" s="36"/>
+      <c r="A507" s="40"/>
+      <c r="G507" s="41"/>
+      <c r="I507" s="41"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="35"/>
-      <c r="G508" s="36"/>
-      <c r="I508" s="36"/>
+      <c r="A508" s="40"/>
+      <c r="G508" s="41"/>
+      <c r="I508" s="41"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="35"/>
-      <c r="G509" s="36"/>
-      <c r="I509" s="36"/>
+      <c r="A509" s="40"/>
+      <c r="G509" s="41"/>
+      <c r="I509" s="41"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="35"/>
-      <c r="G510" s="36"/>
-      <c r="I510" s="36"/>
+      <c r="A510" s="40"/>
+      <c r="G510" s="41"/>
+      <c r="I510" s="41"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="35"/>
-      <c r="G511" s="36"/>
-      <c r="I511" s="36"/>
+      <c r="A511" s="40"/>
+      <c r="G511" s="41"/>
+      <c r="I511" s="41"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="35"/>
-      <c r="G512" s="36"/>
-      <c r="I512" s="36"/>
+      <c r="A512" s="40"/>
+      <c r="G512" s="41"/>
+      <c r="I512" s="41"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="35"/>
-      <c r="G513" s="36"/>
-      <c r="I513" s="36"/>
+      <c r="A513" s="40"/>
+      <c r="G513" s="41"/>
+      <c r="I513" s="41"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="35"/>
-      <c r="G514" s="36"/>
-      <c r="I514" s="36"/>
+      <c r="A514" s="40"/>
+      <c r="G514" s="41"/>
+      <c r="I514" s="41"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="35"/>
-      <c r="G515" s="36"/>
-      <c r="I515" s="36"/>
+      <c r="A515" s="40"/>
+      <c r="G515" s="41"/>
+      <c r="I515" s="41"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="35"/>
-      <c r="G516" s="36"/>
-      <c r="I516" s="36"/>
+      <c r="A516" s="40"/>
+      <c r="G516" s="41"/>
+      <c r="I516" s="41"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="35"/>
-      <c r="G517" s="36"/>
-      <c r="I517" s="36"/>
+      <c r="A517" s="40"/>
+      <c r="G517" s="41"/>
+      <c r="I517" s="41"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="35"/>
-      <c r="G518" s="36"/>
-      <c r="I518" s="36"/>
+      <c r="A518" s="40"/>
+      <c r="G518" s="41"/>
+      <c r="I518" s="41"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="35"/>
-      <c r="G519" s="36"/>
-      <c r="I519" s="36"/>
+      <c r="A519" s="40"/>
+      <c r="G519" s="41"/>
+      <c r="I519" s="41"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="35"/>
-      <c r="G520" s="36"/>
-      <c r="I520" s="36"/>
+      <c r="A520" s="40"/>
+      <c r="G520" s="41"/>
+      <c r="I520" s="41"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="35"/>
-      <c r="G521" s="36"/>
-      <c r="I521" s="36"/>
+      <c r="A521" s="40"/>
+      <c r="G521" s="41"/>
+      <c r="I521" s="41"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="35"/>
-      <c r="G522" s="36"/>
-      <c r="I522" s="36"/>
+      <c r="A522" s="40"/>
+      <c r="G522" s="41"/>
+      <c r="I522" s="41"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="35"/>
-      <c r="G523" s="36"/>
-      <c r="I523" s="36"/>
+      <c r="A523" s="40"/>
+      <c r="G523" s="41"/>
+      <c r="I523" s="41"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="35"/>
-      <c r="G524" s="36"/>
-      <c r="I524" s="36"/>
+      <c r="A524" s="40"/>
+      <c r="G524" s="41"/>
+      <c r="I524" s="41"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="35"/>
-      <c r="G525" s="36"/>
-      <c r="I525" s="36"/>
+      <c r="A525" s="40"/>
+      <c r="G525" s="41"/>
+      <c r="I525" s="41"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="35"/>
-      <c r="G526" s="36"/>
-      <c r="I526" s="36"/>
+      <c r="A526" s="40"/>
+      <c r="G526" s="41"/>
+      <c r="I526" s="41"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="35"/>
-      <c r="G527" s="36"/>
-      <c r="I527" s="36"/>
+      <c r="A527" s="40"/>
+      <c r="G527" s="41"/>
+      <c r="I527" s="41"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="35"/>
-      <c r="G528" s="36"/>
-      <c r="I528" s="36"/>
+      <c r="A528" s="40"/>
+      <c r="G528" s="41"/>
+      <c r="I528" s="41"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="35"/>
-      <c r="G529" s="36"/>
-      <c r="I529" s="36"/>
+      <c r="A529" s="40"/>
+      <c r="G529" s="41"/>
+      <c r="I529" s="41"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="35"/>
-      <c r="G530" s="36"/>
-      <c r="I530" s="36"/>
+      <c r="A530" s="40"/>
+      <c r="G530" s="41"/>
+      <c r="I530" s="41"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="35"/>
-      <c r="G531" s="36"/>
-      <c r="I531" s="36"/>
+      <c r="A531" s="40"/>
+      <c r="G531" s="41"/>
+      <c r="I531" s="41"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="35"/>
-      <c r="G532" s="36"/>
-      <c r="I532" s="36"/>
+      <c r="A532" s="40"/>
+      <c r="G532" s="41"/>
+      <c r="I532" s="41"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="35"/>
-      <c r="G533" s="36"/>
-      <c r="I533" s="36"/>
+      <c r="A533" s="40"/>
+      <c r="G533" s="41"/>
+      <c r="I533" s="41"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="35"/>
-      <c r="G534" s="36"/>
-      <c r="I534" s="36"/>
+      <c r="A534" s="40"/>
+      <c r="G534" s="41"/>
+      <c r="I534" s="41"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="35"/>
-      <c r="G535" s="36"/>
-      <c r="I535" s="36"/>
+      <c r="A535" s="40"/>
+      <c r="G535" s="41"/>
+      <c r="I535" s="41"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="35"/>
-      <c r="G536" s="36"/>
-      <c r="I536" s="36"/>
+      <c r="A536" s="40"/>
+      <c r="G536" s="41"/>
+      <c r="I536" s="41"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="35"/>
-      <c r="G537" s="36"/>
-      <c r="I537" s="36"/>
+      <c r="A537" s="40"/>
+      <c r="G537" s="41"/>
+      <c r="I537" s="41"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="35"/>
-      <c r="G538" s="36"/>
-      <c r="I538" s="36"/>
+      <c r="A538" s="40"/>
+      <c r="G538" s="41"/>
+      <c r="I538" s="41"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="35"/>
-      <c r="G539" s="36"/>
-      <c r="I539" s="36"/>
+      <c r="A539" s="40"/>
+      <c r="G539" s="41"/>
+      <c r="I539" s="41"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="35"/>
-      <c r="G540" s="36"/>
-      <c r="I540" s="36"/>
+      <c r="A540" s="40"/>
+      <c r="G540" s="41"/>
+      <c r="I540" s="41"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="35"/>
-      <c r="G541" s="36"/>
-      <c r="I541" s="36"/>
+      <c r="A541" s="40"/>
+      <c r="G541" s="41"/>
+      <c r="I541" s="41"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="35"/>
-      <c r="G542" s="36"/>
-      <c r="I542" s="36"/>
+      <c r="A542" s="40"/>
+      <c r="G542" s="41"/>
+      <c r="I542" s="41"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="35"/>
-      <c r="G543" s="36"/>
-      <c r="I543" s="36"/>
+      <c r="A543" s="40"/>
+      <c r="G543" s="41"/>
+      <c r="I543" s="41"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="35"/>
-      <c r="G544" s="36"/>
-      <c r="I544" s="36"/>
+      <c r="A544" s="40"/>
+      <c r="G544" s="41"/>
+      <c r="I544" s="41"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="35"/>
-      <c r="G545" s="36"/>
-      <c r="I545" s="36"/>
+      <c r="A545" s="40"/>
+      <c r="G545" s="41"/>
+      <c r="I545" s="41"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="35"/>
-      <c r="G546" s="36"/>
-      <c r="I546" s="36"/>
+      <c r="A546" s="40"/>
+      <c r="G546" s="41"/>
+      <c r="I546" s="41"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="35"/>
-      <c r="G547" s="36"/>
-      <c r="I547" s="36"/>
+      <c r="A547" s="40"/>
+      <c r="G547" s="41"/>
+      <c r="I547" s="41"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="35"/>
-      <c r="G548" s="36"/>
-      <c r="I548" s="36"/>
+      <c r="A548" s="40"/>
+      <c r="G548" s="41"/>
+      <c r="I548" s="41"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="35"/>
-      <c r="G549" s="36"/>
-      <c r="I549" s="36"/>
+      <c r="A549" s="40"/>
+      <c r="G549" s="41"/>
+      <c r="I549" s="41"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="35"/>
-      <c r="G550" s="36"/>
-      <c r="I550" s="36"/>
+      <c r="A550" s="40"/>
+      <c r="G550" s="41"/>
+      <c r="I550" s="41"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="35"/>
-      <c r="G551" s="36"/>
-      <c r="I551" s="36"/>
+      <c r="A551" s="40"/>
+      <c r="G551" s="41"/>
+      <c r="I551" s="41"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="35"/>
-      <c r="G552" s="36"/>
-      <c r="I552" s="36"/>
+      <c r="A552" s="40"/>
+      <c r="G552" s="41"/>
+      <c r="I552" s="41"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="35"/>
-      <c r="G553" s="36"/>
-      <c r="I553" s="36"/>
+      <c r="A553" s="40"/>
+      <c r="G553" s="41"/>
+      <c r="I553" s="41"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="35"/>
-      <c r="G554" s="36"/>
-      <c r="I554" s="36"/>
+      <c r="A554" s="40"/>
+      <c r="G554" s="41"/>
+      <c r="I554" s="41"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="35"/>
-      <c r="G555" s="36"/>
-      <c r="I555" s="36"/>
+      <c r="A555" s="40"/>
+      <c r="G555" s="41"/>
+      <c r="I555" s="41"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="35"/>
-      <c r="G556" s="36"/>
-      <c r="I556" s="36"/>
+      <c r="A556" s="40"/>
+      <c r="G556" s="41"/>
+      <c r="I556" s="41"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="35"/>
-      <c r="G557" s="36"/>
-      <c r="I557" s="36"/>
+      <c r="A557" s="40"/>
+      <c r="G557" s="41"/>
+      <c r="I557" s="41"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="35"/>
-      <c r="G558" s="36"/>
-      <c r="I558" s="36"/>
+      <c r="A558" s="40"/>
+      <c r="G558" s="41"/>
+      <c r="I558" s="41"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="35"/>
-      <c r="G559" s="36"/>
-      <c r="I559" s="36"/>
+      <c r="A559" s="40"/>
+      <c r="G559" s="41"/>
+      <c r="I559" s="41"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="35"/>
-      <c r="G560" s="36"/>
-      <c r="I560" s="36"/>
+      <c r="A560" s="40"/>
+      <c r="G560" s="41"/>
+      <c r="I560" s="41"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="35"/>
-      <c r="G561" s="36"/>
-      <c r="I561" s="36"/>
+      <c r="A561" s="40"/>
+      <c r="G561" s="41"/>
+      <c r="I561" s="41"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="35"/>
-      <c r="G562" s="36"/>
-      <c r="I562" s="36"/>
+      <c r="A562" s="40"/>
+      <c r="G562" s="41"/>
+      <c r="I562" s="41"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="35"/>
-      <c r="G563" s="36"/>
-      <c r="I563" s="36"/>
+      <c r="A563" s="40"/>
+      <c r="G563" s="41"/>
+      <c r="I563" s="41"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="35"/>
-      <c r="G564" s="36"/>
-      <c r="I564" s="36"/>
+      <c r="A564" s="40"/>
+      <c r="G564" s="41"/>
+      <c r="I564" s="41"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="35"/>
-      <c r="G565" s="36"/>
-      <c r="I565" s="36"/>
+      <c r="A565" s="40"/>
+      <c r="G565" s="41"/>
+      <c r="I565" s="41"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="35"/>
-      <c r="G566" s="36"/>
-      <c r="I566" s="36"/>
+      <c r="A566" s="40"/>
+      <c r="G566" s="41"/>
+      <c r="I566" s="41"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="35"/>
-      <c r="G567" s="36"/>
-      <c r="I567" s="36"/>
+      <c r="A567" s="40"/>
+      <c r="G567" s="41"/>
+      <c r="I567" s="41"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="35"/>
-      <c r="G568" s="36"/>
-      <c r="I568" s="36"/>
+      <c r="A568" s="40"/>
+      <c r="G568" s="41"/>
+      <c r="I568" s="41"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="35"/>
-      <c r="G569" s="36"/>
-      <c r="I569" s="36"/>
+      <c r="A569" s="40"/>
+      <c r="G569" s="41"/>
+      <c r="I569" s="41"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="35"/>
-      <c r="G570" s="36"/>
-      <c r="I570" s="36"/>
+      <c r="A570" s="40"/>
+      <c r="G570" s="41"/>
+      <c r="I570" s="41"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="35"/>
-      <c r="G571" s="36"/>
-      <c r="I571" s="36"/>
+      <c r="A571" s="40"/>
+      <c r="G571" s="41"/>
+      <c r="I571" s="41"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="35"/>
-      <c r="G572" s="36"/>
-      <c r="I572" s="36"/>
+      <c r="A572" s="40"/>
+      <c r="G572" s="41"/>
+      <c r="I572" s="41"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="35"/>
-      <c r="G573" s="36"/>
-      <c r="I573" s="36"/>
+      <c r="A573" s="40"/>
+      <c r="G573" s="41"/>
+      <c r="I573" s="41"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="35"/>
-      <c r="G574" s="36"/>
-      <c r="I574" s="36"/>
+      <c r="A574" s="40"/>
+      <c r="G574" s="41"/>
+      <c r="I574" s="41"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="35"/>
-      <c r="G575" s="36"/>
-      <c r="I575" s="36"/>
+      <c r="A575" s="40"/>
+      <c r="G575" s="41"/>
+      <c r="I575" s="41"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="35"/>
-      <c r="G576" s="36"/>
-      <c r="I576" s="36"/>
+      <c r="A576" s="40"/>
+      <c r="G576" s="41"/>
+      <c r="I576" s="41"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="35"/>
-      <c r="G577" s="36"/>
-      <c r="I577" s="36"/>
+      <c r="A577" s="40"/>
+      <c r="G577" s="41"/>
+      <c r="I577" s="41"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="35"/>
-      <c r="G578" s="36"/>
-      <c r="I578" s="36"/>
+      <c r="A578" s="40"/>
+      <c r="G578" s="41"/>
+      <c r="I578" s="41"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="35"/>
-      <c r="G579" s="36"/>
-      <c r="I579" s="36"/>
+      <c r="A579" s="40"/>
+      <c r="G579" s="41"/>
+      <c r="I579" s="41"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="35"/>
-      <c r="G580" s="36"/>
-      <c r="I580" s="36"/>
+      <c r="A580" s="40"/>
+      <c r="G580" s="41"/>
+      <c r="I580" s="41"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="35"/>
-      <c r="G581" s="36"/>
-      <c r="I581" s="36"/>
+      <c r="A581" s="40"/>
+      <c r="G581" s="41"/>
+      <c r="I581" s="41"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="35"/>
-      <c r="G582" s="36"/>
-      <c r="I582" s="36"/>
+      <c r="A582" s="40"/>
+      <c r="G582" s="41"/>
+      <c r="I582" s="41"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="35"/>
-      <c r="G583" s="36"/>
-      <c r="I583" s="36"/>
+      <c r="A583" s="40"/>
+      <c r="G583" s="41"/>
+      <c r="I583" s="41"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="35"/>
-      <c r="G584" s="36"/>
-      <c r="I584" s="36"/>
+      <c r="A584" s="40"/>
+      <c r="G584" s="41"/>
+      <c r="I584" s="41"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="35"/>
-      <c r="G585" s="36"/>
-      <c r="I585" s="36"/>
+      <c r="A585" s="40"/>
+      <c r="G585" s="41"/>
+      <c r="I585" s="41"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="35"/>
-      <c r="G586" s="36"/>
-      <c r="I586" s="36"/>
+      <c r="A586" s="40"/>
+      <c r="G586" s="41"/>
+      <c r="I586" s="41"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="35"/>
-      <c r="G587" s="36"/>
-      <c r="I587" s="36"/>
+      <c r="A587" s="40"/>
+      <c r="G587" s="41"/>
+      <c r="I587" s="41"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="35"/>
-      <c r="G588" s="36"/>
-      <c r="I588" s="36"/>
+      <c r="A588" s="40"/>
+      <c r="G588" s="41"/>
+      <c r="I588" s="41"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="35"/>
-      <c r="G589" s="36"/>
-      <c r="I589" s="36"/>
+      <c r="A589" s="40"/>
+      <c r="G589" s="41"/>
+      <c r="I589" s="41"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="35"/>
-      <c r="G590" s="36"/>
-      <c r="I590" s="36"/>
+      <c r="A590" s="40"/>
+      <c r="G590" s="41"/>
+      <c r="I590" s="41"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="35"/>
-      <c r="G591" s="36"/>
-      <c r="I591" s="36"/>
+      <c r="A591" s="40"/>
+      <c r="G591" s="41"/>
+      <c r="I591" s="41"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="35"/>
-      <c r="G592" s="36"/>
-      <c r="I592" s="36"/>
+      <c r="A592" s="40"/>
+      <c r="G592" s="41"/>
+      <c r="I592" s="41"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="35"/>
-      <c r="G593" s="36"/>
-      <c r="I593" s="36"/>
+      <c r="A593" s="40"/>
+      <c r="G593" s="41"/>
+      <c r="I593" s="41"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="35"/>
-      <c r="G594" s="36"/>
-      <c r="I594" s="36"/>
+      <c r="A594" s="40"/>
+      <c r="G594" s="41"/>
+      <c r="I594" s="41"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="35"/>
-      <c r="G595" s="36"/>
-      <c r="I595" s="36"/>
+      <c r="A595" s="40"/>
+      <c r="G595" s="41"/>
+      <c r="I595" s="41"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="35"/>
-      <c r="G596" s="36"/>
-      <c r="I596" s="36"/>
+      <c r="A596" s="40"/>
+      <c r="G596" s="41"/>
+      <c r="I596" s="41"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="35"/>
-      <c r="G597" s="36"/>
-      <c r="I597" s="36"/>
+      <c r="A597" s="40"/>
+      <c r="G597" s="41"/>
+      <c r="I597" s="41"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="35"/>
-      <c r="G598" s="36"/>
-      <c r="I598" s="36"/>
+      <c r="A598" s="40"/>
+      <c r="G598" s="41"/>
+      <c r="I598" s="41"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="35"/>
-      <c r="G599" s="36"/>
-      <c r="I599" s="36"/>
+      <c r="A599" s="40"/>
+      <c r="G599" s="41"/>
+      <c r="I599" s="41"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="35"/>
-      <c r="G600" s="36"/>
-      <c r="I600" s="36"/>
+      <c r="A600" s="40"/>
+      <c r="G600" s="41"/>
+      <c r="I600" s="41"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="35"/>
-      <c r="G601" s="36"/>
-      <c r="I601" s="36"/>
+      <c r="A601" s="40"/>
+      <c r="G601" s="41"/>
+      <c r="I601" s="41"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="35"/>
-      <c r="G602" s="36"/>
-      <c r="I602" s="36"/>
+      <c r="A602" s="40"/>
+      <c r="G602" s="41"/>
+      <c r="I602" s="41"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="35"/>
-      <c r="G603" s="36"/>
-      <c r="I603" s="36"/>
+      <c r="A603" s="40"/>
+      <c r="G603" s="41"/>
+      <c r="I603" s="41"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="35"/>
-      <c r="G604" s="36"/>
-      <c r="I604" s="36"/>
+      <c r="A604" s="40"/>
+      <c r="G604" s="41"/>
+      <c r="I604" s="41"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="35"/>
-      <c r="G605" s="36"/>
-      <c r="I605" s="36"/>
+      <c r="A605" s="40"/>
+      <c r="G605" s="41"/>
+      <c r="I605" s="41"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="35"/>
-      <c r="G606" s="36"/>
-      <c r="I606" s="36"/>
+      <c r="A606" s="40"/>
+      <c r="G606" s="41"/>
+      <c r="I606" s="41"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="35"/>
-      <c r="G607" s="36"/>
-      <c r="I607" s="36"/>
+      <c r="A607" s="40"/>
+      <c r="G607" s="41"/>
+      <c r="I607" s="41"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="35"/>
-      <c r="G608" s="36"/>
-      <c r="I608" s="36"/>
+      <c r="A608" s="40"/>
+      <c r="G608" s="41"/>
+      <c r="I608" s="41"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="35"/>
-      <c r="G609" s="36"/>
-      <c r="I609" s="36"/>
+      <c r="A609" s="40"/>
+      <c r="G609" s="41"/>
+      <c r="I609" s="41"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="35"/>
-      <c r="G610" s="36"/>
-      <c r="I610" s="36"/>
+      <c r="A610" s="40"/>
+      <c r="G610" s="41"/>
+      <c r="I610" s="41"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="35"/>
-      <c r="G611" s="36"/>
-      <c r="I611" s="36"/>
+      <c r="A611" s="40"/>
+      <c r="G611" s="41"/>
+      <c r="I611" s="41"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="35"/>
-      <c r="G612" s="36"/>
-      <c r="I612" s="36"/>
+      <c r="A612" s="40"/>
+      <c r="G612" s="41"/>
+      <c r="I612" s="41"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="35"/>
-      <c r="G613" s="36"/>
-      <c r="I613" s="36"/>
+      <c r="A613" s="40"/>
+      <c r="G613" s="41"/>
+      <c r="I613" s="41"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="35"/>
-      <c r="G614" s="36"/>
-      <c r="I614" s="36"/>
+      <c r="A614" s="40"/>
+      <c r="G614" s="41"/>
+      <c r="I614" s="41"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="35"/>
-      <c r="G615" s="36"/>
-      <c r="I615" s="36"/>
+      <c r="A615" s="40"/>
+      <c r="G615" s="41"/>
+      <c r="I615" s="41"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="35"/>
-      <c r="G616" s="36"/>
-      <c r="I616" s="36"/>
+      <c r="A616" s="40"/>
+      <c r="G616" s="41"/>
+      <c r="I616" s="41"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="35"/>
-      <c r="G617" s="36"/>
-      <c r="I617" s="36"/>
+      <c r="A617" s="40"/>
+      <c r="G617" s="41"/>
+      <c r="I617" s="41"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="35"/>
-      <c r="G618" s="36"/>
-      <c r="I618" s="36"/>
+      <c r="A618" s="40"/>
+      <c r="G618" s="41"/>
+      <c r="I618" s="41"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="35"/>
-      <c r="G619" s="36"/>
-      <c r="I619" s="36"/>
+      <c r="A619" s="40"/>
+      <c r="G619" s="41"/>
+      <c r="I619" s="41"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="35"/>
-      <c r="G620" s="36"/>
-      <c r="I620" s="36"/>
+      <c r="A620" s="40"/>
+      <c r="G620" s="41"/>
+      <c r="I620" s="41"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="35"/>
-      <c r="G621" s="36"/>
-      <c r="I621" s="36"/>
+      <c r="A621" s="40"/>
+      <c r="G621" s="41"/>
+      <c r="I621" s="41"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="35"/>
-      <c r="G622" s="36"/>
-      <c r="I622" s="36"/>
+      <c r="A622" s="40"/>
+      <c r="G622" s="41"/>
+      <c r="I622" s="41"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="35"/>
-      <c r="G623" s="36"/>
-      <c r="I623" s="36"/>
+      <c r="A623" s="40"/>
+      <c r="G623" s="41"/>
+      <c r="I623" s="41"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="35"/>
-      <c r="G624" s="36"/>
-      <c r="I624" s="36"/>
+      <c r="A624" s="40"/>
+      <c r="G624" s="41"/>
+      <c r="I624" s="41"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="35"/>
-      <c r="G625" s="36"/>
-      <c r="I625" s="36"/>
+      <c r="A625" s="40"/>
+      <c r="G625" s="41"/>
+      <c r="I625" s="41"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="35"/>
-      <c r="G626" s="36"/>
-      <c r="I626" s="36"/>
+      <c r="A626" s="40"/>
+      <c r="G626" s="41"/>
+      <c r="I626" s="41"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="35"/>
-      <c r="G627" s="36"/>
-      <c r="I627" s="36"/>
+      <c r="A627" s="40"/>
+      <c r="G627" s="41"/>
+      <c r="I627" s="41"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="35"/>
-      <c r="G628" s="36"/>
-      <c r="I628" s="36"/>
+      <c r="A628" s="40"/>
+      <c r="G628" s="41"/>
+      <c r="I628" s="41"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="35"/>
-      <c r="G629" s="36"/>
-      <c r="I629" s="36"/>
+      <c r="A629" s="40"/>
+      <c r="G629" s="41"/>
+      <c r="I629" s="41"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="35"/>
-      <c r="G630" s="36"/>
-      <c r="I630" s="36"/>
+      <c r="A630" s="40"/>
+      <c r="G630" s="41"/>
+      <c r="I630" s="41"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="35"/>
-      <c r="G631" s="36"/>
-      <c r="I631" s="36"/>
+      <c r="A631" s="40"/>
+      <c r="G631" s="41"/>
+      <c r="I631" s="41"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="35"/>
-      <c r="G632" s="36"/>
-      <c r="I632" s="36"/>
+      <c r="A632" s="40"/>
+      <c r="G632" s="41"/>
+      <c r="I632" s="41"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="35"/>
-      <c r="G633" s="36"/>
-      <c r="I633" s="36"/>
+      <c r="A633" s="40"/>
+      <c r="G633" s="41"/>
+      <c r="I633" s="41"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="35"/>
-      <c r="G634" s="36"/>
-      <c r="I634" s="36"/>
+      <c r="A634" s="40"/>
+      <c r="G634" s="41"/>
+      <c r="I634" s="41"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="35"/>
-      <c r="G635" s="36"/>
-      <c r="I635" s="36"/>
+      <c r="A635" s="40"/>
+      <c r="G635" s="41"/>
+      <c r="I635" s="41"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="35"/>
-      <c r="G636" s="36"/>
-      <c r="I636" s="36"/>
+      <c r="A636" s="40"/>
+      <c r="G636" s="41"/>
+      <c r="I636" s="41"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="35"/>
-      <c r="G637" s="36"/>
-      <c r="I637" s="36"/>
+      <c r="A637" s="40"/>
+      <c r="G637" s="41"/>
+      <c r="I637" s="41"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="35"/>
-      <c r="G638" s="36"/>
-      <c r="I638" s="36"/>
+      <c r="A638" s="40"/>
+      <c r="G638" s="41"/>
+      <c r="I638" s="41"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="35"/>
-      <c r="G639" s="36"/>
-      <c r="I639" s="36"/>
+      <c r="A639" s="40"/>
+      <c r="G639" s="41"/>
+      <c r="I639" s="41"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="35"/>
-      <c r="G640" s="36"/>
-      <c r="I640" s="36"/>
+      <c r="A640" s="40"/>
+      <c r="G640" s="41"/>
+      <c r="I640" s="41"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="35"/>
-      <c r="G641" s="36"/>
-      <c r="I641" s="36"/>
+      <c r="A641" s="40"/>
+      <c r="G641" s="41"/>
+      <c r="I641" s="41"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="35"/>
-      <c r="G642" s="36"/>
-      <c r="I642" s="36"/>
+      <c r="A642" s="40"/>
+      <c r="G642" s="41"/>
+      <c r="I642" s="41"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="35"/>
-      <c r="G643" s="36"/>
-      <c r="I643" s="36"/>
+      <c r="A643" s="40"/>
+      <c r="G643" s="41"/>
+      <c r="I643" s="41"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="35"/>
-      <c r="G644" s="36"/>
-      <c r="I644" s="36"/>
+      <c r="A644" s="40"/>
+      <c r="G644" s="41"/>
+      <c r="I644" s="41"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="35"/>
-      <c r="G645" s="36"/>
-      <c r="I645" s="36"/>
+      <c r="A645" s="40"/>
+      <c r="G645" s="41"/>
+      <c r="I645" s="41"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="35"/>
-      <c r="G646" s="36"/>
-      <c r="I646" s="36"/>
+      <c r="A646" s="40"/>
+      <c r="G646" s="41"/>
+      <c r="I646" s="41"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="35"/>
-      <c r="G647" s="36"/>
-      <c r="I647" s="36"/>
+      <c r="A647" s="40"/>
+      <c r="G647" s="41"/>
+      <c r="I647" s="41"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="35"/>
-      <c r="G648" s="36"/>
-      <c r="I648" s="36"/>
+      <c r="A648" s="40"/>
+      <c r="G648" s="41"/>
+      <c r="I648" s="41"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="35"/>
-      <c r="G649" s="36"/>
-      <c r="I649" s="36"/>
+      <c r="A649" s="40"/>
+      <c r="G649" s="41"/>
+      <c r="I649" s="41"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="35"/>
-      <c r="G650" s="36"/>
-      <c r="I650" s="36"/>
+      <c r="A650" s="40"/>
+      <c r="G650" s="41"/>
+      <c r="I650" s="41"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="35"/>
-      <c r="G651" s="36"/>
-      <c r="I651" s="36"/>
+      <c r="A651" s="40"/>
+      <c r="G651" s="41"/>
+      <c r="I651" s="41"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="35"/>
-      <c r="G652" s="36"/>
-      <c r="I652" s="36"/>
+      <c r="A652" s="40"/>
+      <c r="G652" s="41"/>
+      <c r="I652" s="41"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="35"/>
-      <c r="G653" s="36"/>
-      <c r="I653" s="36"/>
+      <c r="A653" s="40"/>
+      <c r="G653" s="41"/>
+      <c r="I653" s="41"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="35"/>
-      <c r="G654" s="36"/>
-      <c r="I654" s="36"/>
+      <c r="A654" s="40"/>
+      <c r="G654" s="41"/>
+      <c r="I654" s="41"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="35"/>
-      <c r="G655" s="36"/>
-      <c r="I655" s="36"/>
+      <c r="A655" s="40"/>
+      <c r="G655" s="41"/>
+      <c r="I655" s="41"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="35"/>
-      <c r="G656" s="36"/>
-      <c r="I656" s="36"/>
+      <c r="A656" s="40"/>
+      <c r="G656" s="41"/>
+      <c r="I656" s="41"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="35"/>
-      <c r="G657" s="36"/>
-      <c r="I657" s="36"/>
+      <c r="A657" s="40"/>
+      <c r="G657" s="41"/>
+      <c r="I657" s="41"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="35"/>
-      <c r="G658" s="36"/>
-      <c r="I658" s="36"/>
+      <c r="A658" s="40"/>
+      <c r="G658" s="41"/>
+      <c r="I658" s="41"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="35"/>
-      <c r="G659" s="36"/>
-      <c r="I659" s="36"/>
+      <c r="A659" s="40"/>
+      <c r="G659" s="41"/>
+      <c r="I659" s="41"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="35"/>
-      <c r="G660" s="36"/>
-      <c r="I660" s="36"/>
+      <c r="A660" s="40"/>
+      <c r="G660" s="41"/>
+      <c r="I660" s="41"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="35"/>
-      <c r="G661" s="36"/>
-      <c r="I661" s="36"/>
+      <c r="A661" s="40"/>
+      <c r="G661" s="41"/>
+      <c r="I661" s="41"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="35"/>
-      <c r="G662" s="36"/>
-      <c r="I662" s="36"/>
+      <c r="A662" s="40"/>
+      <c r="G662" s="41"/>
+      <c r="I662" s="41"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="35"/>
-      <c r="G663" s="36"/>
-      <c r="I663" s="36"/>
+      <c r="A663" s="40"/>
+      <c r="G663" s="41"/>
+      <c r="I663" s="41"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="35"/>
-      <c r="G664" s="36"/>
-      <c r="I664" s="36"/>
+      <c r="A664" s="40"/>
+      <c r="G664" s="41"/>
+      <c r="I664" s="41"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="35"/>
-      <c r="G665" s="36"/>
-      <c r="I665" s="36"/>
+      <c r="A665" s="40"/>
+      <c r="G665" s="41"/>
+      <c r="I665" s="41"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="35"/>
-      <c r="G666" s="36"/>
-      <c r="I666" s="36"/>
+      <c r="A666" s="40"/>
+      <c r="G666" s="41"/>
+      <c r="I666" s="41"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="35"/>
-      <c r="G667" s="36"/>
-      <c r="I667" s="36"/>
+      <c r="A667" s="40"/>
+      <c r="G667" s="41"/>
+      <c r="I667" s="41"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="35"/>
-      <c r="G668" s="36"/>
-      <c r="I668" s="36"/>
+      <c r="A668" s="40"/>
+      <c r="G668" s="41"/>
+      <c r="I668" s="41"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="35"/>
-      <c r="G669" s="36"/>
-      <c r="I669" s="36"/>
+      <c r="A669" s="40"/>
+      <c r="G669" s="41"/>
+      <c r="I669" s="41"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="35"/>
-      <c r="G670" s="36"/>
-      <c r="I670" s="36"/>
+      <c r="A670" s="40"/>
+      <c r="G670" s="41"/>
+      <c r="I670" s="41"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="35"/>
-      <c r="G671" s="36"/>
-      <c r="I671" s="36"/>
+      <c r="A671" s="40"/>
+      <c r="G671" s="41"/>
+      <c r="I671" s="41"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="35"/>
-      <c r="G672" s="36"/>
-      <c r="I672" s="36"/>
+      <c r="A672" s="40"/>
+      <c r="G672" s="41"/>
+      <c r="I672" s="41"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="35"/>
-      <c r="G673" s="36"/>
-      <c r="I673" s="36"/>
+      <c r="A673" s="40"/>
+      <c r="G673" s="41"/>
+      <c r="I673" s="41"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="35"/>
-      <c r="G674" s="36"/>
-      <c r="I674" s="36"/>
+      <c r="A674" s="40"/>
+      <c r="G674" s="41"/>
+      <c r="I674" s="41"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="35"/>
-      <c r="G675" s="36"/>
-      <c r="I675" s="36"/>
+      <c r="A675" s="40"/>
+      <c r="G675" s="41"/>
+      <c r="I675" s="41"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="35"/>
-      <c r="G676" s="36"/>
-      <c r="I676" s="36"/>
+      <c r="A676" s="40"/>
+      <c r="G676" s="41"/>
+      <c r="I676" s="41"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="35"/>
-      <c r="G677" s="36"/>
-      <c r="I677" s="36"/>
+      <c r="A677" s="40"/>
+      <c r="G677" s="41"/>
+      <c r="I677" s="41"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="35"/>
-      <c r="G678" s="36"/>
-      <c r="I678" s="36"/>
+      <c r="A678" s="40"/>
+      <c r="G678" s="41"/>
+      <c r="I678" s="41"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="35"/>
-      <c r="G679" s="36"/>
-      <c r="I679" s="36"/>
+      <c r="A679" s="40"/>
+      <c r="G679" s="41"/>
+      <c r="I679" s="41"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="35"/>
-      <c r="G680" s="36"/>
-      <c r="I680" s="36"/>
+      <c r="A680" s="40"/>
+      <c r="G680" s="41"/>
+      <c r="I680" s="41"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="35"/>
-      <c r="G681" s="36"/>
-      <c r="I681" s="36"/>
+      <c r="A681" s="40"/>
+      <c r="G681" s="41"/>
+      <c r="I681" s="41"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="35"/>
-      <c r="G682" s="36"/>
-      <c r="I682" s="36"/>
+      <c r="A682" s="40"/>
+      <c r="G682" s="41"/>
+      <c r="I682" s="41"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="35"/>
-      <c r="G683" s="36"/>
-      <c r="I683" s="36"/>
+      <c r="A683" s="40"/>
+      <c r="G683" s="41"/>
+      <c r="I683" s="41"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="35"/>
-      <c r="G684" s="36"/>
-      <c r="I684" s="36"/>
+      <c r="A684" s="40"/>
+      <c r="G684" s="41"/>
+      <c r="I684" s="41"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="35"/>
-      <c r="G685" s="36"/>
-      <c r="I685" s="36"/>
+      <c r="A685" s="40"/>
+      <c r="G685" s="41"/>
+      <c r="I685" s="41"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="35"/>
-      <c r="G686" s="36"/>
-      <c r="I686" s="36"/>
+      <c r="A686" s="40"/>
+      <c r="G686" s="41"/>
+      <c r="I686" s="41"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="35"/>
-      <c r="G687" s="36"/>
-      <c r="I687" s="36"/>
+      <c r="A687" s="40"/>
+      <c r="G687" s="41"/>
+      <c r="I687" s="41"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="35"/>
-      <c r="G688" s="36"/>
-      <c r="I688" s="36"/>
+      <c r="A688" s="40"/>
+      <c r="G688" s="41"/>
+      <c r="I688" s="41"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="35"/>
-      <c r="G689" s="36"/>
-      <c r="I689" s="36"/>
+      <c r="A689" s="40"/>
+      <c r="G689" s="41"/>
+      <c r="I689" s="41"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="35"/>
-      <c r="G690" s="36"/>
-      <c r="I690" s="36"/>
+      <c r="A690" s="40"/>
+      <c r="G690" s="41"/>
+      <c r="I690" s="41"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="35"/>
-      <c r="G691" s="36"/>
-      <c r="I691" s="36"/>
+      <c r="A691" s="40"/>
+      <c r="G691" s="41"/>
+      <c r="I691" s="41"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="35"/>
-      <c r="G692" s="36"/>
-      <c r="I692" s="36"/>
+      <c r="A692" s="40"/>
+      <c r="G692" s="41"/>
+      <c r="I692" s="41"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="35"/>
-      <c r="G693" s="36"/>
-      <c r="I693" s="36"/>
+      <c r="A693" s="40"/>
+      <c r="G693" s="41"/>
+      <c r="I693" s="41"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="35"/>
-      <c r="G694" s="36"/>
-      <c r="I694" s="36"/>
+      <c r="A694" s="40"/>
+      <c r="G694" s="41"/>
+      <c r="I694" s="41"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="35"/>
-      <c r="G695" s="36"/>
-      <c r="I695" s="36"/>
+      <c r="A695" s="40"/>
+      <c r="G695" s="41"/>
+      <c r="I695" s="41"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="35"/>
-      <c r="G696" s="36"/>
-      <c r="I696" s="36"/>
+      <c r="A696" s="40"/>
+      <c r="G696" s="41"/>
+      <c r="I696" s="41"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="35"/>
-      <c r="G697" s="36"/>
-      <c r="I697" s="36"/>
+      <c r="A697" s="40"/>
+      <c r="G697" s="41"/>
+      <c r="I697" s="41"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="35"/>
-      <c r="G698" s="36"/>
-      <c r="I698" s="36"/>
+      <c r="A698" s="40"/>
+      <c r="G698" s="41"/>
+      <c r="I698" s="41"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="35"/>
-      <c r="G699" s="36"/>
-      <c r="I699" s="36"/>
+      <c r="A699" s="40"/>
+      <c r="G699" s="41"/>
+      <c r="I699" s="41"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="35"/>
-      <c r="G700" s="36"/>
-      <c r="I700" s="36"/>
+      <c r="A700" s="40"/>
+      <c r="G700" s="41"/>
+      <c r="I700" s="41"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="35"/>
-      <c r="G701" s="36"/>
-      <c r="I701" s="36"/>
+      <c r="A701" s="40"/>
+      <c r="G701" s="41"/>
+      <c r="I701" s="41"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="35"/>
-      <c r="G702" s="36"/>
-      <c r="I702" s="36"/>
+      <c r="A702" s="40"/>
+      <c r="G702" s="41"/>
+      <c r="I702" s="41"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="35"/>
-      <c r="G703" s="36"/>
-      <c r="I703" s="36"/>
+      <c r="A703" s="40"/>
+      <c r="G703" s="41"/>
+      <c r="I703" s="41"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="35"/>
-      <c r="G704" s="36"/>
-      <c r="I704" s="36"/>
+      <c r="A704" s="40"/>
+      <c r="G704" s="41"/>
+      <c r="I704" s="41"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="35"/>
-      <c r="G705" s="36"/>
-      <c r="I705" s="36"/>
+      <c r="A705" s="40"/>
+      <c r="G705" s="41"/>
+      <c r="I705" s="41"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="35"/>
-      <c r="G706" s="36"/>
-      <c r="I706" s="36"/>
+      <c r="A706" s="40"/>
+      <c r="G706" s="41"/>
+      <c r="I706" s="41"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="35"/>
-      <c r="G707" s="36"/>
-      <c r="I707" s="36"/>
+      <c r="A707" s="40"/>
+      <c r="G707" s="41"/>
+      <c r="I707" s="41"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="35"/>
-      <c r="G708" s="36"/>
-      <c r="I708" s="36"/>
+      <c r="A708" s="40"/>
+      <c r="G708" s="41"/>
+      <c r="I708" s="41"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="35"/>
-      <c r="G709" s="36"/>
-      <c r="I709" s="36"/>
+      <c r="A709" s="40"/>
+      <c r="G709" s="41"/>
+      <c r="I709" s="41"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="35"/>
-      <c r="G710" s="36"/>
-      <c r="I710" s="36"/>
+      <c r="A710" s="40"/>
+      <c r="G710" s="41"/>
+      <c r="I710" s="41"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="35"/>
-      <c r="G711" s="36"/>
-      <c r="I711" s="36"/>
+      <c r="A711" s="40"/>
+      <c r="G711" s="41"/>
+      <c r="I711" s="41"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="35"/>
-      <c r="G712" s="36"/>
-      <c r="I712" s="36"/>
+      <c r="A712" s="40"/>
+      <c r="G712" s="41"/>
+      <c r="I712" s="41"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="35"/>
-      <c r="G713" s="36"/>
-      <c r="I713" s="36"/>
+      <c r="A713" s="40"/>
+      <c r="G713" s="41"/>
+      <c r="I713" s="41"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="35"/>
-      <c r="G714" s="36"/>
-      <c r="I714" s="36"/>
+      <c r="A714" s="40"/>
+      <c r="G714" s="41"/>
+      <c r="I714" s="41"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="35"/>
-      <c r="G715" s="36"/>
-      <c r="I715" s="36"/>
+      <c r="A715" s="40"/>
+      <c r="G715" s="41"/>
+      <c r="I715" s="41"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="35"/>
-      <c r="G716" s="36"/>
-      <c r="I716" s="36"/>
+      <c r="A716" s="40"/>
+      <c r="G716" s="41"/>
+      <c r="I716" s="41"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="35"/>
-      <c r="G717" s="36"/>
-      <c r="I717" s="36"/>
+      <c r="A717" s="40"/>
+      <c r="G717" s="41"/>
+      <c r="I717" s="41"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="35"/>
-      <c r="G718" s="36"/>
-      <c r="I718" s="36"/>
+      <c r="A718" s="40"/>
+      <c r="G718" s="41"/>
+      <c r="I718" s="41"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="35"/>
-      <c r="G719" s="36"/>
-      <c r="I719" s="36"/>
+      <c r="A719" s="40"/>
+      <c r="G719" s="41"/>
+      <c r="I719" s="41"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="35"/>
-      <c r="G720" s="36"/>
-      <c r="I720" s="36"/>
+      <c r="A720" s="40"/>
+      <c r="G720" s="41"/>
+      <c r="I720" s="41"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="35"/>
-      <c r="G721" s="36"/>
-      <c r="I721" s="36"/>
+      <c r="A721" s="40"/>
+      <c r="G721" s="41"/>
+      <c r="I721" s="41"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="35"/>
-      <c r="G722" s="36"/>
-      <c r="I722" s="36"/>
+      <c r="A722" s="40"/>
+      <c r="G722" s="41"/>
+      <c r="I722" s="41"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="35"/>
-      <c r="G723" s="36"/>
-      <c r="I723" s="36"/>
+      <c r="A723" s="40"/>
+      <c r="G723" s="41"/>
+      <c r="I723" s="41"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="35"/>
-      <c r="G724" s="36"/>
-      <c r="I724" s="36"/>
+      <c r="A724" s="40"/>
+      <c r="G724" s="41"/>
+      <c r="I724" s="41"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="35"/>
-      <c r="G725" s="36"/>
-      <c r="I725" s="36"/>
+      <c r="A725" s="40"/>
+      <c r="G725" s="41"/>
+      <c r="I725" s="41"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="35"/>
-      <c r="G726" s="36"/>
-      <c r="I726" s="36"/>
+      <c r="A726" s="40"/>
+      <c r="G726" s="41"/>
+      <c r="I726" s="41"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="35"/>
-      <c r="G727" s="36"/>
-      <c r="I727" s="36"/>
+      <c r="A727" s="40"/>
+      <c r="G727" s="41"/>
+      <c r="I727" s="41"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="35"/>
-      <c r="G728" s="36"/>
-      <c r="I728" s="36"/>
+      <c r="A728" s="40"/>
+      <c r="G728" s="41"/>
+      <c r="I728" s="41"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="35"/>
-      <c r="G729" s="36"/>
-      <c r="I729" s="36"/>
+      <c r="A729" s="40"/>
+      <c r="G729" s="41"/>
+      <c r="I729" s="41"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="35"/>
-      <c r="G730" s="36"/>
-      <c r="I730" s="36"/>
+      <c r="A730" s="40"/>
+      <c r="G730" s="41"/>
+      <c r="I730" s="41"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="35"/>
-      <c r="G731" s="36"/>
-      <c r="I731" s="36"/>
+      <c r="A731" s="40"/>
+      <c r="G731" s="41"/>
+      <c r="I731" s="41"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="35"/>
-      <c r="G732" s="36"/>
-      <c r="I732" s="36"/>
+      <c r="A732" s="40"/>
+      <c r="G732" s="41"/>
+      <c r="I732" s="41"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="35"/>
-      <c r="G733" s="36"/>
-      <c r="I733" s="36"/>
+      <c r="A733" s="40"/>
+      <c r="G733" s="41"/>
+      <c r="I733" s="41"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="35"/>
-      <c r="G734" s="36"/>
-      <c r="I734" s="36"/>
+      <c r="A734" s="40"/>
+      <c r="G734" s="41"/>
+      <c r="I734" s="41"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="35"/>
-      <c r="G735" s="36"/>
-      <c r="I735" s="36"/>
+      <c r="A735" s="40"/>
+      <c r="G735" s="41"/>
+      <c r="I735" s="41"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="35"/>
-      <c r="G736" s="36"/>
-      <c r="I736" s="36"/>
+      <c r="A736" s="40"/>
+      <c r="G736" s="41"/>
+      <c r="I736" s="41"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="35"/>
-      <c r="G737" s="36"/>
-      <c r="I737" s="36"/>
+      <c r="A737" s="40"/>
+      <c r="G737" s="41"/>
+      <c r="I737" s="41"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="35"/>
-      <c r="G738" s="36"/>
-      <c r="I738" s="36"/>
+      <c r="A738" s="40"/>
+      <c r="G738" s="41"/>
+      <c r="I738" s="41"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="35"/>
-      <c r="G739" s="36"/>
-      <c r="I739" s="36"/>
+      <c r="A739" s="40"/>
+      <c r="G739" s="41"/>
+      <c r="I739" s="41"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="35"/>
-      <c r="G740" s="36"/>
-      <c r="I740" s="36"/>
+      <c r="A740" s="40"/>
+      <c r="G740" s="41"/>
+      <c r="I740" s="41"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="35"/>
-      <c r="G741" s="36"/>
-      <c r="I741" s="36"/>
+      <c r="A741" s="40"/>
+      <c r="G741" s="41"/>
+      <c r="I741" s="41"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="35"/>
-      <c r="G742" s="36"/>
-      <c r="I742" s="36"/>
+      <c r="A742" s="40"/>
+      <c r="G742" s="41"/>
+      <c r="I742" s="41"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="35"/>
-      <c r="G743" s="36"/>
-      <c r="I743" s="36"/>
+      <c r="A743" s="40"/>
+      <c r="G743" s="41"/>
+      <c r="I743" s="41"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="35"/>
-      <c r="G744" s="36"/>
-      <c r="I744" s="36"/>
+      <c r="A744" s="40"/>
+      <c r="G744" s="41"/>
+      <c r="I744" s="41"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="35"/>
-      <c r="G745" s="36"/>
-      <c r="I745" s="36"/>
+      <c r="A745" s="40"/>
+      <c r="G745" s="41"/>
+      <c r="I745" s="41"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="35"/>
-      <c r="G746" s="36"/>
-      <c r="I746" s="36"/>
+      <c r="A746" s="40"/>
+      <c r="G746" s="41"/>
+      <c r="I746" s="41"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="35"/>
-      <c r="G747" s="36"/>
-      <c r="I747" s="36"/>
+      <c r="A747" s="40"/>
+      <c r="G747" s="41"/>
+      <c r="I747" s="41"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="35"/>
-      <c r="G748" s="36"/>
-      <c r="I748" s="36"/>
+      <c r="A748" s="40"/>
+      <c r="G748" s="41"/>
+      <c r="I748" s="41"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="35"/>
-      <c r="G749" s="36"/>
-      <c r="I749" s="36"/>
+      <c r="A749" s="40"/>
+      <c r="G749" s="41"/>
+      <c r="I749" s="41"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="35"/>
-      <c r="G750" s="36"/>
-      <c r="I750" s="36"/>
+      <c r="A750" s="40"/>
+      <c r="G750" s="41"/>
+      <c r="I750" s="41"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="35"/>
-      <c r="G751" s="36"/>
-      <c r="I751" s="36"/>
+      <c r="A751" s="40"/>
+      <c r="G751" s="41"/>
+      <c r="I751" s="41"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="35"/>
-      <c r="G752" s="36"/>
-      <c r="I752" s="36"/>
+      <c r="A752" s="40"/>
+      <c r="G752" s="41"/>
+      <c r="I752" s="41"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="35"/>
-      <c r="G753" s="36"/>
-      <c r="I753" s="36"/>
+      <c r="A753" s="40"/>
+      <c r="G753" s="41"/>
+      <c r="I753" s="41"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="35"/>
-      <c r="G754" s="36"/>
-      <c r="I754" s="36"/>
+      <c r="A754" s="40"/>
+      <c r="G754" s="41"/>
+      <c r="I754" s="41"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="35"/>
-      <c r="G755" s="36"/>
-      <c r="I755" s="36"/>
+      <c r="A755" s="40"/>
+      <c r="G755" s="41"/>
+      <c r="I755" s="41"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="35"/>
-      <c r="G756" s="36"/>
-      <c r="I756" s="36"/>
+      <c r="A756" s="40"/>
+      <c r="G756" s="41"/>
+      <c r="I756" s="41"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="35"/>
-      <c r="G757" s="36"/>
-      <c r="I757" s="36"/>
+      <c r="A757" s="40"/>
+      <c r="G757" s="41"/>
+      <c r="I757" s="41"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="35"/>
-      <c r="G758" s="36"/>
-      <c r="I758" s="36"/>
+      <c r="A758" s="40"/>
+      <c r="G758" s="41"/>
+      <c r="I758" s="41"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="35"/>
-      <c r="G759" s="36"/>
-      <c r="I759" s="36"/>
+      <c r="A759" s="40"/>
+      <c r="G759" s="41"/>
+      <c r="I759" s="41"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="35"/>
-      <c r="G760" s="36"/>
-      <c r="I760" s="36"/>
+      <c r="A760" s="40"/>
+      <c r="G760" s="41"/>
+      <c r="I760" s="41"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="35"/>
-      <c r="G761" s="36"/>
-      <c r="I761" s="36"/>
+      <c r="A761" s="40"/>
+      <c r="G761" s="41"/>
+      <c r="I761" s="41"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="35"/>
-      <c r="G762" s="36"/>
-      <c r="I762" s="36"/>
+      <c r="A762" s="40"/>
+      <c r="G762" s="41"/>
+      <c r="I762" s="41"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="35"/>
-      <c r="G763" s="36"/>
-      <c r="I763" s="36"/>
+      <c r="A763" s="40"/>
+      <c r="G763" s="41"/>
+      <c r="I763" s="41"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="35"/>
-      <c r="G764" s="36"/>
-      <c r="I764" s="36"/>
+      <c r="A764" s="40"/>
+      <c r="G764" s="41"/>
+      <c r="I764" s="41"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="35"/>
-      <c r="G765" s="36"/>
-      <c r="I765" s="36"/>
+      <c r="A765" s="40"/>
+      <c r="G765" s="41"/>
+      <c r="I765" s="41"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="35"/>
-      <c r="G766" s="36"/>
-      <c r="I766" s="36"/>
+      <c r="A766" s="40"/>
+      <c r="G766" s="41"/>
+      <c r="I766" s="41"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="35"/>
-      <c r="G767" s="36"/>
-      <c r="I767" s="36"/>
+      <c r="A767" s="40"/>
+      <c r="G767" s="41"/>
+      <c r="I767" s="41"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="35"/>
-      <c r="G768" s="36"/>
-      <c r="I768" s="36"/>
+      <c r="A768" s="40"/>
+      <c r="G768" s="41"/>
+      <c r="I768" s="41"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="35"/>
-      <c r="G769" s="36"/>
-      <c r="I769" s="36"/>
+      <c r="A769" s="40"/>
+      <c r="G769" s="41"/>
+      <c r="I769" s="41"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="35"/>
-      <c r="G770" s="36"/>
-      <c r="I770" s="36"/>
+      <c r="A770" s="40"/>
+      <c r="G770" s="41"/>
+      <c r="I770" s="41"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="35"/>
-      <c r="G771" s="36"/>
-      <c r="I771" s="36"/>
+      <c r="A771" s="40"/>
+      <c r="G771" s="41"/>
+      <c r="I771" s="41"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="35"/>
-      <c r="G772" s="36"/>
-      <c r="I772" s="36"/>
+      <c r="A772" s="40"/>
+      <c r="G772" s="41"/>
+      <c r="I772" s="41"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="35"/>
-      <c r="G773" s="36"/>
-      <c r="I773" s="36"/>
+      <c r="A773" s="40"/>
+      <c r="G773" s="41"/>
+      <c r="I773" s="41"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="35"/>
-      <c r="G774" s="36"/>
-      <c r="I774" s="36"/>
+      <c r="A774" s="40"/>
+      <c r="G774" s="41"/>
+      <c r="I774" s="41"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="35"/>
-      <c r="G775" s="36"/>
-      <c r="I775" s="36"/>
+      <c r="A775" s="40"/>
+      <c r="G775" s="41"/>
+      <c r="I775" s="41"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="35"/>
-      <c r="G776" s="36"/>
-      <c r="I776" s="36"/>
+      <c r="A776" s="40"/>
+      <c r="G776" s="41"/>
+      <c r="I776" s="41"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="35"/>
-      <c r="G777" s="36"/>
-      <c r="I777" s="36"/>
+      <c r="A777" s="40"/>
+      <c r="G777" s="41"/>
+      <c r="I777" s="41"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="35"/>
-      <c r="G778" s="36"/>
-      <c r="I778" s="36"/>
+      <c r="A778" s="40"/>
+      <c r="G778" s="41"/>
+      <c r="I778" s="41"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="35"/>
-      <c r="G779" s="36"/>
-      <c r="I779" s="36"/>
+      <c r="A779" s="40"/>
+      <c r="G779" s="41"/>
+      <c r="I779" s="41"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="35"/>
-      <c r="G780" s="36"/>
-      <c r="I780" s="36"/>
+      <c r="A780" s="40"/>
+      <c r="G780" s="41"/>
+      <c r="I780" s="41"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="35"/>
-      <c r="G781" s="36"/>
-      <c r="I781" s="36"/>
+      <c r="A781" s="40"/>
+      <c r="G781" s="41"/>
+      <c r="I781" s="41"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="35"/>
-      <c r="G782" s="36"/>
-      <c r="I782" s="36"/>
+      <c r="A782" s="40"/>
+      <c r="G782" s="41"/>
+      <c r="I782" s="41"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="35"/>
-      <c r="G783" s="36"/>
-      <c r="I783" s="36"/>
+      <c r="A783" s="40"/>
+      <c r="G783" s="41"/>
+      <c r="I783" s="41"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="35"/>
-      <c r="G784" s="36"/>
-      <c r="I784" s="36"/>
+      <c r="A784" s="40"/>
+      <c r="G784" s="41"/>
+      <c r="I784" s="41"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="35"/>
-      <c r="G785" s="36"/>
-      <c r="I785" s="36"/>
+      <c r="A785" s="40"/>
+      <c r="G785" s="41"/>
+      <c r="I785" s="41"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="35"/>
-      <c r="G786" s="36"/>
-      <c r="I786" s="36"/>
+      <c r="A786" s="40"/>
+      <c r="G786" s="41"/>
+      <c r="I786" s="41"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="35"/>
-      <c r="G787" s="36"/>
-      <c r="I787" s="36"/>
+      <c r="A787" s="40"/>
+      <c r="G787" s="41"/>
+      <c r="I787" s="41"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="35"/>
-      <c r="G788" s="36"/>
-      <c r="I788" s="36"/>
+      <c r="A788" s="40"/>
+      <c r="G788" s="41"/>
+      <c r="I788" s="41"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="35"/>
-      <c r="G789" s="36"/>
-      <c r="I789" s="36"/>
+      <c r="A789" s="40"/>
+      <c r="G789" s="41"/>
+      <c r="I789" s="41"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="35"/>
-      <c r="G790" s="36"/>
-      <c r="I790" s="36"/>
+      <c r="A790" s="40"/>
+      <c r="G790" s="41"/>
+      <c r="I790" s="41"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="35"/>
-      <c r="G791" s="36"/>
-      <c r="I791" s="36"/>
+      <c r="A791" s="40"/>
+      <c r="G791" s="41"/>
+      <c r="I791" s="41"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="35"/>
-      <c r="G792" s="36"/>
-      <c r="I792" s="36"/>
+      <c r="A792" s="40"/>
+      <c r="G792" s="41"/>
+      <c r="I792" s="41"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="35"/>
-      <c r="G793" s="36"/>
-      <c r="I793" s="36"/>
+      <c r="A793" s="40"/>
+      <c r="G793" s="41"/>
+      <c r="I793" s="41"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="35"/>
-      <c r="G794" s="36"/>
-      <c r="I794" s="36"/>
+      <c r="A794" s="40"/>
+      <c r="G794" s="41"/>
+      <c r="I794" s="41"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="35"/>
-      <c r="G795" s="36"/>
-      <c r="I795" s="36"/>
+      <c r="A795" s="40"/>
+      <c r="G795" s="41"/>
+      <c r="I795" s="41"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="35"/>
-      <c r="G796" s="36"/>
-      <c r="I796" s="36"/>
+      <c r="A796" s="40"/>
+      <c r="G796" s="41"/>
+      <c r="I796" s="41"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="35"/>
-      <c r="G797" s="36"/>
-      <c r="I797" s="36"/>
+      <c r="A797" s="40"/>
+      <c r="G797" s="41"/>
+      <c r="I797" s="41"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="35"/>
-      <c r="G798" s="36"/>
-      <c r="I798" s="36"/>
+      <c r="A798" s="40"/>
+      <c r="G798" s="41"/>
+      <c r="I798" s="41"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="35"/>
-      <c r="G799" s="36"/>
-      <c r="I799" s="36"/>
+      <c r="A799" s="40"/>
+      <c r="G799" s="41"/>
+      <c r="I799" s="41"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="35"/>
-      <c r="G800" s="36"/>
-      <c r="I800" s="36"/>
+      <c r="A800" s="40"/>
+      <c r="G800" s="41"/>
+      <c r="I800" s="41"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="35"/>
-      <c r="G801" s="36"/>
-      <c r="I801" s="36"/>
+      <c r="A801" s="40"/>
+      <c r="G801" s="41"/>
+      <c r="I801" s="41"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="35"/>
-      <c r="G802" s="36"/>
-      <c r="I802" s="36"/>
+      <c r="A802" s="40"/>
+      <c r="G802" s="41"/>
+      <c r="I802" s="41"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="35"/>
-      <c r="G803" s="36"/>
-      <c r="I803" s="36"/>
+      <c r="A803" s="40"/>
+      <c r="G803" s="41"/>
+      <c r="I803" s="41"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="35"/>
-      <c r="G804" s="36"/>
-      <c r="I804" s="36"/>
+      <c r="A804" s="40"/>
+      <c r="G804" s="41"/>
+      <c r="I804" s="41"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="35"/>
-      <c r="G805" s="36"/>
-      <c r="I805" s="36"/>
+      <c r="A805" s="40"/>
+      <c r="G805" s="41"/>
+      <c r="I805" s="41"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="35"/>
-      <c r="G806" s="36"/>
-      <c r="I806" s="36"/>
+      <c r="A806" s="40"/>
+      <c r="G806" s="41"/>
+      <c r="I806" s="41"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="35"/>
-      <c r="G807" s="36"/>
-      <c r="I807" s="36"/>
+      <c r="A807" s="40"/>
+      <c r="G807" s="41"/>
+      <c r="I807" s="41"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="35"/>
-      <c r="G808" s="36"/>
-      <c r="I808" s="36"/>
+      <c r="A808" s="40"/>
+      <c r="G808" s="41"/>
+      <c r="I808" s="41"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="35"/>
-      <c r="G809" s="36"/>
-      <c r="I809" s="36"/>
+      <c r="A809" s="40"/>
+      <c r="G809" s="41"/>
+      <c r="I809" s="41"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="35"/>
-      <c r="G810" s="36"/>
-      <c r="I810" s="36"/>
+      <c r="A810" s="40"/>
+      <c r="G810" s="41"/>
+      <c r="I810" s="41"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="35"/>
-      <c r="G811" s="36"/>
-      <c r="I811" s="36"/>
+      <c r="A811" s="40"/>
+      <c r="G811" s="41"/>
+      <c r="I811" s="41"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="35"/>
-      <c r="G812" s="36"/>
-      <c r="I812" s="36"/>
+      <c r="A812" s="40"/>
+      <c r="G812" s="41"/>
+      <c r="I812" s="41"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="35"/>
-      <c r="G813" s="36"/>
-      <c r="I813" s="36"/>
+      <c r="A813" s="40"/>
+      <c r="G813" s="41"/>
+      <c r="I813" s="41"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="35"/>
-      <c r="G814" s="36"/>
-      <c r="I814" s="36"/>
+      <c r="A814" s="40"/>
+      <c r="G814" s="41"/>
+      <c r="I814" s="41"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="35"/>
-      <c r="G815" s="36"/>
-      <c r="I815" s="36"/>
+      <c r="A815" s="40"/>
+      <c r="G815" s="41"/>
+      <c r="I815" s="41"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="35"/>
-      <c r="G816" s="36"/>
-      <c r="I816" s="36"/>
+      <c r="A816" s="40"/>
+      <c r="G816" s="41"/>
+      <c r="I816" s="41"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="35"/>
-      <c r="G817" s="36"/>
-      <c r="I817" s="36"/>
+      <c r="A817" s="40"/>
+      <c r="G817" s="41"/>
+      <c r="I817" s="41"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="35"/>
-      <c r="G818" s="36"/>
-      <c r="I818" s="36"/>
+      <c r="A818" s="40"/>
+      <c r="G818" s="41"/>
+      <c r="I818" s="41"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="35"/>
-      <c r="G819" s="36"/>
-      <c r="I819" s="36"/>
+      <c r="A819" s="40"/>
+      <c r="G819" s="41"/>
+      <c r="I819" s="41"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="35"/>
-      <c r="G820" s="36"/>
-      <c r="I820" s="36"/>
+      <c r="A820" s="40"/>
+      <c r="G820" s="41"/>
+      <c r="I820" s="41"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="35"/>
-      <c r="G821" s="36"/>
-      <c r="I821" s="36"/>
+      <c r="A821" s="40"/>
+      <c r="G821" s="41"/>
+      <c r="I821" s="41"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="35"/>
-      <c r="G822" s="36"/>
-      <c r="I822" s="36"/>
+      <c r="A822" s="40"/>
+      <c r="G822" s="41"/>
+      <c r="I822" s="41"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="35"/>
-      <c r="G823" s="36"/>
-      <c r="I823" s="36"/>
+      <c r="A823" s="40"/>
+      <c r="G823" s="41"/>
+      <c r="I823" s="41"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="35"/>
-      <c r="G824" s="36"/>
-      <c r="I824" s="36"/>
+      <c r="A824" s="40"/>
+      <c r="G824" s="41"/>
+      <c r="I824" s="41"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="35"/>
-      <c r="G825" s="36"/>
-      <c r="I825" s="36"/>
+      <c r="A825" s="40"/>
+      <c r="G825" s="41"/>
+      <c r="I825" s="41"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="35"/>
-      <c r="G826" s="36"/>
-      <c r="I826" s="36"/>
+      <c r="A826" s="40"/>
+      <c r="G826" s="41"/>
+      <c r="I826" s="41"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="35"/>
-      <c r="G827" s="36"/>
-      <c r="I827" s="36"/>
+      <c r="A827" s="40"/>
+      <c r="G827" s="41"/>
+      <c r="I827" s="41"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="35"/>
-      <c r="G828" s="36"/>
-      <c r="I828" s="36"/>
+      <c r="A828" s="40"/>
+      <c r="G828" s="41"/>
+      <c r="I828" s="41"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="35"/>
-      <c r="G829" s="36"/>
-      <c r="I829" s="36"/>
+      <c r="A829" s="40"/>
+      <c r="G829" s="41"/>
+      <c r="I829" s="41"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="35"/>
-      <c r="G830" s="36"/>
-      <c r="I830" s="36"/>
+      <c r="A830" s="40"/>
+      <c r="G830" s="41"/>
+      <c r="I830" s="41"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="35"/>
-      <c r="G831" s="36"/>
-      <c r="I831" s="36"/>
+      <c r="A831" s="40"/>
+      <c r="G831" s="41"/>
+      <c r="I831" s="41"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="35"/>
-      <c r="G832" s="36"/>
-      <c r="I832" s="36"/>
+      <c r="A832" s="40"/>
+      <c r="G832" s="41"/>
+      <c r="I832" s="41"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="35"/>
-      <c r="G833" s="36"/>
-      <c r="I833" s="36"/>
+      <c r="A833" s="40"/>
+      <c r="G833" s="41"/>
+      <c r="I833" s="41"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="35"/>
-      <c r="G834" s="36"/>
-      <c r="I834" s="36"/>
+      <c r="A834" s="40"/>
+      <c r="G834" s="41"/>
+      <c r="I834" s="41"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="35"/>
-      <c r="G835" s="36"/>
-      <c r="I835" s="36"/>
+      <c r="A835" s="40"/>
+      <c r="G835" s="41"/>
+      <c r="I835" s="41"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="35"/>
-      <c r="G836" s="36"/>
-      <c r="I836" s="36"/>
+      <c r="A836" s="40"/>
+      <c r="G836" s="41"/>
+      <c r="I836" s="41"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="35"/>
-      <c r="G837" s="36"/>
-      <c r="I837" s="36"/>
+      <c r="A837" s="40"/>
+      <c r="G837" s="41"/>
+      <c r="I837" s="41"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="35"/>
-      <c r="G838" s="36"/>
-      <c r="I838" s="36"/>
+      <c r="A838" s="40"/>
+      <c r="G838" s="41"/>
+      <c r="I838" s="41"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="35"/>
-      <c r="G839" s="36"/>
-      <c r="I839" s="36"/>
+      <c r="A839" s="40"/>
+      <c r="G839" s="41"/>
+      <c r="I839" s="41"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="35"/>
-      <c r="G840" s="36"/>
-      <c r="I840" s="36"/>
+      <c r="A840" s="40"/>
+      <c r="G840" s="41"/>
+      <c r="I840" s="41"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="35"/>
-      <c r="G841" s="36"/>
-      <c r="I841" s="36"/>
+      <c r="A841" s="40"/>
+      <c r="G841" s="41"/>
+      <c r="I841" s="41"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="35"/>
-      <c r="G842" s="36"/>
-      <c r="I842" s="36"/>
+      <c r="A842" s="40"/>
+      <c r="G842" s="41"/>
+      <c r="I842" s="41"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="35"/>
-      <c r="G843" s="36"/>
-      <c r="I843" s="36"/>
+      <c r="A843" s="40"/>
+      <c r="G843" s="41"/>
+      <c r="I843" s="41"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="35"/>
-      <c r="G844" s="36"/>
-      <c r="I844" s="36"/>
+      <c r="A844" s="40"/>
+      <c r="G844" s="41"/>
+      <c r="I844" s="41"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="35"/>
-      <c r="G845" s="36"/>
-      <c r="I845" s="36"/>
+      <c r="A845" s="40"/>
+      <c r="G845" s="41"/>
+      <c r="I845" s="41"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="35"/>
-      <c r="G846" s="36"/>
-      <c r="I846" s="36"/>
+      <c r="A846" s="40"/>
+      <c r="G846" s="41"/>
+      <c r="I846" s="41"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="35"/>
-      <c r="G847" s="36"/>
-      <c r="I847" s="36"/>
+      <c r="A847" s="40"/>
+      <c r="G847" s="41"/>
+      <c r="I847" s="41"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="35"/>
-      <c r="G848" s="36"/>
-      <c r="I848" s="36"/>
+      <c r="A848" s="40"/>
+      <c r="G848" s="41"/>
+      <c r="I848" s="41"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="35"/>
-      <c r="G849" s="36"/>
-      <c r="I849" s="36"/>
+      <c r="A849" s="40"/>
+      <c r="G849" s="41"/>
+      <c r="I849" s="41"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="35"/>
-      <c r="G850" s="36"/>
-      <c r="I850" s="36"/>
+      <c r="A850" s="40"/>
+      <c r="G850" s="41"/>
+      <c r="I850" s="41"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="35"/>
-      <c r="G851" s="36"/>
-      <c r="I851" s="36"/>
+      <c r="A851" s="40"/>
+      <c r="G851" s="41"/>
+      <c r="I851" s="41"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="35"/>
-      <c r="G852" s="36"/>
-      <c r="I852" s="36"/>
+      <c r="A852" s="40"/>
+      <c r="G852" s="41"/>
+      <c r="I852" s="41"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="35"/>
-      <c r="G853" s="36"/>
-      <c r="I853" s="36"/>
+      <c r="A853" s="40"/>
+      <c r="G853" s="41"/>
+      <c r="I853" s="41"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="35"/>
-      <c r="G854" s="36"/>
-      <c r="I854" s="36"/>
+      <c r="A854" s="40"/>
+      <c r="G854" s="41"/>
+      <c r="I854" s="41"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="35"/>
-      <c r="G855" s="36"/>
-      <c r="I855" s="36"/>
+      <c r="A855" s="40"/>
+      <c r="G855" s="41"/>
+      <c r="I855" s="41"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="35"/>
-      <c r="G856" s="36"/>
-      <c r="I856" s="36"/>
+      <c r="A856" s="40"/>
+      <c r="G856" s="41"/>
+      <c r="I856" s="41"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="35"/>
-      <c r="G857" s="36"/>
-      <c r="I857" s="36"/>
+      <c r="A857" s="40"/>
+      <c r="G857" s="41"/>
+      <c r="I857" s="41"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="35"/>
-      <c r="G858" s="36"/>
-      <c r="I858" s="36"/>
+      <c r="A858" s="40"/>
+      <c r="G858" s="41"/>
+      <c r="I858" s="41"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="35"/>
-      <c r="G859" s="36"/>
-      <c r="I859" s="36"/>
+      <c r="A859" s="40"/>
+      <c r="G859" s="41"/>
+      <c r="I859" s="41"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="35"/>
-      <c r="G860" s="36"/>
-      <c r="I860" s="36"/>
+      <c r="A860" s="40"/>
+      <c r="G860" s="41"/>
+      <c r="I860" s="41"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="35"/>
-      <c r="G861" s="36"/>
-      <c r="I861" s="36"/>
+      <c r="A861" s="40"/>
+      <c r="G861" s="41"/>
+      <c r="I861" s="41"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="35"/>
-      <c r="G862" s="36"/>
-      <c r="I862" s="36"/>
+      <c r="A862" s="40"/>
+      <c r="G862" s="41"/>
+      <c r="I862" s="41"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="35"/>
-      <c r="G863" s="36"/>
-      <c r="I863" s="36"/>
+      <c r="A863" s="40"/>
+      <c r="G863" s="41"/>
+      <c r="I863" s="41"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="35"/>
-      <c r="G864" s="36"/>
-      <c r="I864" s="36"/>
+      <c r="A864" s="40"/>
+      <c r="G864" s="41"/>
+      <c r="I864" s="41"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="35"/>
-      <c r="G865" s="36"/>
-      <c r="I865" s="36"/>
+      <c r="A865" s="40"/>
+      <c r="G865" s="41"/>
+      <c r="I865" s="41"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="35"/>
-      <c r="G866" s="36"/>
-      <c r="I866" s="36"/>
+      <c r="A866" s="40"/>
+      <c r="G866" s="41"/>
+      <c r="I866" s="41"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="35"/>
-      <c r="G867" s="36"/>
-      <c r="I867" s="36"/>
+      <c r="A867" s="40"/>
+      <c r="G867" s="41"/>
+      <c r="I867" s="41"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="35"/>
-      <c r="G868" s="36"/>
-      <c r="I868" s="36"/>
+      <c r="A868" s="40"/>
+      <c r="G868" s="41"/>
+      <c r="I868" s="41"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="35"/>
-      <c r="G869" s="36"/>
-      <c r="I869" s="36"/>
+      <c r="A869" s="40"/>
+      <c r="G869" s="41"/>
+      <c r="I869" s="41"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="35"/>
-      <c r="G870" s="36"/>
-      <c r="I870" s="36"/>
+      <c r="A870" s="40"/>
+      <c r="G870" s="41"/>
+      <c r="I870" s="41"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="35"/>
-      <c r="G871" s="36"/>
-      <c r="I871" s="36"/>
+      <c r="A871" s="40"/>
+      <c r="G871" s="41"/>
+      <c r="I871" s="41"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="35"/>
-      <c r="G872" s="36"/>
-      <c r="I872" s="36"/>
+      <c r="A872" s="40"/>
+      <c r="G872" s="41"/>
+      <c r="I872" s="41"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="35"/>
-      <c r="G873" s="36"/>
-      <c r="I873" s="36"/>
+      <c r="A873" s="40"/>
+      <c r="G873" s="41"/>
+      <c r="I873" s="41"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="35"/>
-      <c r="G874" s="36"/>
-      <c r="I874" s="36"/>
+      <c r="A874" s="40"/>
+      <c r="G874" s="41"/>
+      <c r="I874" s="41"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="35"/>
-      <c r="G875" s="36"/>
-      <c r="I875" s="36"/>
+      <c r="A875" s="40"/>
+      <c r="G875" s="41"/>
+      <c r="I875" s="41"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="35"/>
-      <c r="G876" s="36"/>
-      <c r="I876" s="36"/>
+      <c r="A876" s="40"/>
+      <c r="G876" s="41"/>
+      <c r="I876" s="41"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="35"/>
-      <c r="G877" s="36"/>
-      <c r="I877" s="36"/>
+      <c r="A877" s="40"/>
+      <c r="G877" s="41"/>
+      <c r="I877" s="41"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="35"/>
-      <c r="G878" s="36"/>
-      <c r="I878" s="36"/>
+      <c r="A878" s="40"/>
+      <c r="G878" s="41"/>
+      <c r="I878" s="41"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="35"/>
-      <c r="G879" s="36"/>
-      <c r="I879" s="36"/>
+      <c r="A879" s="40"/>
+      <c r="G879" s="41"/>
+      <c r="I879" s="41"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="35"/>
-      <c r="G880" s="36"/>
-      <c r="I880" s="36"/>
+      <c r="A880" s="40"/>
+      <c r="G880" s="41"/>
+      <c r="I880" s="41"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="35"/>
-      <c r="G881" s="36"/>
-      <c r="I881" s="36"/>
+      <c r="A881" s="40"/>
+      <c r="G881" s="41"/>
+      <c r="I881" s="41"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="35"/>
-      <c r="G882" s="36"/>
-      <c r="I882" s="36"/>
+      <c r="A882" s="40"/>
+      <c r="G882" s="41"/>
+      <c r="I882" s="41"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="35"/>
-      <c r="G883" s="36"/>
-      <c r="I883" s="36"/>
+      <c r="A883" s="40"/>
+      <c r="G883" s="41"/>
+      <c r="I883" s="41"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="35"/>
-      <c r="G884" s="36"/>
-      <c r="I884" s="36"/>
+      <c r="A884" s="40"/>
+      <c r="G884" s="41"/>
+      <c r="I884" s="41"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="35"/>
-      <c r="G885" s="36"/>
-      <c r="I885" s="36"/>
+      <c r="A885" s="40"/>
+      <c r="G885" s="41"/>
+      <c r="I885" s="41"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="35"/>
-      <c r="G886" s="36"/>
-      <c r="I886" s="36"/>
+      <c r="A886" s="40"/>
+      <c r="G886" s="41"/>
+      <c r="I886" s="41"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="35"/>
-      <c r="G887" s="36"/>
-      <c r="I887" s="36"/>
+      <c r="A887" s="40"/>
+      <c r="G887" s="41"/>
+      <c r="I887" s="41"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="35"/>
-      <c r="G888" s="36"/>
-      <c r="I888" s="36"/>
+      <c r="A888" s="40"/>
+      <c r="G888" s="41"/>
+      <c r="I888" s="41"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="35"/>
-      <c r="G889" s="36"/>
-      <c r="I889" s="36"/>
+      <c r="A889" s="40"/>
+      <c r="G889" s="41"/>
+      <c r="I889" s="41"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="35"/>
-      <c r="G890" s="36"/>
-      <c r="I890" s="36"/>
+      <c r="A890" s="40"/>
+      <c r="G890" s="41"/>
+      <c r="I890" s="41"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="35"/>
-      <c r="G891" s="36"/>
-      <c r="I891" s="36"/>
+      <c r="A891" s="40"/>
+      <c r="G891" s="41"/>
+      <c r="I891" s="41"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="35"/>
-      <c r="G892" s="36"/>
-      <c r="I892" s="36"/>
+      <c r="A892" s="40"/>
+      <c r="G892" s="41"/>
+      <c r="I892" s="41"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="35"/>
-      <c r="G893" s="36"/>
-      <c r="I893" s="36"/>
+      <c r="A893" s="40"/>
+      <c r="G893" s="41"/>
+      <c r="I893" s="41"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="35"/>
-      <c r="G894" s="36"/>
-      <c r="I894" s="36"/>
+      <c r="A894" s="40"/>
+      <c r="G894" s="41"/>
+      <c r="I894" s="41"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="35"/>
-      <c r="G895" s="36"/>
-      <c r="I895" s="36"/>
+      <c r="A895" s="40"/>
+      <c r="G895" s="41"/>
+      <c r="I895" s="41"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="35"/>
-      <c r="G896" s="36"/>
-      <c r="I896" s="36"/>
+      <c r="A896" s="40"/>
+      <c r="G896" s="41"/>
+      <c r="I896" s="41"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="35"/>
-      <c r="G897" s="36"/>
-      <c r="I897" s="36"/>
+      <c r="A897" s="40"/>
+      <c r="G897" s="41"/>
+      <c r="I897" s="41"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="35"/>
-      <c r="G898" s="36"/>
-      <c r="I898" s="36"/>
+      <c r="A898" s="40"/>
+      <c r="G898" s="41"/>
+      <c r="I898" s="41"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="35"/>
-      <c r="G899" s="36"/>
-      <c r="I899" s="36"/>
+      <c r="A899" s="40"/>
+      <c r="G899" s="41"/>
+      <c r="I899" s="41"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="35"/>
-      <c r="G900" s="36"/>
-      <c r="I900" s="36"/>
+      <c r="A900" s="40"/>
+      <c r="G900" s="41"/>
+      <c r="I900" s="41"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="35"/>
-      <c r="G901" s="36"/>
-      <c r="I901" s="36"/>
+      <c r="A901" s="40"/>
+      <c r="G901" s="41"/>
+      <c r="I901" s="41"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="35"/>
-      <c r="G902" s="36"/>
-      <c r="I902" s="36"/>
+      <c r="A902" s="40"/>
+      <c r="G902" s="41"/>
+      <c r="I902" s="41"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="35"/>
-      <c r="G903" s="36"/>
-      <c r="I903" s="36"/>
+      <c r="A903" s="40"/>
+      <c r="G903" s="41"/>
+      <c r="I903" s="41"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="35"/>
-      <c r="G904" s="36"/>
-      <c r="I904" s="36"/>
+      <c r="A904" s="40"/>
+      <c r="G904" s="41"/>
+      <c r="I904" s="41"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="35"/>
-      <c r="G905" s="36"/>
-      <c r="I905" s="36"/>
+      <c r="A905" s="40"/>
+      <c r="G905" s="41"/>
+      <c r="I905" s="41"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="35"/>
-      <c r="G906" s="36"/>
-      <c r="I906" s="36"/>
+      <c r="A906" s="40"/>
+      <c r="G906" s="41"/>
+      <c r="I906" s="41"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="35"/>
-      <c r="G907" s="36"/>
-      <c r="I907" s="36"/>
+      <c r="A907" s="40"/>
+      <c r="G907" s="41"/>
+      <c r="I907" s="41"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="35"/>
-      <c r="G908" s="36"/>
-      <c r="I908" s="36"/>
+      <c r="A908" s="40"/>
+      <c r="G908" s="41"/>
+      <c r="I908" s="41"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="35"/>
-      <c r="G909" s="36"/>
-      <c r="I909" s="36"/>
+      <c r="A909" s="40"/>
+      <c r="G909" s="41"/>
+      <c r="I909" s="41"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="35"/>
-      <c r="G910" s="36"/>
-      <c r="I910" s="36"/>
+      <c r="A910" s="40"/>
+      <c r="G910" s="41"/>
+      <c r="I910" s="41"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="35"/>
-      <c r="G911" s="36"/>
-      <c r="I911" s="36"/>
+      <c r="A911" s="40"/>
+      <c r="G911" s="41"/>
+      <c r="I911" s="41"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="35"/>
-      <c r="G912" s="36"/>
-      <c r="I912" s="36"/>
+      <c r="A912" s="40"/>
+      <c r="G912" s="41"/>
+      <c r="I912" s="41"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="35"/>
-      <c r="G913" s="36"/>
-      <c r="I913" s="36"/>
+      <c r="A913" s="40"/>
+      <c r="G913" s="41"/>
+      <c r="I913" s="41"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="35"/>
-      <c r="G914" s="36"/>
-      <c r="I914" s="36"/>
+      <c r="A914" s="40"/>
+      <c r="G914" s="41"/>
+      <c r="I914" s="41"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="35"/>
-      <c r="G915" s="36"/>
-      <c r="I915" s="36"/>
+      <c r="A915" s="40"/>
+      <c r="G915" s="41"/>
+      <c r="I915" s="41"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="35"/>
-      <c r="G916" s="36"/>
-      <c r="I916" s="36"/>
+      <c r="A916" s="40"/>
+      <c r="G916" s="41"/>
+      <c r="I916" s="41"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="35"/>
-      <c r="G917" s="36"/>
-      <c r="I917" s="36"/>
+      <c r="A917" s="40"/>
+      <c r="G917" s="41"/>
+      <c r="I917" s="41"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="35"/>
-      <c r="G918" s="36"/>
-      <c r="I918" s="36"/>
+      <c r="A918" s="40"/>
+      <c r="G918" s="41"/>
+      <c r="I918" s="41"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="35"/>
-      <c r="G919" s="36"/>
-      <c r="I919" s="36"/>
+      <c r="A919" s="40"/>
+      <c r="G919" s="41"/>
+      <c r="I919" s="41"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="35"/>
-      <c r="G920" s="36"/>
-      <c r="I920" s="36"/>
+      <c r="A920" s="40"/>
+      <c r="G920" s="41"/>
+      <c r="I920" s="41"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="35"/>
-      <c r="G921" s="36"/>
-      <c r="I921" s="36"/>
+      <c r="A921" s="40"/>
+      <c r="G921" s="41"/>
+      <c r="I921" s="41"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="35"/>
-      <c r="G922" s="36"/>
-      <c r="I922" s="36"/>
+      <c r="A922" s="40"/>
+      <c r="G922" s="41"/>
+      <c r="I922" s="41"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="35"/>
-      <c r="G923" s="36"/>
-      <c r="I923" s="36"/>
+      <c r="A923" s="40"/>
+      <c r="G923" s="41"/>
+      <c r="I923" s="41"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="35"/>
-      <c r="G924" s="36"/>
-      <c r="I924" s="36"/>
+      <c r="A924" s="40"/>
+      <c r="G924" s="41"/>
+      <c r="I924" s="41"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="35"/>
-      <c r="G925" s="36"/>
-      <c r="I925" s="36"/>
+      <c r="A925" s="40"/>
+      <c r="G925" s="41"/>
+      <c r="I925" s="41"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="35"/>
-      <c r="G926" s="36"/>
-      <c r="I926" s="36"/>
+      <c r="A926" s="40"/>
+      <c r="G926" s="41"/>
+      <c r="I926" s="41"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="35"/>
-      <c r="G927" s="36"/>
-      <c r="I927" s="36"/>
+      <c r="A927" s="40"/>
+      <c r="G927" s="41"/>
+      <c r="I927" s="41"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="35"/>
-      <c r="G928" s="36"/>
-      <c r="I928" s="36"/>
+      <c r="A928" s="40"/>
+      <c r="G928" s="41"/>
+      <c r="I928" s="41"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="35"/>
-      <c r="G929" s="36"/>
-      <c r="I929" s="36"/>
+      <c r="A929" s="40"/>
+      <c r="G929" s="41"/>
+      <c r="I929" s="41"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="35"/>
-      <c r="G930" s="36"/>
-      <c r="I930" s="36"/>
+      <c r="A930" s="40"/>
+      <c r="G930" s="41"/>
+      <c r="I930" s="41"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="35"/>
-      <c r="G931" s="36"/>
-      <c r="I931" s="36"/>
+      <c r="A931" s="40"/>
+      <c r="G931" s="41"/>
+      <c r="I931" s="41"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="35"/>
-      <c r="G932" s="36"/>
-      <c r="I932" s="36"/>
+      <c r="A932" s="40"/>
+      <c r="G932" s="41"/>
+      <c r="I932" s="41"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="35"/>
-      <c r="G933" s="36"/>
-      <c r="I933" s="36"/>
+      <c r="A933" s="40"/>
+      <c r="G933" s="41"/>
+      <c r="I933" s="41"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="35"/>
-      <c r="G934" s="36"/>
-      <c r="I934" s="36"/>
+      <c r="A934" s="40"/>
+      <c r="G934" s="41"/>
+      <c r="I934" s="41"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="35"/>
-      <c r="G935" s="36"/>
-      <c r="I935" s="36"/>
+      <c r="A935" s="40"/>
+      <c r="G935" s="41"/>
+      <c r="I935" s="41"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="35"/>
-      <c r="G936" s="36"/>
-      <c r="I936" s="36"/>
+      <c r="A936" s="40"/>
+      <c r="G936" s="41"/>
+      <c r="I936" s="41"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="35"/>
-      <c r="G937" s="36"/>
-      <c r="I937" s="36"/>
+      <c r="A937" s="40"/>
+      <c r="G937" s="41"/>
+      <c r="I937" s="41"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="35"/>
-      <c r="G938" s="36"/>
-      <c r="I938" s="36"/>
+      <c r="A938" s="40"/>
+      <c r="G938" s="41"/>
+      <c r="I938" s="41"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="35"/>
-      <c r="G939" s="36"/>
-      <c r="I939" s="36"/>
+      <c r="A939" s="40"/>
+      <c r="G939" s="41"/>
+      <c r="I939" s="41"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="35"/>
-      <c r="G940" s="36"/>
-      <c r="I940" s="36"/>
+      <c r="A940" s="40"/>
+      <c r="G940" s="41"/>
+      <c r="I940" s="41"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="35"/>
-      <c r="G941" s="36"/>
-      <c r="I941" s="36"/>
+      <c r="A941" s="40"/>
+      <c r="G941" s="41"/>
+      <c r="I941" s="41"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="35"/>
-      <c r="G942" s="36"/>
-      <c r="I942" s="36"/>
+      <c r="A942" s="40"/>
+      <c r="G942" s="41"/>
+      <c r="I942" s="41"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="35"/>
-      <c r="G943" s="36"/>
-      <c r="I943" s="36"/>
+      <c r="A943" s="40"/>
+      <c r="G943" s="41"/>
+      <c r="I943" s="41"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="35"/>
-      <c r="G944" s="36"/>
-      <c r="I944" s="36"/>
+      <c r="A944" s="40"/>
+      <c r="G944" s="41"/>
+      <c r="I944" s="41"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="35"/>
-      <c r="G945" s="36"/>
-      <c r="I945" s="36"/>
+      <c r="A945" s="40"/>
+      <c r="G945" s="41"/>
+      <c r="I945" s="41"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="35"/>
-      <c r="G946" s="36"/>
-      <c r="I946" s="36"/>
+      <c r="A946" s="40"/>
+      <c r="G946" s="41"/>
+      <c r="I946" s="41"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="35"/>
-      <c r="G947" s="36"/>
-      <c r="I947" s="36"/>
+      <c r="A947" s="40"/>
+      <c r="G947" s="41"/>
+      <c r="I947" s="41"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="35"/>
-      <c r="G948" s="36"/>
-      <c r="I948" s="36"/>
+      <c r="A948" s="40"/>
+      <c r="G948" s="41"/>
+      <c r="I948" s="41"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="35"/>
-      <c r="G949" s="36"/>
-      <c r="I949" s="36"/>
+      <c r="A949" s="40"/>
+      <c r="G949" s="41"/>
+      <c r="I949" s="41"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="35"/>
-      <c r="G950" s="36"/>
-      <c r="I950" s="36"/>
+      <c r="A950" s="40"/>
+      <c r="G950" s="41"/>
+      <c r="I950" s="41"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="35"/>
-      <c r="G951" s="36"/>
-      <c r="I951" s="36"/>
+      <c r="A951" s="40"/>
+      <c r="G951" s="41"/>
+      <c r="I951" s="41"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="35"/>
-      <c r="G952" s="36"/>
-      <c r="I952" s="36"/>
+      <c r="A952" s="40"/>
+      <c r="G952" s="41"/>
+      <c r="I952" s="41"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="35"/>
-      <c r="G953" s="36"/>
-      <c r="I953" s="36"/>
+      <c r="A953" s="40"/>
+      <c r="G953" s="41"/>
+      <c r="I953" s="41"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="35"/>
-      <c r="G954" s="36"/>
-      <c r="I954" s="36"/>
+      <c r="A954" s="40"/>
+      <c r="G954" s="41"/>
+      <c r="I954" s="41"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="35"/>
-      <c r="G955" s="36"/>
-      <c r="I955" s="36"/>
+      <c r="A955" s="40"/>
+      <c r="G955" s="41"/>
+      <c r="I955" s="41"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="35"/>
-      <c r="G956" s="36"/>
-      <c r="I956" s="36"/>
+      <c r="A956" s="40"/>
+      <c r="G956" s="41"/>
+      <c r="I956" s="41"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="35"/>
-      <c r="G957" s="36"/>
-      <c r="I957" s="36"/>
+      <c r="A957" s="40"/>
+      <c r="G957" s="41"/>
+      <c r="I957" s="41"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="35"/>
-      <c r="G958" s="36"/>
-      <c r="I958" s="36"/>
+      <c r="A958" s="40"/>
+      <c r="G958" s="41"/>
+      <c r="I958" s="41"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="35"/>
-      <c r="G959" s="36"/>
-      <c r="I959" s="36"/>
+      <c r="A959" s="40"/>
+      <c r="G959" s="41"/>
+      <c r="I959" s="41"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="35"/>
-      <c r="G960" s="36"/>
-      <c r="I960" s="36"/>
+      <c r="A960" s="40"/>
+      <c r="G960" s="41"/>
+      <c r="I960" s="41"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="35"/>
-      <c r="G961" s="36"/>
-      <c r="I961" s="36"/>
+      <c r="A961" s="40"/>
+      <c r="G961" s="41"/>
+      <c r="I961" s="41"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="35"/>
-      <c r="G962" s="36"/>
-      <c r="I962" s="36"/>
+      <c r="A962" s="40"/>
+      <c r="G962" s="41"/>
+      <c r="I962" s="41"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="35"/>
-      <c r="G963" s="36"/>
-      <c r="I963" s="36"/>
+      <c r="A963" s="40"/>
+      <c r="G963" s="41"/>
+      <c r="I963" s="41"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="35"/>
-      <c r="G964" s="36"/>
-      <c r="I964" s="36"/>
+      <c r="A964" s="40"/>
+      <c r="G964" s="41"/>
+      <c r="I964" s="41"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="35"/>
-      <c r="G965" s="36"/>
-      <c r="I965" s="36"/>
+      <c r="A965" s="40"/>
+      <c r="G965" s="41"/>
+      <c r="I965" s="41"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="35"/>
-      <c r="G966" s="36"/>
-      <c r="I966" s="36"/>
+      <c r="A966" s="40"/>
+      <c r="G966" s="41"/>
+      <c r="I966" s="41"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="35"/>
-      <c r="G967" s="36"/>
-      <c r="I967" s="36"/>
+      <c r="A967" s="40"/>
+      <c r="G967" s="41"/>
+      <c r="I967" s="41"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="35"/>
-      <c r="G968" s="36"/>
-      <c r="I968" s="36"/>
+      <c r="A968" s="40"/>
+      <c r="G968" s="41"/>
+      <c r="I968" s="41"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="35"/>
-      <c r="G969" s="36"/>
-      <c r="I969" s="36"/>
+      <c r="A969" s="40"/>
+      <c r="G969" s="41"/>
+      <c r="I969" s="41"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="35"/>
-      <c r="G970" s="36"/>
-      <c r="I970" s="36"/>
+      <c r="A970" s="40"/>
+      <c r="G970" s="41"/>
+      <c r="I970" s="41"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="35"/>
-      <c r="G971" s="36"/>
-      <c r="I971" s="36"/>
+      <c r="A971" s="40"/>
+      <c r="G971" s="41"/>
+      <c r="I971" s="41"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="35"/>
-      <c r="G972" s="36"/>
-      <c r="I972" s="36"/>
+      <c r="A972" s="40"/>
+      <c r="G972" s="41"/>
+      <c r="I972" s="41"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="35"/>
-      <c r="G973" s="36"/>
-      <c r="I973" s="36"/>
+      <c r="A973" s="40"/>
+      <c r="G973" s="41"/>
+      <c r="I973" s="41"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="35"/>
-      <c r="G974" s="36"/>
-      <c r="I974" s="36"/>
+      <c r="A974" s="40"/>
+      <c r="G974" s="41"/>
+      <c r="I974" s="41"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="35"/>
-      <c r="G975" s="36"/>
-      <c r="I975" s="36"/>
+      <c r="A975" s="40"/>
+      <c r="G975" s="41"/>
+      <c r="I975" s="41"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="35"/>
-      <c r="G976" s="36"/>
-      <c r="I976" s="36"/>
+      <c r="A976" s="40"/>
+      <c r="G976" s="41"/>
+      <c r="I976" s="41"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="35"/>
-      <c r="G977" s="36"/>
-      <c r="I977" s="36"/>
+      <c r="A977" s="40"/>
+      <c r="G977" s="41"/>
+      <c r="I977" s="41"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="35"/>
-      <c r="G978" s="36"/>
-      <c r="I978" s="36"/>
+      <c r="A978" s="40"/>
+      <c r="G978" s="41"/>
+      <c r="I978" s="41"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="35"/>
-      <c r="G979" s="36"/>
-      <c r="I979" s="36"/>
+      <c r="A979" s="40"/>
+      <c r="G979" s="41"/>
+      <c r="I979" s="41"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="35"/>
-      <c r="G980" s="36"/>
-      <c r="I980" s="36"/>
+      <c r="A980" s="40"/>
+      <c r="G980" s="41"/>
+      <c r="I980" s="41"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="35"/>
-      <c r="G981" s="36"/>
-      <c r="I981" s="36"/>
+      <c r="A981" s="40"/>
+      <c r="G981" s="41"/>
+      <c r="I981" s="41"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="35"/>
-      <c r="G982" s="36"/>
-      <c r="I982" s="36"/>
+      <c r="A982" s="40"/>
+      <c r="G982" s="41"/>
+      <c r="I982" s="41"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="35"/>
-      <c r="G983" s="36"/>
-      <c r="I983" s="36"/>
+      <c r="A983" s="40"/>
+      <c r="G983" s="41"/>
+      <c r="I983" s="41"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="35"/>
-      <c r="G984" s="36"/>
-      <c r="I984" s="36"/>
+      <c r="A984" s="40"/>
+      <c r="G984" s="41"/>
+      <c r="I984" s="41"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="35"/>
-      <c r="G985" s="36"/>
-      <c r="I985" s="36"/>
+      <c r="A985" s="40"/>
+      <c r="G985" s="41"/>
+      <c r="I985" s="41"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="35"/>
-      <c r="G986" s="36"/>
-      <c r="I986" s="36"/>
+      <c r="A986" s="40"/>
+      <c r="G986" s="41"/>
+      <c r="I986" s="41"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="35"/>
-      <c r="G987" s="36"/>
-      <c r="I987" s="36"/>
+      <c r="A987" s="40"/>
+      <c r="G987" s="41"/>
+      <c r="I987" s="41"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="35"/>
-      <c r="G988" s="36"/>
-      <c r="I988" s="36"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="35"/>
-      <c r="G989" s="36"/>
-      <c r="I989" s="36"/>
+      <c r="A988" s="40"/>
+      <c r="G988" s="41"/>
+      <c r="I988" s="41"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="A989" s="40"/>
+      <c r="G989" s="41"/>
+      <c r="I989" s="41"/>
     </row>
     <row r="990">
-      <c r="A990" s="35"/>
-      <c r="G990" s="36"/>
-      <c r="I990" s="36"/>
+      <c r="A990" s="40"/>
+      <c r="G990" s="41"/>
+      <c r="I990" s="41"/>
     </row>
     <row r="991">
-      <c r="A991" s="35"/>
-      <c r="G991" s="36"/>
-      <c r="I991" s="36"/>
+      <c r="A991" s="40"/>
+      <c r="G991" s="41"/>
+      <c r="I991" s="41"/>
     </row>
     <row r="992">
-      <c r="A992" s="35"/>
-      <c r="G992" s="36"/>
-      <c r="I992" s="36"/>
+      <c r="A992" s="40"/>
+      <c r="G992" s="41"/>
+      <c r="I992" s="41"/>
     </row>
     <row r="993">
-      <c r="A993" s="35"/>
-      <c r="G993" s="36"/>
-      <c r="I993" s="36"/>
+      <c r="A993" s="40"/>
+      <c r="G993" s="41"/>
+      <c r="I993" s="41"/>
     </row>
     <row r="994">
-      <c r="A994" s="35"/>
-      <c r="G994" s="36"/>
-      <c r="I994" s="36"/>
+      <c r="A994" s="40"/>
+      <c r="G994" s="41"/>
+      <c r="I994" s="41"/>
     </row>
     <row r="995">
-      <c r="A995" s="35"/>
-      <c r="G995" s="36"/>
-      <c r="I995" s="36"/>
+      <c r="A995" s="40"/>
+      <c r="G995" s="41"/>
+      <c r="I995" s="41"/>
     </row>
     <row r="996">
-      <c r="A996" s="35"/>
-      <c r="G996" s="36"/>
-      <c r="I996" s="36"/>
+      <c r="A996" s="40"/>
+      <c r="G996" s="41"/>
+      <c r="I996" s="41"/>
     </row>
     <row r="997">
-      <c r="A997" s="35"/>
-      <c r="G997" s="36"/>
-      <c r="I997" s="36"/>
+      <c r="A997" s="40"/>
+      <c r="G997" s="41"/>
+      <c r="I997" s="41"/>
     </row>
     <row r="998">
-      <c r="A998" s="35"/>
-      <c r="G998" s="36"/>
-      <c r="I998" s="36"/>
+      <c r="A998" s="40"/>
+      <c r="G998" s="41"/>
+      <c r="I998" s="41"/>
     </row>
     <row r="999">
-      <c r="A999" s="35"/>
-      <c r="G999" s="36"/>
-      <c r="I999" s="36"/>
+      <c r="A999" s="40"/>
+      <c r="G999" s="41"/>
+      <c r="I999" s="41"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="40"/>
+      <c r="G1000" s="41"/>
+      <c r="I1000" s="41"/>
     </row>
   </sheetData>
   <printOptions/>
